--- a/Output/1988/Indiana/Indiana.xlsx
+++ b/Output/1988/Indiana/Indiana.xlsx
@@ -25115,7 +25115,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z584" xr:uid="{822A3C63-505F-1240-9DCF-BEC663D98CAB}"/>
   <sortState ref="A2:Z586">
     <sortCondition ref="C1"/>
   </sortState>

--- a/Output/1988/Indiana/Indiana.xlsx
+++ b/Output/1988/Indiana/Indiana.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4415" uniqueCount="760">
   <si>
     <t>State</t>
   </si>
@@ -533,1777 +533,1782 @@
     <t>COLUMBIA CITY</t>
   </si>
   <si>
+    <t>16 (portions of Bartholomew County, Columbus &amp; Taylorsville); Outside TV markets (portions of Bartholomew County)</t>
+  </si>
+  <si>
+    <t>CONNERSVILLE</t>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+  </si>
+  <si>
+    <t>See SWEETSER, IN</t>
+  </si>
+  <si>
+    <t>CORDRY/SWEETWATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>CORYDON</t>
+  </si>
+  <si>
+    <t>CRAWFORD COUNTY</t>
+  </si>
+  <si>
+    <t>38 (portions); Outside W markets (portions)</t>
+  </si>
+  <si>
+    <t>CRAWFORDSVILLE</t>
+  </si>
+  <si>
+    <t>CROMWELL</t>
+  </si>
+  <si>
+    <t>CROTHERSVILLE</t>
+  </si>
+  <si>
+    <t>CROWN POINT</t>
+  </si>
+  <si>
+    <t>CROWS NEST</t>
+  </si>
+  <si>
+    <t>CULVER</t>
+  </si>
+  <si>
+    <t>CUMBERLAND</t>
+  </si>
+  <si>
+    <t>CYNTHIANA</t>
+  </si>
+  <si>
+    <t>DALE</t>
+  </si>
+  <si>
+    <t>DALEVILLE</t>
+  </si>
+  <si>
+    <t>See MUNCIE, IN</t>
+  </si>
+  <si>
+    <t>DANVILLE</t>
+  </si>
+  <si>
+    <t>DARLINGTON</t>
+  </si>
+  <si>
+    <t>DARMSTADT</t>
+  </si>
+  <si>
+    <t>See EVANSVILLE, IN</t>
+  </si>
+  <si>
+    <t>Daviess County</t>
+  </si>
+  <si>
+    <t>See WASHINGTON, IN</t>
+  </si>
+  <si>
+    <t>DAYTON</t>
+  </si>
+  <si>
+    <t>DE KALB COUNTY</t>
+  </si>
+  <si>
+    <t>See also AUBURN, IN</t>
+  </si>
+  <si>
+    <t>DEARBORN COUNTY (unincorporated portions)</t>
+  </si>
+  <si>
+    <t>See DILLSBORO, IN</t>
+  </si>
+  <si>
+    <t>See also LAWRENCEBURG, IN</t>
+  </si>
+  <si>
+    <t>DECATUR</t>
+  </si>
+  <si>
+    <t>DECATUR COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENSBURG, IN</t>
+  </si>
+  <si>
+    <t>DELAWARE COUNTY</t>
+  </si>
+  <si>
+    <t>See also MUNCIE, IN</t>
+  </si>
+  <si>
+    <t>DELPHI</t>
+  </si>
+  <si>
+    <t>DEMOTTE</t>
+  </si>
+  <si>
+    <t>DILLSBORO</t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
+    <t>DUGGER</t>
+  </si>
+  <si>
+    <t>Dune Acres</t>
+  </si>
+  <si>
+    <t>DUNELAND BEACH</t>
+  </si>
+  <si>
+    <t>See MICHIGAN CITY, IN</t>
+  </si>
+  <si>
+    <t>DUNKIRK</t>
+  </si>
+  <si>
+    <t>DUNREITH</t>
+  </si>
+  <si>
+    <t>DYER</t>
+  </si>
+  <si>
+    <t>EAST CHICAGO</t>
+  </si>
+  <si>
+    <t>See HAMMOND, IN</t>
+  </si>
+  <si>
+    <t>EAST GERMANTOWN</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>EDGEWOOD</t>
+  </si>
+  <si>
+    <t>EDINBURGH</t>
+  </si>
+  <si>
+    <t>EDWARDSPORT</t>
+  </si>
+  <si>
+    <t>ELBERFELD</t>
+  </si>
+  <si>
+    <t>Elizabethtown</t>
+  </si>
+  <si>
+    <t>ELKHART</t>
+  </si>
+  <si>
+    <t>ELKHART COUNTY</t>
+  </si>
+  <si>
+    <t>See ELKHART, IN</t>
+  </si>
+  <si>
+    <t>ELLETTSVILLE</t>
+  </si>
+  <si>
+    <t>ELNORA</t>
+  </si>
+  <si>
+    <t>See ODON, IN</t>
+  </si>
+  <si>
+    <t>ELWOOD</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>See CRAWFORD COUNTY, IN</t>
+  </si>
+  <si>
+    <t>EVANSVILLE</t>
+  </si>
+  <si>
+    <t>FAIRMONT</t>
+  </si>
+  <si>
+    <t>FAIRVIEW</t>
+  </si>
+  <si>
+    <t>See CLINTON, IN</t>
+  </si>
+  <si>
+    <t>FARMERSBURG</t>
+  </si>
+  <si>
+    <t>See SHELBURN, IN</t>
+  </si>
+  <si>
+    <t>FARMLAND</t>
+  </si>
+  <si>
+    <t>FAYETTE COUNTY</t>
+  </si>
+  <si>
+    <t>See CONNERSVILLE, IN</t>
+  </si>
+  <si>
+    <t>FERDINAND</t>
+  </si>
+  <si>
+    <t>FISH LAKE</t>
+  </si>
+  <si>
+    <t>See LA PORTE, IN</t>
+  </si>
+  <si>
+    <t>FISHERS</t>
+  </si>
+  <si>
+    <t>FISHERSBURG</t>
+  </si>
+  <si>
+    <t>See LAPEL, IN</t>
+  </si>
+  <si>
+    <t>FLORA</t>
+  </si>
+  <si>
+    <t>FLOYD COUNTY</t>
+  </si>
+  <si>
+    <t>See GEORGETOWN, IN</t>
+  </si>
+  <si>
+    <t>See also NEW ALBANY, IN</t>
+  </si>
+  <si>
+    <t>FORT BENJAMIN HARRISON</t>
+  </si>
+  <si>
+    <t>FORT BRANCH</t>
+  </si>
+  <si>
+    <t>FORT WAYNE</t>
+  </si>
+  <si>
+    <t>FORTVILLE</t>
+  </si>
+  <si>
+    <t>FOUNTAIN CITY</t>
+  </si>
+  <si>
+    <t>See LYNN, IN</t>
+  </si>
+  <si>
+    <t>FOUNTAIN COUNTY</t>
+  </si>
+  <si>
+    <t>See ATTICA, IN</t>
+  </si>
+  <si>
+    <t>FOWLER</t>
+  </si>
+  <si>
+    <t>See also ATTICA, IN</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>FRANKFORT</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>FRANKLIN COUNTY</t>
+  </si>
+  <si>
+    <t>See BROOKVILLE, IN</t>
+  </si>
+  <si>
+    <t>FRANKTON</t>
+  </si>
+  <si>
+    <t>16 (Frankton &amp; portions of Madison County); Below 100 (portions of Madison County)</t>
+  </si>
+  <si>
+    <t>FREELANDVILLE</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>See ANGOLA, IN</t>
+  </si>
+  <si>
+    <t>FRENCH LICK</t>
+  </si>
+  <si>
+    <t>FULTON COUNTY</t>
+  </si>
+  <si>
+    <t>See ROCHESTER, IN</t>
+  </si>
+  <si>
+    <t>GALENA</t>
+  </si>
+  <si>
+    <t>GALVESTON</t>
+  </si>
+  <si>
+    <t>GARRETT</t>
+  </si>
+  <si>
+    <t>GARY</t>
+  </si>
+  <si>
+    <t>GAS CITY</t>
+  </si>
+  <si>
+    <t>GASTON</t>
+  </si>
+  <si>
+    <t>GEIST LAKE</t>
+  </si>
+  <si>
+    <t>GENEVA</t>
+  </si>
+  <si>
+    <t>GENTRYVILLE</t>
+  </si>
+  <si>
+    <t>GEORGETOWN</t>
+  </si>
+  <si>
+    <t>GIBSON COUNTY</t>
+  </si>
+  <si>
+    <t>See FORT BRANCH, IN</t>
+  </si>
+  <si>
+    <t>See also PRINCETON, IN</t>
+  </si>
+  <si>
+    <t>GOODLAND</t>
+  </si>
+  <si>
+    <t>GOSHEN</t>
+  </si>
+  <si>
+    <t>GOSPORT</t>
+  </si>
+  <si>
+    <t>GRABILL</t>
+  </si>
+  <si>
+    <t>GRANT COUNTY</t>
+  </si>
+  <si>
+    <t>See also MARION, IN</t>
+  </si>
+  <si>
+    <t>Grant County</t>
+  </si>
+  <si>
+    <t>See also MATTHEWS, IN</t>
+  </si>
+  <si>
+    <t>GREENCASTLE</t>
+  </si>
+  <si>
+    <t>GREENDALE</t>
+  </si>
+  <si>
+    <t>GREENE COUNTY</t>
+  </si>
+  <si>
+    <t>See LINTON, IN</t>
+  </si>
+  <si>
+    <t>GREENFIELD</t>
+  </si>
+  <si>
+    <t>GREENSBURG</t>
+  </si>
+  <si>
+    <t>GREENTOWN</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>GREENWOOD</t>
+  </si>
+  <si>
+    <t>GRIFFITH</t>
+  </si>
+  <si>
+    <t>GRISSOM AFB</t>
+  </si>
+  <si>
+    <t>HAGERSTOWN</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>See also Comcast Cablevlslon of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>See also NOBLESVILLE, IN</t>
+  </si>
+  <si>
+    <t>Hamilton County (portions)</t>
+  </si>
+  <si>
+    <t>See Comcast Cablevision of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>HAMILTON TWP.</t>
+  </si>
+  <si>
+    <t>HAMLET</t>
+  </si>
+  <si>
+    <t>HAMMOND</t>
+  </si>
+  <si>
+    <t>HANCOCK COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENFIELD, IN</t>
+  </si>
+  <si>
+    <t>See also INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>HANOVER</t>
+  </si>
+  <si>
+    <t>See MADISON, IN</t>
+  </si>
+  <si>
+    <t>HARLAN</t>
+  </si>
+  <si>
+    <t>HARMONY</t>
+  </si>
+  <si>
+    <t>HARRISON COUNTY</t>
+  </si>
+  <si>
+    <t>See CORYDON, IN</t>
+  </si>
+  <si>
+    <t>HARRISON TWP.</t>
+  </si>
+  <si>
+    <t>HARTFORD CITY</t>
+  </si>
+  <si>
+    <t>82 (portions of Blackford County, Hartford City &amp; Upland); Below 100 (portions of Blackford County, Eaton &amp; Fairmont)</t>
+  </si>
+  <si>
+    <t>HAUBSTADT</t>
+  </si>
+  <si>
+    <t>HEBRON</t>
+  </si>
+  <si>
+    <t>HENDRICKS COUNTY</t>
+  </si>
+  <si>
+    <t>HENRY COUNTY</t>
+  </si>
+  <si>
+    <t>See NEW CASTLE, IN</t>
+  </si>
+  <si>
+    <t>HENRY COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>HENRYVILLE</t>
+  </si>
+  <si>
+    <t>HIGHLAND</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>HOMECROFT</t>
+  </si>
+  <si>
+    <t>HOPE</t>
+  </si>
+  <si>
+    <t>See SHELBYVILLE, IN</t>
+  </si>
+  <si>
+    <t>HOWARD COUNTY</t>
+  </si>
+  <si>
+    <t>HUNTERDON</t>
+  </si>
+  <si>
+    <t>HUNTINGBURG</t>
+  </si>
+  <si>
+    <t>See JASPER, IN</t>
+  </si>
+  <si>
+    <t>HUNTINGTON</t>
+  </si>
+  <si>
+    <t>HUNTINGTON COUNTY</t>
+  </si>
+  <si>
+    <t>See HUNTINGTON, IN</t>
+  </si>
+  <si>
+    <t>HYMERA</t>
+  </si>
+  <si>
+    <t>INDIANAPOLIS (portions)</t>
+  </si>
+  <si>
+    <t>INGALLS</t>
+  </si>
+  <si>
+    <t>See FORTVILLE, IN</t>
+  </si>
+  <si>
+    <t>JACKSON COUNTY</t>
+  </si>
+  <si>
+    <t>See SEYMOUR, IN</t>
+  </si>
+  <si>
+    <t>JAMESTOWN</t>
+  </si>
+  <si>
+    <t>JASONVILLE</t>
+  </si>
+  <si>
+    <t>JASPER</t>
+  </si>
+  <si>
+    <t>JASPER COUNTY</t>
+  </si>
+  <si>
+    <t>See REMINGTON, IN</t>
+  </si>
+  <si>
+    <t>JEFFERSON TWP.</t>
+  </si>
+  <si>
+    <t>JEFFERSONVILLE</t>
+  </si>
+  <si>
+    <t>JENNINGS COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH VERNON, IN</t>
+  </si>
+  <si>
+    <t>JOHNSON COUNTY</t>
+  </si>
+  <si>
+    <t>JONESBORO</t>
+  </si>
+  <si>
+    <t>KENDALLVILLE</t>
+  </si>
+  <si>
+    <t>KENNARO</t>
+  </si>
+  <si>
+    <t>See MIDDLETOWN, IN</t>
+  </si>
+  <si>
+    <t>KENTLAND</t>
+  </si>
+  <si>
+    <t>KINGSBURY</t>
+  </si>
+  <si>
+    <t>KINGSFORD HEIGHTS</t>
+  </si>
+  <si>
+    <t>KIBKLIN</t>
+  </si>
+  <si>
+    <t>See SHERIDAN, IN</t>
+  </si>
+  <si>
+    <t>KNIGHTSTOWN</t>
+  </si>
+  <si>
+    <t>16 (KnightstoWn, Dunreith, Carthage, portions of Henry &amp; Rush Counties; Below 100 (Spiceland)</t>
+  </si>
+  <si>
+    <t>KNIGHTSVILLE</t>
+  </si>
+  <si>
+    <t>KNOX</t>
+  </si>
+  <si>
+    <t>80 (Knox &amp; portions of Starke County); Outside TV markets (Bass Lake, portions of Starke County &amp; Toto)</t>
+  </si>
+  <si>
+    <t>KNOX COUNTY</t>
+  </si>
+  <si>
+    <t>See VINCENNES, IN</t>
+  </si>
+  <si>
+    <t>KOKOMO</t>
+  </si>
+  <si>
+    <t>KOONTZ LAKE</t>
+  </si>
+  <si>
+    <t>KOSCIUSKO COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH WEBSTER, IN</t>
+  </si>
+  <si>
+    <t>See also SYRACUSE, IN</t>
+  </si>
+  <si>
+    <t>See also WARSAW, IN</t>
+  </si>
+  <si>
+    <t>KOUTS</t>
+  </si>
+  <si>
+    <t>La Crosse</t>
+  </si>
+  <si>
+    <t>See KOUTS, IN</t>
+  </si>
+  <si>
+    <t>LA FONTAINE</t>
+  </si>
+  <si>
+    <t>LA PORTE</t>
+  </si>
+  <si>
+    <t>LA PORTE COUNTY</t>
+  </si>
+  <si>
+    <t>See also MICHIGAN CITY, IN</t>
+  </si>
+  <si>
+    <t>LA PORTE COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>LAGRANGE</t>
+  </si>
+  <si>
+    <t>LAGRANGE COUNTY</t>
+  </si>
+  <si>
+    <t>See also LAGRANGE, IN</t>
+  </si>
+  <si>
+    <t>LAKE COUNTY (unincorporated portion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See MERRILLVILLE, IN</t>
+  </si>
+  <si>
+    <t>LAKE OF THE FOUR SEASONS</t>
+  </si>
+  <si>
+    <t>LAKE STATION</t>
+  </si>
+  <si>
+    <t>LAKEVILLE</t>
+  </si>
+  <si>
+    <t>See WALKERTON, IN</t>
+  </si>
+  <si>
+    <t>Lanesville</t>
+  </si>
+  <si>
+    <t>LAPAZ</t>
+  </si>
+  <si>
+    <t>See LAKEVILLE, IN</t>
+  </si>
+  <si>
+    <t>LAPEL</t>
+  </si>
+  <si>
+    <t>LAWRENCE</t>
+  </si>
+  <si>
+    <t>LAWRENCE COUNTY</t>
+  </si>
+  <si>
+    <t>See BEDFORD, IN</t>
+  </si>
+  <si>
+    <t>Lawrence County (portions)</t>
+  </si>
+  <si>
+    <t>Lawrence County (southern portion)</t>
+  </si>
+  <si>
+    <t>See MONROE COUNTY (portions), IN</t>
+  </si>
+  <si>
+    <t>LAWRENCEBURG</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>LEESBURG</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>LIBERTY TWP.</t>
+  </si>
+  <si>
+    <t>LIGONIER</t>
+  </si>
+  <si>
+    <t>80, 82</t>
+  </si>
+  <si>
+    <t>LINDEN</t>
+  </si>
+  <si>
+    <t>LINTON</t>
+  </si>
+  <si>
+    <t>Linton</t>
+  </si>
+  <si>
+    <t>Lizton</t>
+  </si>
+  <si>
+    <t>LOGANSPORT</t>
+  </si>
+  <si>
+    <t>LONG BEACH</t>
+  </si>
+  <si>
+    <t>LOOGOOTEE</t>
+  </si>
+  <si>
+    <t>LOST CREEK TWP. (northeast portion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See BRAZIL, IN</t>
+  </si>
+  <si>
+    <t>LOWELL</t>
+  </si>
+  <si>
+    <t>LYNN</t>
+  </si>
+  <si>
+    <t>LYNNVILLE</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>See WORTHINGTON, IN</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>MADISON COUNTY</t>
+  </si>
+  <si>
+    <t>See ALEXANDRIA, IN</t>
+  </si>
+  <si>
+    <t>See also ANDERSON, IN</t>
+  </si>
+  <si>
+    <t>See also ELWOOD, IN</t>
+  </si>
+  <si>
+    <t>MADISON COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See FRANKTON, IN</t>
+  </si>
+  <si>
+    <t>MARIAH HILL</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>82 (Gas City, portions of Grant County &amp; Marion); Below 100 (portions of Grant County &amp; Jonesboro)</t>
+  </si>
+  <si>
+    <t>MARKLE</t>
+  </si>
+  <si>
+    <t>MARSHALL COUNTY</t>
+  </si>
+  <si>
+    <t>See CULVER, IN</t>
+  </si>
+  <si>
+    <t>See also LAKEVILLE, IN</t>
+  </si>
+  <si>
+    <t>See also PLYMOUTH, IN</t>
+  </si>
+  <si>
+    <t>MARTINSVILLE</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>McCORDSVILLE</t>
+  </si>
+  <si>
+    <t>MENTONE</t>
+  </si>
+  <si>
+    <t>MERIDIAN HILLS</t>
+  </si>
+  <si>
+    <t>MERRILLVILLE</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MIAMI COUNTY</t>
+  </si>
+  <si>
+    <t>MICHIANA SHORES</t>
+  </si>
+  <si>
+    <t>MICHIGAN CITY</t>
+  </si>
+  <si>
+    <t>Michlgantown</t>
+  </si>
+  <si>
+    <t>MIDDLEBURY</t>
+  </si>
+  <si>
+    <t>MIDDLETOWN</t>
+  </si>
+  <si>
+    <t>16 (Shirley, Wilkinson); Below 100 (Kennard, Middle-town)</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>MILFORD</t>
+  </si>
+  <si>
+    <t>See SYRACUSE, IN</t>
+  </si>
+  <si>
+    <t>MILLERSBURG</t>
+  </si>
+  <si>
+    <t>See TOPEKA, IN</t>
+  </si>
+  <si>
+    <t>MILTON</t>
+  </si>
+  <si>
+    <t>MISHAWAKA</t>
+  </si>
+  <si>
+    <t>See SOUTH BEND, IN</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>16 (Mitchell &amp; Orleans); Outside TV markets (Paoli)</t>
+  </si>
+  <si>
+    <t>MONON</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>See DECATUR, IN</t>
+  </si>
+  <si>
+    <t>See also HENRYVILLE, IN</t>
+  </si>
+  <si>
+    <t>MONROE CITY</t>
+  </si>
+  <si>
+    <t>Outside TV Markets</t>
+  </si>
+  <si>
+    <t>MONROE COUNTY</t>
+  </si>
+  <si>
+    <t>Monroe County (portions)</t>
+  </si>
+  <si>
+    <t>MONROE TWP.</t>
+  </si>
+  <si>
+    <t>MONROEVILLE</t>
+  </si>
+  <si>
+    <t>MONTEZUMA</t>
+  </si>
+  <si>
+    <t>MONTGOMERY COUNTY</t>
+  </si>
+  <si>
+    <t>See CRAWFORDSVILLE, IN</t>
+  </si>
+  <si>
+    <t>MONTGOMERY COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See NEW MARKET, IN</t>
+  </si>
+  <si>
+    <t>MONTICELLO</t>
+  </si>
+  <si>
+    <t>MONTPELIER</t>
+  </si>
+  <si>
+    <t>MOORES HILL</t>
+  </si>
+  <si>
+    <t>MOORESVILLE</t>
+  </si>
+  <si>
+    <t>MORGAN COUNTY</t>
+  </si>
+  <si>
+    <t>See also MARTINSVILLE, IN</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>See BATESVILLE, IN</t>
+  </si>
+  <si>
+    <t>MOUNT AUBURN</t>
+  </si>
+  <si>
+    <t>MOUNT PLEASANT TWP.</t>
+  </si>
+  <si>
+    <t>MOUNT SUMMIT</t>
+  </si>
+  <si>
+    <t>MOUNT VERNON</t>
+  </si>
+  <si>
+    <t>MULBERRY</t>
+  </si>
+  <si>
+    <t>MUNCIE</t>
+  </si>
+  <si>
+    <t>MUNSTEB</t>
+  </si>
+  <si>
+    <t>NAPPANEE</t>
+  </si>
+  <si>
+    <t>NEW ALBANY</t>
+  </si>
+  <si>
+    <t>NEW CARLISLE</t>
+  </si>
+  <si>
+    <t>NEW CASTLE</t>
+  </si>
+  <si>
+    <t>NEW CHICAGO</t>
+  </si>
+  <si>
+    <t>NEW HARMONY</t>
+  </si>
+  <si>
+    <t>NEW HAVEN</t>
+  </si>
+  <si>
+    <t>NEW MARKET</t>
+  </si>
+  <si>
+    <t>NEW MIDDLETON</t>
+  </si>
+  <si>
+    <t>NEW PALESTINE</t>
+  </si>
+  <si>
+    <t>NEW PARIS</t>
+  </si>
+  <si>
+    <t>NEW RICHMOND</t>
+  </si>
+  <si>
+    <t>See LINDEN, IN</t>
+  </si>
+  <si>
+    <t>NEW ROSS</t>
+  </si>
+  <si>
+    <t>NEW SALISBURY</t>
+  </si>
+  <si>
+    <t>NEW WHITELAND</t>
+  </si>
+  <si>
+    <t>NEWBURGH</t>
+  </si>
+  <si>
+    <t>NOBLE COUNTY</t>
+  </si>
+  <si>
+    <t>NOBLESVILLE</t>
+  </si>
+  <si>
+    <t>NORTH CROWS NEST</t>
+  </si>
+  <si>
+    <t>NORTH JUDSON</t>
+  </si>
+  <si>
+    <t>NORTH LIBERTY</t>
+  </si>
+  <si>
+    <t>NORTH MANCHESTER</t>
+  </si>
+  <si>
+    <t>NORTH SALEM</t>
+  </si>
+  <si>
+    <t>NORTH VERNON</t>
+  </si>
+  <si>
+    <t>Outside Tv markets</t>
+  </si>
+  <si>
+    <t>NORTH WEBSTER</t>
+  </si>
+  <si>
+    <t>80, 82 (Cromwell, portions of Kosciusko County, Leesburg &amp; North Webster); 82 (portions of Ko-scuisko County &amp; Pierceton)</t>
+  </si>
+  <si>
+    <t>OAKLAND CITY</t>
+  </si>
+  <si>
+    <t>OAKTOWN</t>
+  </si>
+  <si>
+    <t>OOOK</t>
+  </si>
+  <si>
+    <t>16 (Elnora, Odon); Outside TV markets (Plainville)</t>
+  </si>
+  <si>
+    <t>OGDEN DUNES</t>
+  </si>
+  <si>
+    <t>See PORTAGE, IN</t>
+  </si>
+  <si>
+    <t>OHIO COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See RISING SUN, IN</t>
+  </si>
+  <si>
+    <t>OLDENBURG</t>
+  </si>
+  <si>
+    <t>OOLITIC</t>
+  </si>
+  <si>
+    <t>ORLEANS</t>
+  </si>
+  <si>
+    <t>See MITCHELL, IN</t>
+  </si>
+  <si>
+    <t>OSCEOLA</t>
+  </si>
+  <si>
+    <t>OSGOOD</t>
+  </si>
+  <si>
+    <t>OSSIAN</t>
+  </si>
+  <si>
+    <t>OWENSVILLE</t>
+  </si>
+  <si>
+    <t>OXFORD</t>
+  </si>
+  <si>
+    <t>PAOLI</t>
+  </si>
+  <si>
+    <t>PARKE COUNTY</t>
+  </si>
+  <si>
+    <t>See MONTEZUMA, IN</t>
+  </si>
+  <si>
+    <t>PARKE COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>PARKER CITY</t>
+  </si>
+  <si>
+    <t>PATOKA</t>
+  </si>
+  <si>
+    <t>PEKIN</t>
+  </si>
+  <si>
+    <t>Pennville</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PETERSBURG</t>
+  </si>
+  <si>
+    <t>See also LOOGOOTEE, IN</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>See NEW PALESTINE, IN</t>
+  </si>
+  <si>
+    <t>PIERCETON</t>
+  </si>
+  <si>
+    <t>PIERGETDN</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>PITTSBORO</t>
+  </si>
+  <si>
+    <t>See HENDRICKS COUNTY, IN</t>
+  </si>
+  <si>
+    <t>PLAINFIELD</t>
+  </si>
+  <si>
+    <t>PLAINVILLE</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>PORTAGE</t>
+  </si>
+  <si>
+    <t>PORTER</t>
+  </si>
+  <si>
+    <t>PORTER COUNTY</t>
+  </si>
+  <si>
+    <t>PORTER TWP.</t>
+  </si>
+  <si>
+    <t>See BRISTOL, IN</t>
+  </si>
+  <si>
+    <t>PORTLAND</t>
+  </si>
+  <si>
+    <t>POSEY COUNTY</t>
+  </si>
+  <si>
+    <t>See NEW HARMONY, IN</t>
+  </si>
+  <si>
+    <t>POSEYVILLE</t>
+  </si>
+  <si>
+    <t>See also NEW HARMONY, IN</t>
+  </si>
+  <si>
+    <t>POTTAWATTOMIE PARK</t>
+  </si>
+  <si>
+    <t>PRINCETON</t>
+  </si>
+  <si>
+    <t>PUTNAM COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENCASTLE, IN</t>
+  </si>
+  <si>
+    <t>RANDOLPH COUNTY</t>
+  </si>
+  <si>
+    <t>RAVENSWOOD</t>
+  </si>
+  <si>
+    <t>REDKEY</t>
+  </si>
+  <si>
+    <t>REMINGTON</t>
+  </si>
+  <si>
+    <t>RENSSELAER</t>
+  </si>
+  <si>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>RIDGEVILLE</t>
+  </si>
+  <si>
+    <t>See WINCHESTER, IN</t>
+  </si>
+  <si>
+    <t>RILEY</t>
+  </si>
+  <si>
+    <t>See TERRE HAUTE, IN</t>
+  </si>
+  <si>
+    <t>RISING SUN</t>
+  </si>
+  <si>
+    <t>RIVER RIDGE</t>
+  </si>
+  <si>
+    <t>ROACHDALE</t>
+  </si>
+  <si>
+    <t>ROANOKE</t>
+  </si>
+  <si>
+    <t>ROCHESTER</t>
+  </si>
+  <si>
+    <t>ROCKPORT</t>
+  </si>
+  <si>
+    <t>ROCKVILLE</t>
+  </si>
+  <si>
+    <t>ROME CITY</t>
+  </si>
+  <si>
+    <t>ROMNEY</t>
+  </si>
+  <si>
+    <t>ROSEDALE</t>
+  </si>
+  <si>
+    <t>ROSELAND</t>
+  </si>
+  <si>
+    <t>ROSSVILLE</t>
+  </si>
+  <si>
+    <t>ROYAL CENTER</t>
+  </si>
+  <si>
+    <t>RUSH COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>RUSHVILLE</t>
+  </si>
+  <si>
+    <t>RUSSIAVILLE</t>
+  </si>
+  <si>
+    <t>ST. JOE</t>
+  </si>
+  <si>
+    <t>ST. JOHN</t>
+  </si>
+  <si>
+    <t>ST. JOSEPH COUNTY</t>
+  </si>
+  <si>
+    <t>ST. PAUL</t>
+  </si>
+  <si>
+    <t>SALEM</t>
+  </si>
+  <si>
+    <t>SALEM TWP.</t>
+  </si>
+  <si>
+    <t>SANTA CLAUS</t>
+  </si>
+  <si>
+    <t>86 (Crlsney, Dale, Gentryville &amp; portions of Spencer County); Below 100 (Mariah Hill, Santa Claus &amp; portions of Spencer County)</t>
+  </si>
+  <si>
+    <t>SCHERERVILLE</t>
+  </si>
+  <si>
+    <t>SCOTTSBURG</t>
+  </si>
+  <si>
+    <t>38 (Austin &amp; Scottsburg); Outside TV markets (Crothersville)</t>
+  </si>
+  <si>
+    <t>SEELYVILLE</t>
+  </si>
+  <si>
+    <t>SELLERSBURG</t>
+  </si>
+  <si>
+    <t>SELMA</t>
+  </si>
+  <si>
+    <t>SEYMOUR</t>
+  </si>
+  <si>
+    <t>16 (Jackson); Outside TV markets (portions of JacksonCounty)</t>
+  </si>
+  <si>
+    <t>SHARPSVILLE</t>
+  </si>
+  <si>
+    <t>SHELBURN</t>
+  </si>
+  <si>
+    <t>SHELBY COUNTY</t>
+  </si>
+  <si>
+    <t>SHELBYVILLE</t>
+  </si>
+  <si>
+    <t>16 (Shelbyville); Outside TV markets (Hope)</t>
+  </si>
+  <si>
+    <t>SHERIDAN</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>SHOALS</t>
+  </si>
+  <si>
+    <t>Silver Lake</t>
+  </si>
+  <si>
+    <t>SKINNER LAKE</t>
+  </si>
+  <si>
+    <t>See ALBION, IN</t>
+  </si>
+  <si>
+    <t>Smlthsvilie</t>
+  </si>
+  <si>
+    <t>SOUTH BEND</t>
+  </si>
+  <si>
+    <t>SOUTH WHITLEY</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>SPEEDWAY</t>
+  </si>
+  <si>
+    <t>SPENCER</t>
+  </si>
+  <si>
+    <t>SPENCER COUNTY</t>
+  </si>
+  <si>
+    <t>SPENCERVILLE</t>
+  </si>
+  <si>
+    <t>SPENSER COUNTY</t>
+  </si>
+  <si>
+    <t>See ROCKPORT, IN</t>
+  </si>
+  <si>
+    <t>SPICELAND</t>
+  </si>
+  <si>
+    <t>SPRING GROVE</t>
+  </si>
+  <si>
+    <t>SPRING LAKE</t>
+  </si>
+  <si>
+    <t>SPRINGPORT</t>
+  </si>
+  <si>
+    <t>See MOUNT SUMMIT, IN</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STARKE COUNTY</t>
+  </si>
+  <si>
+    <t>STAUNTON</t>
+  </si>
+  <si>
+    <t>STEUBEN COUNTY</t>
+  </si>
+  <si>
+    <t>SULLIVAN</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>See also BLOOMFIELD, IN</t>
+  </si>
+  <si>
+    <t>SULLIVAN COUNTY</t>
+  </si>
+  <si>
+    <t>See SULLIVAN, IN</t>
+  </si>
+  <si>
+    <t>SUMMITVILLE</t>
+  </si>
+  <si>
+    <t>SWEETSER</t>
+  </si>
+  <si>
+    <t>82 (Sweetser); Outside TV markets (Converse)</t>
+  </si>
+  <si>
+    <t>Swiss City</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>TAYLORSVILLE</t>
+  </si>
+  <si>
+    <t>TELL CITY</t>
+  </si>
+  <si>
+    <t>TERHUNE</t>
+  </si>
+  <si>
+    <t>TERRE HAUTE</t>
+  </si>
+  <si>
+    <t>TIPPECANOE COUNTY</t>
+  </si>
+  <si>
+    <t>TIPTON</t>
+  </si>
+  <si>
+    <t>TIPTON COUNTY</t>
+  </si>
+  <si>
+    <t>TOPEKA</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>TRAIL CREEK</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UNION CITY</t>
+  </si>
+  <si>
+    <t>Unionvllle</t>
+  </si>
+  <si>
+    <t>UPLAND</t>
+  </si>
+  <si>
+    <t>UTICA</t>
+  </si>
+  <si>
+    <t>VALPARAISO</t>
+  </si>
+  <si>
+    <t>3 (Porter, portions of Porter County); Below 100 (Chesterton, portions of Porter County &amp; Valparaiso)</t>
+  </si>
+  <si>
+    <t>VANDERBURGH COUNTY</t>
+  </si>
+  <si>
+    <t>VANDERBURGH COUNTY (western portion)</t>
+  </si>
+  <si>
+    <t>VEEDERSBURG</t>
+  </si>
+  <si>
+    <t>VERMILLION COUNTY</t>
+  </si>
+  <si>
+    <t>VERNON</t>
+  </si>
+  <si>
+    <t>VERSAILLES</t>
+  </si>
+  <si>
+    <t>See also OSGOOD, IN</t>
+  </si>
+  <si>
+    <t>VEVAY</t>
+  </si>
+  <si>
+    <t>VIGO COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>VINCENNES</t>
+  </si>
+  <si>
+    <t>WABASH</t>
+  </si>
+  <si>
+    <t>WABASH COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH MANCHESTER, IN</t>
+  </si>
+  <si>
+    <t>WADESVILLE</t>
+  </si>
+  <si>
+    <t>WAKARUSA</t>
+  </si>
+  <si>
+    <t>WALKERTON</t>
+  </si>
+  <si>
+    <t>WALTON</t>
+  </si>
+  <si>
+    <t>Wanatah</t>
+  </si>
+  <si>
+    <t>See WESTVILLE, IN</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>WARREN COUNTY</t>
+  </si>
+  <si>
+    <t>WARREN PARK</t>
+  </si>
+  <si>
+    <t>WARRICK COUNTY</t>
+  </si>
+  <si>
+    <t>WARSAW</t>
+  </si>
+  <si>
+    <t>80, 82 (portions of Kosciusko County, Warsaw, Winoa Lake); 82 (portions of Koaciusko County, Pierceton); Outside TV markets (portions of Kosciusko County)</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WASHINGTON COUNTY</t>
+  </si>
+  <si>
+    <t>See SALEM, IN</t>
+  </si>
+  <si>
+    <t>WASHINGTON TWP.</t>
+  </si>
+  <si>
+    <t>WATERLOO</t>
+  </si>
+  <si>
+    <t>WAYNE COUNTY</t>
+  </si>
+  <si>
+    <t>WAYNETOWN</t>
+  </si>
+  <si>
+    <t>WELLS</t>
+  </si>
+  <si>
+    <t>WELLS COUNTY</t>
+  </si>
+  <si>
+    <t>WEST BADEN SPRINGS</t>
+  </si>
+  <si>
+    <t>See FRENCH LICK, IN</t>
+  </si>
+  <si>
+    <t>WEST LAFAYETTE</t>
+  </si>
+  <si>
+    <t>WEST TERRE HAUTE</t>
+  </si>
+  <si>
+    <t>WESTFIELD</t>
+  </si>
+  <si>
+    <t>WESTPORT</t>
+  </si>
+  <si>
+    <t>WESTVILLE</t>
+  </si>
+  <si>
+    <t>WHEATLAND</t>
+  </si>
+  <si>
+    <t>WHITE COUNTY</t>
+  </si>
+  <si>
+    <t>See MONTICELLO, IN</t>
+  </si>
+  <si>
+    <t>WHITELAND</t>
+  </si>
+  <si>
+    <t>WHITESTOWN</t>
+  </si>
+  <si>
+    <t>WHITING</t>
+  </si>
+  <si>
+    <t>WHITLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILFRED </t>
+  </si>
+  <si>
+    <t>WILKINSON</t>
+  </si>
+  <si>
+    <t>WILLIAMS CREEK</t>
+  </si>
+  <si>
+    <t>WILLIAMSPORT</t>
+  </si>
+  <si>
+    <t>WINAMAC</t>
+  </si>
+  <si>
+    <t>WINCHESTER</t>
+  </si>
+  <si>
+    <t>WINDFALL</t>
+  </si>
+  <si>
+    <t>WINGATE</t>
+  </si>
+  <si>
+    <t>WINONA LAKE</t>
+  </si>
+  <si>
+    <t>See WARSAW, IN</t>
+  </si>
+  <si>
+    <t>WINSLOW</t>
+  </si>
+  <si>
+    <t>WOLCOTT</t>
+  </si>
+  <si>
+    <t>WOLCOTTVILLE</t>
+  </si>
+  <si>
+    <t>See ROME CITY, IN</t>
+  </si>
+  <si>
+    <t>WOODBURN</t>
+  </si>
+  <si>
+    <t>WORTHINGTON</t>
+  </si>
+  <si>
+    <t>WYNNEDALE</t>
+  </si>
+  <si>
+    <t>YORKTOWN</t>
+  </si>
+  <si>
+    <t>ZIONSVILLE</t>
+  </si>
+  <si>
+    <t>See MARION, IN</t>
+  </si>
+  <si>
+    <t>See THREE OAKS TWP. MI</t>
+  </si>
+  <si>
+    <t>See CONSTANTINE, MI</t>
+  </si>
+  <si>
+    <t>See MONROE CITY, IN</t>
+  </si>
+  <si>
+    <t>See SOUTH WHITLEY, IN</t>
+  </si>
+  <si>
     <t>COLUMBUS</t>
-  </si>
-  <si>
-    <t>16 (portions of Bartholomew County, Columbus &amp; Taylorsville); Outside TV markets (portions of Bartholomew County)</t>
-  </si>
-  <si>
-    <t>CONNERSVILLE</t>
-  </si>
-  <si>
-    <t>CONVERSE</t>
-  </si>
-  <si>
-    <t>See SWEETSER, IN</t>
-  </si>
-  <si>
-    <t>CORDRY/SWEETWATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>CORYDON</t>
-  </si>
-  <si>
-    <t>CRAWFORD COUNTY</t>
-  </si>
-  <si>
-    <t>38 (portions); Outside W markets (portions)</t>
-  </si>
-  <si>
-    <t>CRAWFORDSVILLE</t>
-  </si>
-  <si>
-    <t>CROMWELL</t>
-  </si>
-  <si>
-    <t>CROTHERSVILLE</t>
-  </si>
-  <si>
-    <t>CROWN POINT</t>
-  </si>
-  <si>
-    <t>CROWS NEST</t>
-  </si>
-  <si>
-    <t>CULVER</t>
-  </si>
-  <si>
-    <t>CUMBERLAND</t>
-  </si>
-  <si>
-    <t>CYNTHIANA</t>
-  </si>
-  <si>
-    <t>DALE</t>
-  </si>
-  <si>
-    <t>DALEVILLE</t>
-  </si>
-  <si>
-    <t>See MUNCIE, IN</t>
-  </si>
-  <si>
-    <t>DANVILLE</t>
-  </si>
-  <si>
-    <t>DARLINGTON</t>
-  </si>
-  <si>
-    <t>DARMSTADT</t>
-  </si>
-  <si>
-    <t>See EVANSVILLE, IN</t>
-  </si>
-  <si>
-    <t>Daviess County</t>
-  </si>
-  <si>
-    <t>See WASHINGTON, IN</t>
-  </si>
-  <si>
-    <t>DAYTON</t>
-  </si>
-  <si>
-    <t>DE KALB COUNTY</t>
-  </si>
-  <si>
-    <t>See also AUBURN, IN</t>
-  </si>
-  <si>
-    <t>DEARBORN COUNTY (unincorporated portions)</t>
-  </si>
-  <si>
-    <t>See DILLSBORO, IN</t>
-  </si>
-  <si>
-    <t>See also LAWRENCEBURG, IN</t>
-  </si>
-  <si>
-    <t>DECATUR</t>
-  </si>
-  <si>
-    <t>DECATUR COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENSBURG, IN</t>
-  </si>
-  <si>
-    <t>DELAWARE COUNTY</t>
-  </si>
-  <si>
-    <t>See also MUNCIE, IN</t>
-  </si>
-  <si>
-    <t>DELPHI</t>
-  </si>
-  <si>
-    <t>DEMOTTE</t>
-  </si>
-  <si>
-    <t>DILLSBORO</t>
-  </si>
-  <si>
-    <t>DUBLIN</t>
-  </si>
-  <si>
-    <t>DUGGER</t>
-  </si>
-  <si>
-    <t>Dune Acres</t>
-  </si>
-  <si>
-    <t>DUNELAND BEACH</t>
-  </si>
-  <si>
-    <t>See MICHIGAN CITY, IN</t>
-  </si>
-  <si>
-    <t>DUNKIRK</t>
-  </si>
-  <si>
-    <t>DUNREITH</t>
-  </si>
-  <si>
-    <t>DYER</t>
-  </si>
-  <si>
-    <t>EAST CHICAGO</t>
-  </si>
-  <si>
-    <t>See HAMMOND, IN</t>
-  </si>
-  <si>
-    <t>EAST GERMANTOWN</t>
-  </si>
-  <si>
-    <t>EATON</t>
-  </si>
-  <si>
-    <t>EDGEWOOD</t>
-  </si>
-  <si>
-    <t>EDINBURGH</t>
-  </si>
-  <si>
-    <t>EDWARDSPORT</t>
-  </si>
-  <si>
-    <t>ELBERFELD</t>
-  </si>
-  <si>
-    <t>Elizabethtown</t>
-  </si>
-  <si>
-    <t>ELKHART</t>
-  </si>
-  <si>
-    <t>ELKHART COUNTY</t>
-  </si>
-  <si>
-    <t>See ELKHART, IN</t>
-  </si>
-  <si>
-    <t>ELLETTSVILLE</t>
-  </si>
-  <si>
-    <t>ELNORA</t>
-  </si>
-  <si>
-    <t>See ODON, IN</t>
-  </si>
-  <si>
-    <t>ELWOOD</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>See CRAWFORD COUNTY, IN</t>
-  </si>
-  <si>
-    <t>EVANSVILLE</t>
-  </si>
-  <si>
-    <t>FAIRMONT</t>
-  </si>
-  <si>
-    <t>FAIRVIEW</t>
-  </si>
-  <si>
-    <t>See CLINTON, IN</t>
-  </si>
-  <si>
-    <t>FARMERSBURG</t>
-  </si>
-  <si>
-    <t>See SHELBURN, IN</t>
-  </si>
-  <si>
-    <t>FARMLAND</t>
-  </si>
-  <si>
-    <t>FAYETTE COUNTY</t>
-  </si>
-  <si>
-    <t>See CONNERSVILLE, IN</t>
-  </si>
-  <si>
-    <t>FERDINAND</t>
-  </si>
-  <si>
-    <t>FISH LAKE</t>
-  </si>
-  <si>
-    <t>See LA PORTE, IN</t>
-  </si>
-  <si>
-    <t>FISHERS</t>
-  </si>
-  <si>
-    <t>FISHERSBURG</t>
-  </si>
-  <si>
-    <t>See LAPEL, IN</t>
-  </si>
-  <si>
-    <t>FLORA</t>
-  </si>
-  <si>
-    <t>FLOYD COUNTY</t>
-  </si>
-  <si>
-    <t>See GEORGETOWN, IN</t>
-  </si>
-  <si>
-    <t>See also NEW ALBANY, IN</t>
-  </si>
-  <si>
-    <t>FORT BENJAMIN HARRISON</t>
-  </si>
-  <si>
-    <t>FORT BRANCH</t>
-  </si>
-  <si>
-    <t>FORT WAYNE</t>
-  </si>
-  <si>
-    <t>FORTVILLE</t>
-  </si>
-  <si>
-    <t>FOUNTAIN CITY</t>
-  </si>
-  <si>
-    <t>See LYNN, IN</t>
-  </si>
-  <si>
-    <t>FOUNTAIN COUNTY</t>
-  </si>
-  <si>
-    <t>See ATTICA, IN</t>
-  </si>
-  <si>
-    <t>FOWLER</t>
-  </si>
-  <si>
-    <t>See also ATTICA, IN</t>
-  </si>
-  <si>
-    <t>FRANCISCO</t>
-  </si>
-  <si>
-    <t>FRANKFORT</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>FRANKLIN COUNTY</t>
-  </si>
-  <si>
-    <t>See BROOKVILLE, IN</t>
-  </si>
-  <si>
-    <t>FRANKTON</t>
-  </si>
-  <si>
-    <t>16 (Frankton &amp; portions of Madison County); Below 100 (portions of Madison County)</t>
-  </si>
-  <si>
-    <t>FREELANDVILLE</t>
-  </si>
-  <si>
-    <t>Fremont</t>
-  </si>
-  <si>
-    <t>See ANGOLA, IN</t>
-  </si>
-  <si>
-    <t>FRENCH LICK</t>
-  </si>
-  <si>
-    <t>FULTON COUNTY</t>
-  </si>
-  <si>
-    <t>See ROCHESTER, IN</t>
-  </si>
-  <si>
-    <t>GALENA</t>
-  </si>
-  <si>
-    <t>GALVESTON</t>
-  </si>
-  <si>
-    <t>GARRETT</t>
-  </si>
-  <si>
-    <t>GARY</t>
-  </si>
-  <si>
-    <t>GAS CITY</t>
-  </si>
-  <si>
-    <t>GASTON</t>
-  </si>
-  <si>
-    <t>GEIST LAKE</t>
-  </si>
-  <si>
-    <t>GENEVA</t>
-  </si>
-  <si>
-    <t>GENTRYVILLE</t>
-  </si>
-  <si>
-    <t>GEORGETOWN</t>
-  </si>
-  <si>
-    <t>GIBSON COUNTY</t>
-  </si>
-  <si>
-    <t>See FORT BRANCH, IN</t>
-  </si>
-  <si>
-    <t>See also PRINCETON, IN</t>
-  </si>
-  <si>
-    <t>GOODLAND</t>
-  </si>
-  <si>
-    <t>GOSHEN</t>
-  </si>
-  <si>
-    <t>GOSPORT</t>
-  </si>
-  <si>
-    <t>GRABILL</t>
-  </si>
-  <si>
-    <t>GRANT COUNTY</t>
-  </si>
-  <si>
-    <t>See also MARION, IN</t>
-  </si>
-  <si>
-    <t>Grant County</t>
-  </si>
-  <si>
-    <t>See also MATTHEWS, IN</t>
-  </si>
-  <si>
-    <t>GREENCASTLE</t>
-  </si>
-  <si>
-    <t>GREENDALE</t>
-  </si>
-  <si>
-    <t>GREENE COUNTY</t>
-  </si>
-  <si>
-    <t>See LINTON, IN</t>
-  </si>
-  <si>
-    <t>GREENFIELD</t>
-  </si>
-  <si>
-    <t>GREENSBURG</t>
-  </si>
-  <si>
-    <t>GREENTOWN</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>GREENWOOD</t>
-  </si>
-  <si>
-    <t>GRIFFITH</t>
-  </si>
-  <si>
-    <t>GRISSOM AFB</t>
-  </si>
-  <si>
-    <t>HAGERSTOWN</t>
-  </si>
-  <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>See also Comcast Cablevlslon of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>See also NOBLESVILLE, IN</t>
-  </si>
-  <si>
-    <t>Hamilton County (portions)</t>
-  </si>
-  <si>
-    <t>See Comcast Cablevision of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>HAMILTON TWP.</t>
-  </si>
-  <si>
-    <t>HAMLET</t>
-  </si>
-  <si>
-    <t>HAMMOND</t>
-  </si>
-  <si>
-    <t>HANCOCK COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENFIELD, IN</t>
-  </si>
-  <si>
-    <t>See also INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>HANOVER</t>
-  </si>
-  <si>
-    <t>See MADISON, IN</t>
-  </si>
-  <si>
-    <t>HARLAN</t>
-  </si>
-  <si>
-    <t>HARMONY</t>
-  </si>
-  <si>
-    <t>HARRISON COUNTY</t>
-  </si>
-  <si>
-    <t>See CORYDON, IN</t>
-  </si>
-  <si>
-    <t>HARRISON TWP.</t>
-  </si>
-  <si>
-    <t>HARTFORD CITY</t>
-  </si>
-  <si>
-    <t>82 (portions of Blackford County, Hartford City &amp; Upland); Below 100 (portions of Blackford County, Eaton &amp; Fairmont)</t>
-  </si>
-  <si>
-    <t>HAUBSTADT</t>
-  </si>
-  <si>
-    <t>HEBRON</t>
-  </si>
-  <si>
-    <t>HENDRICKS COUNTY</t>
-  </si>
-  <si>
-    <t>HENRY COUNTY</t>
-  </si>
-  <si>
-    <t>See NEW CASTLE, IN</t>
-  </si>
-  <si>
-    <t>HENRY COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>HENRYVILLE</t>
-  </si>
-  <si>
-    <t>HIGHLAND</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>HOMECROFT</t>
-  </si>
-  <si>
-    <t>HOPE</t>
-  </si>
-  <si>
-    <t>See SHELBYVILLE, IN</t>
-  </si>
-  <si>
-    <t>HOWARD COUNTY</t>
-  </si>
-  <si>
-    <t>HUNTERDON</t>
-  </si>
-  <si>
-    <t>HUNTINGBURG</t>
-  </si>
-  <si>
-    <t>See JASPER, IN</t>
-  </si>
-  <si>
-    <t>HUNTINGTON</t>
-  </si>
-  <si>
-    <t>HUNTINGTON COUNTY</t>
-  </si>
-  <si>
-    <t>See HUNTINGTON, IN</t>
-  </si>
-  <si>
-    <t>HYMERA</t>
-  </si>
-  <si>
-    <t>INDIANAPOLIS (portions)</t>
-  </si>
-  <si>
-    <t>INGALLS</t>
-  </si>
-  <si>
-    <t>See FORTVILLE, IN</t>
-  </si>
-  <si>
-    <t>JACKSON COUNTY</t>
-  </si>
-  <si>
-    <t>See SEYMOUR, IN</t>
-  </si>
-  <si>
-    <t>JAMESTOWN</t>
-  </si>
-  <si>
-    <t>JASONVILLE</t>
-  </si>
-  <si>
-    <t>JASPER</t>
-  </si>
-  <si>
-    <t>JASPER COUNTY</t>
-  </si>
-  <si>
-    <t>See REMINGTON, IN</t>
-  </si>
-  <si>
-    <t>JEFFERSON TWP.</t>
-  </si>
-  <si>
-    <t>JEFFERSONVILLE</t>
-  </si>
-  <si>
-    <t>JENNINGS COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH VERNON, IN</t>
-  </si>
-  <si>
-    <t>JOHNSON COUNTY</t>
-  </si>
-  <si>
-    <t>JONESBORO</t>
-  </si>
-  <si>
-    <t>KENDALLVILLE</t>
-  </si>
-  <si>
-    <t>KENNARO</t>
-  </si>
-  <si>
-    <t>See MIDDLETOWN, IN</t>
-  </si>
-  <si>
-    <t>KENTLAND</t>
-  </si>
-  <si>
-    <t>KINGSBURY</t>
-  </si>
-  <si>
-    <t>KINGSFORD HEIGHTS</t>
-  </si>
-  <si>
-    <t>KIBKLIN</t>
-  </si>
-  <si>
-    <t>See SHERIDAN, IN</t>
-  </si>
-  <si>
-    <t>KNIGHTSTOWN</t>
-  </si>
-  <si>
-    <t>16 (KnightstoWn, Dunreith, Carthage, portions of Henry &amp; Rush Counties; Below 100 (Spiceland)</t>
-  </si>
-  <si>
-    <t>KNIGHTSVILLE</t>
-  </si>
-  <si>
-    <t>KNOX</t>
-  </si>
-  <si>
-    <t>80 (Knox &amp; portions of Starke County); Outside TV markets (Bass Lake, portions of Starke County &amp; Toto)</t>
-  </si>
-  <si>
-    <t>KNOX COUNTY</t>
-  </si>
-  <si>
-    <t>See VINCENNES, IN</t>
-  </si>
-  <si>
-    <t>KOKOMO</t>
-  </si>
-  <si>
-    <t>KOONTZ LAKE</t>
-  </si>
-  <si>
-    <t>KOSCIUSKO COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH WEBSTER, IN</t>
-  </si>
-  <si>
-    <t>See also SYRACUSE, IN</t>
-  </si>
-  <si>
-    <t>See also WARSAW, IN</t>
-  </si>
-  <si>
-    <t>KOUTS</t>
-  </si>
-  <si>
-    <t>La Crosse</t>
-  </si>
-  <si>
-    <t>See KOUTS, IN</t>
-  </si>
-  <si>
-    <t>LA FONTAINE</t>
-  </si>
-  <si>
-    <t>LA PORTE</t>
-  </si>
-  <si>
-    <t>LA PORTE COUNTY</t>
-  </si>
-  <si>
-    <t>See also MICHIGAN CITY, IN</t>
-  </si>
-  <si>
-    <t>LA PORTE COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>LAGRANGE</t>
-  </si>
-  <si>
-    <t>LAGRANGE COUNTY</t>
-  </si>
-  <si>
-    <t>See also LAGRANGE, IN</t>
-  </si>
-  <si>
-    <t>LAKE COUNTY (unincorporated portion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See MERRILLVILLE, IN</t>
-  </si>
-  <si>
-    <t>LAKE OF THE FOUR SEASONS</t>
-  </si>
-  <si>
-    <t>LAKE STATION</t>
-  </si>
-  <si>
-    <t>LAKEVILLE</t>
-  </si>
-  <si>
-    <t>See WALKERTON, IN</t>
-  </si>
-  <si>
-    <t>Lanesville</t>
-  </si>
-  <si>
-    <t>LAPAZ</t>
-  </si>
-  <si>
-    <t>See LAKEVILLE, IN</t>
-  </si>
-  <si>
-    <t>LAPEL</t>
-  </si>
-  <si>
-    <t>LAWRENCE</t>
-  </si>
-  <si>
-    <t>LAWRENCE COUNTY</t>
-  </si>
-  <si>
-    <t>See BEDFORD, IN</t>
-  </si>
-  <si>
-    <t>Lawrence County (portions)</t>
-  </si>
-  <si>
-    <t>Lawrence County (southern portion)</t>
-  </si>
-  <si>
-    <t>See MONROE COUNTY (portions), IN</t>
-  </si>
-  <si>
-    <t>LAWRENCEBURG</t>
-  </si>
-  <si>
-    <t>LEBANON</t>
-  </si>
-  <si>
-    <t>LEESBURG</t>
-  </si>
-  <si>
-    <t>LEO</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>LIBERTY TWP.</t>
-  </si>
-  <si>
-    <t>LIGONIER</t>
-  </si>
-  <si>
-    <t>80, 82</t>
-  </si>
-  <si>
-    <t>LINDEN</t>
-  </si>
-  <si>
-    <t>LINTON</t>
-  </si>
-  <si>
-    <t>Linton</t>
-  </si>
-  <si>
-    <t>Lizton</t>
-  </si>
-  <si>
-    <t>LOGANSPORT</t>
-  </si>
-  <si>
-    <t>LONG BEACH</t>
-  </si>
-  <si>
-    <t>LOOGOOTEE</t>
-  </si>
-  <si>
-    <t>LOST CREEK TWP. (northeast portion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See BRAZIL, IN</t>
-  </si>
-  <si>
-    <t>LOWELL</t>
-  </si>
-  <si>
-    <t>LYNN</t>
-  </si>
-  <si>
-    <t>LYNNVILLE</t>
-  </si>
-  <si>
-    <t>Lyons</t>
-  </si>
-  <si>
-    <t>See WORTHINGTON, IN</t>
-  </si>
-  <si>
-    <t>MADISON</t>
-  </si>
-  <si>
-    <t>MADISON COUNTY</t>
-  </si>
-  <si>
-    <t>See ALEXANDRIA, IN</t>
-  </si>
-  <si>
-    <t>See also ANDERSON, IN</t>
-  </si>
-  <si>
-    <t>See also ELWOOD, IN</t>
-  </si>
-  <si>
-    <t>MADISON COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See FRANKTON, IN</t>
-  </si>
-  <si>
-    <t>MARIAH HILL</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
-    <t>82 (Gas City, portions of Grant County &amp; Marion); Below 100 (portions of Grant County &amp; Jonesboro)</t>
-  </si>
-  <si>
-    <t>MARKLE</t>
-  </si>
-  <si>
-    <t>MARSHALL COUNTY</t>
-  </si>
-  <si>
-    <t>See CULVER, IN</t>
-  </si>
-  <si>
-    <t>See also LAKEVILLE, IN</t>
-  </si>
-  <si>
-    <t>See also PLYMOUTH, IN</t>
-  </si>
-  <si>
-    <t>MARTINSVILLE</t>
-  </si>
-  <si>
-    <t>Matthews</t>
-  </si>
-  <si>
-    <t>McCORDSVILLE</t>
-  </si>
-  <si>
-    <t>MENTONE</t>
-  </si>
-  <si>
-    <t>MERIDIAN HILLS</t>
-  </si>
-  <si>
-    <t>MERRILLVILLE</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>MIAMI COUNTY</t>
-  </si>
-  <si>
-    <t>MICHIANA SHORES</t>
-  </si>
-  <si>
-    <t>MICHIGAN CITY</t>
-  </si>
-  <si>
-    <t>Michlgantown</t>
-  </si>
-  <si>
-    <t>MIDDLEBURY</t>
-  </si>
-  <si>
-    <t>MIDDLETOWN</t>
-  </si>
-  <si>
-    <t>16 (Shirley, Wilkinson); Below 100 (Kennard, Middle-town)</t>
-  </si>
-  <si>
-    <t>MILAN</t>
-  </si>
-  <si>
-    <t>MILFORD</t>
-  </si>
-  <si>
-    <t>See SYRACUSE, IN</t>
-  </si>
-  <si>
-    <t>MILLERSBURG</t>
-  </si>
-  <si>
-    <t>See TOPEKA, IN</t>
-  </si>
-  <si>
-    <t>MILTON</t>
-  </si>
-  <si>
-    <t>MISHAWAKA</t>
-  </si>
-  <si>
-    <t>See SOUTH BEND, IN</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>16 (Mitchell &amp; Orleans); Outside TV markets (Paoli)</t>
-  </si>
-  <si>
-    <t>MONON</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>See DECATUR, IN</t>
-  </si>
-  <si>
-    <t>See also HENRYVILLE, IN</t>
-  </si>
-  <si>
-    <t>MONROE CITY</t>
-  </si>
-  <si>
-    <t>Outside TV Markets</t>
-  </si>
-  <si>
-    <t>MONROE COUNTY</t>
-  </si>
-  <si>
-    <t>Monroe County (portions)</t>
-  </si>
-  <si>
-    <t>MONROE TWP.</t>
-  </si>
-  <si>
-    <t>MONROEVILLE</t>
-  </si>
-  <si>
-    <t>MONTEZUMA</t>
-  </si>
-  <si>
-    <t>MONTGOMERY COUNTY</t>
-  </si>
-  <si>
-    <t>See CRAWFORDSVILLE, IN</t>
-  </si>
-  <si>
-    <t>MONTGOMERY COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See NEW MARKET, IN</t>
-  </si>
-  <si>
-    <t>MONTICELLO</t>
-  </si>
-  <si>
-    <t>MONTPELIER</t>
-  </si>
-  <si>
-    <t>MOORES HILL</t>
-  </si>
-  <si>
-    <t>MOORESVILLE</t>
-  </si>
-  <si>
-    <t>MORGAN COUNTY</t>
-  </si>
-  <si>
-    <t>See also MARTINSVILLE, IN</t>
-  </si>
-  <si>
-    <t>MOROCCO</t>
-  </si>
-  <si>
-    <t>MORRIS</t>
-  </si>
-  <si>
-    <t>See BATESVILLE, IN</t>
-  </si>
-  <si>
-    <t>MOUNT AUBURN</t>
-  </si>
-  <si>
-    <t>MOUNT PLEASANT TWP.</t>
-  </si>
-  <si>
-    <t>MOUNT SUMMIT</t>
-  </si>
-  <si>
-    <t>MOUNT VERNON</t>
-  </si>
-  <si>
-    <t>MULBERRY</t>
-  </si>
-  <si>
-    <t>MUNCIE</t>
-  </si>
-  <si>
-    <t>MUNSTEB</t>
-  </si>
-  <si>
-    <t>NAPPANEE</t>
-  </si>
-  <si>
-    <t>NEW ALBANY</t>
-  </si>
-  <si>
-    <t>NEW CARLISLE</t>
-  </si>
-  <si>
-    <t>NEW CASTLE</t>
-  </si>
-  <si>
-    <t>NEW CHICAGO</t>
-  </si>
-  <si>
-    <t>NEW HARMONY</t>
-  </si>
-  <si>
-    <t>NEW HAVEN</t>
-  </si>
-  <si>
-    <t>NEW MARKET</t>
-  </si>
-  <si>
-    <t>NEW MIDDLETON</t>
-  </si>
-  <si>
-    <t>NEW PALESTINE</t>
-  </si>
-  <si>
-    <t>NEW PARIS</t>
-  </si>
-  <si>
-    <t>NEW RICHMOND</t>
-  </si>
-  <si>
-    <t>See LINDEN, IN</t>
-  </si>
-  <si>
-    <t>NEW ROSS</t>
-  </si>
-  <si>
-    <t>NEW SALISBURY</t>
-  </si>
-  <si>
-    <t>NEW WHITELAND</t>
-  </si>
-  <si>
-    <t>NEWBURGH</t>
-  </si>
-  <si>
-    <t>NOBLE COUNTY</t>
-  </si>
-  <si>
-    <t>NOBLESVILLE</t>
-  </si>
-  <si>
-    <t>NORTH CROWS NEST</t>
-  </si>
-  <si>
-    <t>NORTH JUDSON</t>
-  </si>
-  <si>
-    <t>NORTH LIBERTY</t>
-  </si>
-  <si>
-    <t>NORTH MANCHESTER</t>
-  </si>
-  <si>
-    <t>NORTH SALEM</t>
-  </si>
-  <si>
-    <t>NORTH VERNON</t>
-  </si>
-  <si>
-    <t>Outside Tv markets</t>
-  </si>
-  <si>
-    <t>NORTH WEBSTER</t>
-  </si>
-  <si>
-    <t>80, 82 (Cromwell, portions of Kosciusko County, Leesburg &amp; North Webster); 82 (portions of Ko-scuisko County &amp; Pierceton)</t>
-  </si>
-  <si>
-    <t>OAKLAND CITY</t>
-  </si>
-  <si>
-    <t>OAKTOWN</t>
-  </si>
-  <si>
-    <t>OOOK</t>
-  </si>
-  <si>
-    <t>16 (Elnora, Odon); Outside TV markets (Plainville)</t>
-  </si>
-  <si>
-    <t>OGDEN DUNES</t>
-  </si>
-  <si>
-    <t>See PORTAGE, IN</t>
-  </si>
-  <si>
-    <t>OHIO COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See RISING SUN, IN</t>
-  </si>
-  <si>
-    <t>OLDENBURG</t>
-  </si>
-  <si>
-    <t>OOLITIC</t>
-  </si>
-  <si>
-    <t>ORLEANS</t>
-  </si>
-  <si>
-    <t>See MITCHELL, IN</t>
-  </si>
-  <si>
-    <t>OSCEOLA</t>
-  </si>
-  <si>
-    <t>OSGOOD</t>
-  </si>
-  <si>
-    <t>OSSIAN</t>
-  </si>
-  <si>
-    <t>OWENSVILLE</t>
-  </si>
-  <si>
-    <t>OXFORD</t>
-  </si>
-  <si>
-    <t>PAOLI</t>
-  </si>
-  <si>
-    <t>PARKE COUNTY</t>
-  </si>
-  <si>
-    <t>See MONTEZUMA, IN</t>
-  </si>
-  <si>
-    <t>PARKE COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>PARKER CITY</t>
-  </si>
-  <si>
-    <t>PATOKA</t>
-  </si>
-  <si>
-    <t>PEKIN</t>
-  </si>
-  <si>
-    <t>Pennville</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>PETERSBURG</t>
-  </si>
-  <si>
-    <t>See also LOOGOOTEE, IN</t>
-  </si>
-  <si>
-    <t>PHILADELPHIA</t>
-  </si>
-  <si>
-    <t>See NEW PALESTINE, IN</t>
-  </si>
-  <si>
-    <t>PIERCETON</t>
-  </si>
-  <si>
-    <t>PIERGETDN</t>
-  </si>
-  <si>
-    <t>Pines</t>
-  </si>
-  <si>
-    <t>PITTSBORO</t>
-  </si>
-  <si>
-    <t>See HENDRICKS COUNTY, IN</t>
-  </si>
-  <si>
-    <t>PLAINFIELD</t>
-  </si>
-  <si>
-    <t>PLAINVILLE</t>
-  </si>
-  <si>
-    <t>PLYMOUTH</t>
-  </si>
-  <si>
-    <t>PORTAGE</t>
-  </si>
-  <si>
-    <t>PORTER</t>
-  </si>
-  <si>
-    <t>PORTER COUNTY</t>
-  </si>
-  <si>
-    <t>PORTER TWP.</t>
-  </si>
-  <si>
-    <t>See BRISTOL, IN</t>
-  </si>
-  <si>
-    <t>PORTLAND</t>
-  </si>
-  <si>
-    <t>POSEY COUNTY</t>
-  </si>
-  <si>
-    <t>See NEW HARMONY, IN</t>
-  </si>
-  <si>
-    <t>POSEYVILLE</t>
-  </si>
-  <si>
-    <t>See also NEW HARMONY, IN</t>
-  </si>
-  <si>
-    <t>POTTAWATTOMIE PARK</t>
-  </si>
-  <si>
-    <t>PRINCETON</t>
-  </si>
-  <si>
-    <t>PUTNAM COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENCASTLE, IN</t>
-  </si>
-  <si>
-    <t>RANDOLPH COUNTY</t>
-  </si>
-  <si>
-    <t>RAVENSWOOD</t>
-  </si>
-  <si>
-    <t>REDKEY</t>
-  </si>
-  <si>
-    <t>REMINGTON</t>
-  </si>
-  <si>
-    <t>RENSSELAER</t>
-  </si>
-  <si>
-    <t>REYNOLDS</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>RIDGEVILLE</t>
-  </si>
-  <si>
-    <t>See WINCHESTER, IN</t>
-  </si>
-  <si>
-    <t>RILEY</t>
-  </si>
-  <si>
-    <t>See TERRE HAUTE, IN</t>
-  </si>
-  <si>
-    <t>RISING SUN</t>
-  </si>
-  <si>
-    <t>RIVER RIDGE</t>
-  </si>
-  <si>
-    <t>ROACHDALE</t>
-  </si>
-  <si>
-    <t>ROANOKE</t>
-  </si>
-  <si>
-    <t>ROCHESTER</t>
-  </si>
-  <si>
-    <t>ROCKPORT</t>
-  </si>
-  <si>
-    <t>ROCKVILLE</t>
-  </si>
-  <si>
-    <t>ROME CITY</t>
-  </si>
-  <si>
-    <t>ROMNEY</t>
-  </si>
-  <si>
-    <t>ROSEDALE</t>
-  </si>
-  <si>
-    <t>ROSELAND</t>
-  </si>
-  <si>
-    <t>ROSSVILLE</t>
-  </si>
-  <si>
-    <t>ROYAL CENTER</t>
-  </si>
-  <si>
-    <t>RUSH COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>RUSHVILLE</t>
-  </si>
-  <si>
-    <t>RUSSIAVILLE</t>
-  </si>
-  <si>
-    <t>ST. JOE</t>
-  </si>
-  <si>
-    <t>ST. JOHN</t>
-  </si>
-  <si>
-    <t>ST. JOSEPH COUNTY</t>
-  </si>
-  <si>
-    <t>ST. PAUL</t>
-  </si>
-  <si>
-    <t>SALEM</t>
-  </si>
-  <si>
-    <t>SALEM TWP.</t>
-  </si>
-  <si>
-    <t>SANTA CLAUS</t>
-  </si>
-  <si>
-    <t>86 (Crlsney, Dale, Gentryville &amp; portions of Spencer County); Below 100 (Mariah Hill, Santa Claus &amp; portions of Spencer County)</t>
-  </si>
-  <si>
-    <t>SCHERERVILLE</t>
-  </si>
-  <si>
-    <t>SCOTTSBURG</t>
-  </si>
-  <si>
-    <t>38 (Austin &amp; Scottsburg); Outside TV markets (Crothersville)</t>
-  </si>
-  <si>
-    <t>SEELYVILLE</t>
-  </si>
-  <si>
-    <t>SELLERSBURG</t>
-  </si>
-  <si>
-    <t>SELMA</t>
-  </si>
-  <si>
-    <t>SEYMOUR</t>
-  </si>
-  <si>
-    <t>16 (Jackson); Outside TV markets (portions of JacksonCounty)</t>
-  </si>
-  <si>
-    <t>SHARPSVILLE</t>
-  </si>
-  <si>
-    <t>SHELBURN</t>
-  </si>
-  <si>
-    <t>SHELBY COUNTY</t>
-  </si>
-  <si>
-    <t>SHELBYVILLE</t>
-  </si>
-  <si>
-    <t>16 (Shelbyville); Outside TV markets (Hope)</t>
-  </si>
-  <si>
-    <t>SHERIDAN</t>
-  </si>
-  <si>
-    <t>SHIRLEY</t>
-  </si>
-  <si>
-    <t>SHOALS</t>
-  </si>
-  <si>
-    <t>Silver Lake</t>
-  </si>
-  <si>
-    <t>SKINNER LAKE</t>
-  </si>
-  <si>
-    <t>See ALBION, IN</t>
-  </si>
-  <si>
-    <t>Smlthsvilie</t>
-  </si>
-  <si>
-    <t>SOUTH BEND</t>
-  </si>
-  <si>
-    <t>SOUTH WHITLEY</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>SPEEDWAY</t>
-  </si>
-  <si>
-    <t>SPENCER</t>
-  </si>
-  <si>
-    <t>SPENCER COUNTY</t>
-  </si>
-  <si>
-    <t>SPENCERVILLE</t>
-  </si>
-  <si>
-    <t>SPENSER COUNTY</t>
-  </si>
-  <si>
-    <t>See ROCKPORT, IN</t>
-  </si>
-  <si>
-    <t>SPICELAND</t>
-  </si>
-  <si>
-    <t>SPRING GROVE</t>
-  </si>
-  <si>
-    <t>SPRING LAKE</t>
-  </si>
-  <si>
-    <t>SPRINGPORT</t>
-  </si>
-  <si>
-    <t>See MOUNT SUMMIT, IN</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STARKE COUNTY</t>
-  </si>
-  <si>
-    <t>STAUNTON</t>
-  </si>
-  <si>
-    <t>STEUBEN COUNTY</t>
-  </si>
-  <si>
-    <t>SULLIVAN</t>
-  </si>
-  <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
-    <t>See also BLOOMFIELD, IN</t>
-  </si>
-  <si>
-    <t>SULLIVAN COUNTY</t>
-  </si>
-  <si>
-    <t>See SULLIVAN, IN</t>
-  </si>
-  <si>
-    <t>SUMMITVILLE</t>
-  </si>
-  <si>
-    <t>SWEETSER</t>
-  </si>
-  <si>
-    <t>82 (Sweetser); Outside TV markets (Converse)</t>
-  </si>
-  <si>
-    <t>Swiss City</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>TAYLORSVILLE</t>
-  </si>
-  <si>
-    <t>TELL CITY</t>
-  </si>
-  <si>
-    <t>TERHUNE</t>
-  </si>
-  <si>
-    <t>TERRE HAUTE</t>
-  </si>
-  <si>
-    <t>TIPPECANOE COUNTY</t>
-  </si>
-  <si>
-    <t>TIPTON</t>
-  </si>
-  <si>
-    <t>TIPTON COUNTY</t>
-  </si>
-  <si>
-    <t>TOPEKA</t>
-  </si>
-  <si>
-    <t>TOTO</t>
-  </si>
-  <si>
-    <t>TRAIL CREEK</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>UNION CITY</t>
-  </si>
-  <si>
-    <t>Unionvllle</t>
-  </si>
-  <si>
-    <t>UPLAND</t>
-  </si>
-  <si>
-    <t>UTICA</t>
-  </si>
-  <si>
-    <t>VALPARAISO</t>
-  </si>
-  <si>
-    <t>3 (Porter, portions of Porter County); Below 100 (Chesterton, portions of Porter County &amp; Valparaiso)</t>
-  </si>
-  <si>
-    <t>VANDERBURGH COUNTY</t>
-  </si>
-  <si>
-    <t>VANDERBURGH COUNTY (western portion)</t>
-  </si>
-  <si>
-    <t>VEEDERSBURG</t>
-  </si>
-  <si>
-    <t>VERMILLION COUNTY</t>
-  </si>
-  <si>
-    <t>VERNON</t>
-  </si>
-  <si>
-    <t>VERSAILLES</t>
-  </si>
-  <si>
-    <t>See also OSGOOD, IN</t>
-  </si>
-  <si>
-    <t>VEVAY</t>
-  </si>
-  <si>
-    <t>VIGO COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>VINCENNES</t>
-  </si>
-  <si>
-    <t>WABASH</t>
-  </si>
-  <si>
-    <t>WABASH COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH MANCHESTER, IN</t>
-  </si>
-  <si>
-    <t>WADESVILLE</t>
-  </si>
-  <si>
-    <t>WAKARUSA</t>
-  </si>
-  <si>
-    <t>WALKERTON</t>
-  </si>
-  <si>
-    <t>WALTON</t>
-  </si>
-  <si>
-    <t>Wanatah</t>
-  </si>
-  <si>
-    <t>See WESTVILLE, IN</t>
-  </si>
-  <si>
-    <t>WARREN</t>
-  </si>
-  <si>
-    <t>WARREN COUNTY</t>
-  </si>
-  <si>
-    <t>WARREN PARK</t>
-  </si>
-  <si>
-    <t>WARRICK COUNTY</t>
-  </si>
-  <si>
-    <t>WARSAW</t>
-  </si>
-  <si>
-    <t>80, 82 (portions of Kosciusko County, Warsaw, Winoa Lake); 82 (portions of Koaciusko County, Pierceton); Outside TV markets (portions of Kosciusko County)</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>WASHINGTON COUNTY</t>
-  </si>
-  <si>
-    <t>See SALEM, IN</t>
-  </si>
-  <si>
-    <t>WASHINGTON TWP.</t>
-  </si>
-  <si>
-    <t>WATERLOO</t>
-  </si>
-  <si>
-    <t>WAYNE COUNTY</t>
-  </si>
-  <si>
-    <t>WAYNETOWN</t>
-  </si>
-  <si>
-    <t>WELLS</t>
-  </si>
-  <si>
-    <t>WELLS COUNTY</t>
-  </si>
-  <si>
-    <t>WEST BADEN SPRINGS</t>
-  </si>
-  <si>
-    <t>See FRENCH LICK, IN</t>
-  </si>
-  <si>
-    <t>WEST LAFAYETTE</t>
-  </si>
-  <si>
-    <t>WEST TERRE HAUTE</t>
-  </si>
-  <si>
-    <t>WESTFIELD</t>
-  </si>
-  <si>
-    <t>WESTPORT</t>
-  </si>
-  <si>
-    <t>WESTVILLE</t>
-  </si>
-  <si>
-    <t>WHEATLAND</t>
-  </si>
-  <si>
-    <t>WHITE COUNTY</t>
-  </si>
-  <si>
-    <t>See MONTICELLO, IN</t>
-  </si>
-  <si>
-    <t>WHITELAND</t>
-  </si>
-  <si>
-    <t>WHITESTOWN</t>
-  </si>
-  <si>
-    <t>WHITING</t>
-  </si>
-  <si>
-    <t>WHITLEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILFRED </t>
-  </si>
-  <si>
-    <t>WILKINSON</t>
-  </si>
-  <si>
-    <t>WILLIAMS CREEK</t>
-  </si>
-  <si>
-    <t>WILLIAMSPORT</t>
-  </si>
-  <si>
-    <t>WINAMAC</t>
-  </si>
-  <si>
-    <t>WINCHESTER</t>
-  </si>
-  <si>
-    <t>WINDFALL</t>
-  </si>
-  <si>
-    <t>WINGATE</t>
-  </si>
-  <si>
-    <t>WINONA LAKE</t>
-  </si>
-  <si>
-    <t>See WARSAW, IN</t>
-  </si>
-  <si>
-    <t>WINSLOW</t>
-  </si>
-  <si>
-    <t>WOLCOTT</t>
-  </si>
-  <si>
-    <t>WOLCOTTVILLE</t>
-  </si>
-  <si>
-    <t>See ROME CITY, IN</t>
-  </si>
-  <si>
-    <t>WOODBURN</t>
-  </si>
-  <si>
-    <t>WORTHINGTON</t>
-  </si>
-  <si>
-    <t>WYNNEDALE</t>
-  </si>
-  <si>
-    <t>YORKTOWN</t>
-  </si>
-  <si>
-    <t>ZIONSVILLE</t>
-  </si>
-  <si>
-    <t>See MARION, IN</t>
-  </si>
-  <si>
-    <t>See THREE OAKS TWP. MI</t>
-  </si>
-  <si>
-    <t>See CONSTANTINE, MI</t>
-  </si>
-  <si>
-    <t>See MONROE CITY, IN</t>
-  </si>
-  <si>
-    <t>See SOUTH WHITLEY, IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5437,7 +5442,7 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>758</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5460,8 +5465,8 @@
       <c r="J38" t="s">
         <v>30</v>
       </c>
-      <c r="K38" t="s">
-        <v>30</v>
+      <c r="K38" s="1">
+        <v>1441</v>
       </c>
       <c r="L38">
         <v>815</v>
@@ -5469,8 +5474,8 @@
       <c r="M38" s="1">
         <v>2408</v>
       </c>
-      <c r="N38" t="s">
-        <v>30</v>
+      <c r="N38">
+        <v>788</v>
       </c>
       <c r="O38" s="1">
         <v>1309</v>
@@ -5503,7 +5508,7 @@
         <v>7</v>
       </c>
       <c r="Y38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -5511,7 +5516,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5534,8 +5539,8 @@
       <c r="J39" t="s">
         <v>30</v>
       </c>
-      <c r="K39" t="s">
-        <v>30</v>
+      <c r="K39">
+        <v>343</v>
       </c>
       <c r="L39" s="1">
         <v>2158</v>
@@ -5585,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5659,7 +5664,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5683,7 +5688,7 @@
         <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L41">
         <v>269</v>
@@ -5733,7 +5738,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5756,8 +5761,8 @@
       <c r="J42" t="s">
         <v>30</v>
       </c>
-      <c r="K42" t="s">
-        <v>30</v>
+      <c r="K42">
+        <v>54</v>
       </c>
       <c r="L42">
         <v>20</v>
@@ -5799,7 +5804,7 @@
         <v>15</v>
       </c>
       <c r="Y42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5807,7 +5812,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5881,7 +5886,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5955,7 +5960,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6029,7 +6034,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6103,7 +6108,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6177,7 +6182,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6251,7 +6256,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6325,7 +6330,7 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6399,7 +6404,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6473,7 +6478,7 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6547,7 +6552,7 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6621,7 +6626,7 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6695,7 +6700,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6769,7 +6774,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6843,7 +6848,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6920,7 +6925,7 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6994,7 +6999,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7018,7 +7023,7 @@
         <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>30</v>
+        <v>759</v>
       </c>
       <c r="L59">
         <v>380</v>
@@ -7068,7 +7073,7 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7142,7 +7147,7 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7216,7 +7221,7 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7290,7 +7295,7 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7364,7 +7369,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7438,7 +7443,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7512,7 +7517,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7586,7 +7591,7 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7660,7 +7665,7 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7734,7 +7739,7 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7800,7 +7805,7 @@
         <v>13</v>
       </c>
       <c r="Y69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7808,7 +7813,7 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7882,7 +7887,7 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7956,7 +7961,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8030,7 +8035,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8101,7 +8106,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8175,7 +8180,7 @@
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8249,7 +8254,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8323,7 +8328,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8397,7 +8402,7 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8471,7 +8476,7 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8545,7 +8550,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8619,7 +8624,7 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8685,7 +8690,7 @@
         <v>13</v>
       </c>
       <c r="Y81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -8693,7 +8698,7 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8767,7 +8772,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -8841,7 +8846,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8915,7 +8920,7 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8989,7 +8994,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -9063,7 +9068,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -9137,7 +9142,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -9211,7 +9216,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -9285,7 +9290,7 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -9359,7 +9364,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -9433,7 +9438,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -9507,7 +9512,7 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -9581,7 +9586,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -9655,7 +9660,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -9729,7 +9734,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -9795,7 +9800,7 @@
         <v>15</v>
       </c>
       <c r="Y96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -9803,7 +9808,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -9869,7 +9874,7 @@
         <v>30</v>
       </c>
       <c r="Y97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -9877,7 +9882,7 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -9951,7 +9956,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -10025,7 +10030,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -10099,7 +10104,7 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -10173,7 +10178,7 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -10247,7 +10252,7 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -10270,14 +10275,14 @@
       <c r="J103" t="s">
         <v>30</v>
       </c>
-      <c r="K103" t="s">
-        <v>30</v>
+      <c r="K103" s="1">
+        <v>1666</v>
       </c>
       <c r="L103" s="1">
         <v>14688</v>
       </c>
-      <c r="M103" t="s">
-        <v>30</v>
+      <c r="M103" s="1">
+        <v>6043</v>
       </c>
       <c r="N103" s="1">
         <v>2818</v>
@@ -10321,7 +10326,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -10395,7 +10400,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -10469,7 +10474,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -10543,7 +10548,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -10617,7 +10622,7 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -10694,7 +10699,7 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -10717,11 +10722,11 @@
       <c r="J109" t="s">
         <v>30</v>
       </c>
-      <c r="K109" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" t="s">
-        <v>30</v>
+      <c r="K109">
+        <v>484</v>
+      </c>
+      <c r="L109">
+        <v>140</v>
       </c>
       <c r="M109" s="1">
         <v>1618</v>
@@ -10768,7 +10773,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -10842,7 +10847,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -10916,7 +10921,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -10982,7 +10987,7 @@
         <v>18</v>
       </c>
       <c r="Y112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -10990,7 +10995,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -11064,7 +11069,7 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -11138,7 +11143,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -11215,7 +11220,7 @@
         <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -11289,7 +11294,7 @@
         <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -11363,7 +11368,7 @@
         <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -11437,7 +11442,7 @@
         <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -11511,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -11534,8 +11539,8 @@
       <c r="J120" t="s">
         <v>30</v>
       </c>
-      <c r="K120" t="s">
-        <v>30</v>
+      <c r="K120">
+        <v>436</v>
       </c>
       <c r="L120">
         <v>388</v>
@@ -11585,7 +11590,7 @@
         <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -11651,7 +11656,7 @@
         <v>32</v>
       </c>
       <c r="Y121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:26">
@@ -11659,7 +11664,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -11733,7 +11738,7 @@
         <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -11807,7 +11812,7 @@
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -11884,7 +11889,7 @@
         <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -11958,7 +11963,7 @@
         <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -12032,7 +12037,7 @@
         <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -12106,7 +12111,7 @@
         <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -12183,7 +12188,7 @@
         <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -12257,7 +12262,7 @@
         <v>26</v>
       </c>
       <c r="B130" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -12323,7 +12328,7 @@
         <v>10</v>
       </c>
       <c r="Y130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -12331,7 +12336,7 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -12405,7 +12410,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -12471,7 +12476,7 @@
         <v>31</v>
       </c>
       <c r="Y132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -12479,7 +12484,7 @@
         <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -12553,7 +12558,7 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -12619,7 +12624,7 @@
         <v>18</v>
       </c>
       <c r="Y134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -12627,7 +12632,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -12704,7 +12709,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -12778,7 +12783,7 @@
         <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -12852,7 +12857,7 @@
         <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -12926,7 +12931,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -13000,7 +13005,7 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -13074,7 +13079,7 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -13148,7 +13153,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -13222,7 +13227,7 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -13296,7 +13301,7 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -13370,7 +13375,7 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -13444,7 +13449,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -13518,7 +13523,7 @@
         <v>26</v>
       </c>
       <c r="B147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -13592,7 +13597,7 @@
         <v>26</v>
       </c>
       <c r="B148" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -13666,7 +13671,7 @@
         <v>26</v>
       </c>
       <c r="B149" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -13740,7 +13745,7 @@
         <v>26</v>
       </c>
       <c r="B150" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -13814,7 +13819,7 @@
         <v>26</v>
       </c>
       <c r="B151" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -13888,7 +13893,7 @@
         <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -13962,7 +13967,7 @@
         <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -14036,7 +14041,7 @@
         <v>26</v>
       </c>
       <c r="B154" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -14110,7 +14115,7 @@
         <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -14184,7 +14189,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -14258,7 +14263,7 @@
         <v>26</v>
       </c>
       <c r="B157" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -14324,7 +14329,7 @@
         <v>3</v>
       </c>
       <c r="Y157" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -14332,7 +14337,7 @@
         <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -14398,7 +14403,7 @@
         <v>27</v>
       </c>
       <c r="Y158" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -14406,7 +14411,7 @@
         <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -14480,7 +14485,7 @@
         <v>26</v>
       </c>
       <c r="B160" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -14546,7 +14551,7 @@
         <v>18</v>
       </c>
       <c r="Y160" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -14554,7 +14559,7 @@
         <v>26</v>
       </c>
       <c r="B161" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -14620,7 +14625,7 @@
         <v>17</v>
       </c>
       <c r="Y161" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -14628,7 +14633,7 @@
         <v>26</v>
       </c>
       <c r="B162" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -14702,7 +14707,7 @@
         <v>26</v>
       </c>
       <c r="B163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -14776,7 +14781,7 @@
         <v>26</v>
       </c>
       <c r="B164" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -14850,7 +14855,7 @@
         <v>26</v>
       </c>
       <c r="B165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14924,7 +14929,7 @@
         <v>26</v>
       </c>
       <c r="B166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -14998,7 +15003,7 @@
         <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -15075,7 +15080,7 @@
         <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -15104,8 +15109,8 @@
       <c r="L168" s="1">
         <v>1522</v>
       </c>
-      <c r="M168" t="s">
-        <v>30</v>
+      <c r="M168" s="1">
+        <v>1160</v>
       </c>
       <c r="N168">
         <v>959</v>
@@ -15149,7 +15154,7 @@
         <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -15223,7 +15228,7 @@
         <v>26</v>
       </c>
       <c r="B170" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -15297,7 +15302,7 @@
         <v>26</v>
       </c>
       <c r="B171" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -15371,7 +15376,7 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -15445,7 +15450,7 @@
         <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -15519,7 +15524,7 @@
         <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -15593,7 +15598,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -15667,7 +15672,7 @@
         <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -15741,7 +15746,7 @@
         <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -15815,7 +15820,7 @@
         <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -15889,7 +15894,7 @@
         <v>26</v>
       </c>
       <c r="B179" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -15963,7 +15968,7 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -16037,7 +16042,7 @@
         <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -16111,7 +16116,7 @@
         <v>26</v>
       </c>
       <c r="B182" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -16185,7 +16190,7 @@
         <v>26</v>
       </c>
       <c r="B183" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -16259,7 +16264,7 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -16333,7 +16338,7 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -16407,7 +16412,7 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -16473,7 +16478,7 @@
         <v>31</v>
       </c>
       <c r="Y186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -16481,7 +16486,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -16555,7 +16560,7 @@
         <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -16629,7 +16634,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -16703,7 +16708,7 @@
         <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -16777,7 +16782,7 @@
         <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -16851,7 +16856,7 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -16925,7 +16930,7 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -16999,7 +17004,7 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -17065,7 +17070,7 @@
         <v>31</v>
       </c>
       <c r="Y194" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:26">
@@ -17073,7 +17078,7 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -17139,7 +17144,7 @@
         <v>10</v>
       </c>
       <c r="Y195" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="196" spans="1:26">
@@ -17147,7 +17152,7 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -17213,7 +17218,7 @@
         <v>6</v>
       </c>
       <c r="Y196" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="197" spans="1:26">
@@ -17221,7 +17226,7 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -17295,7 +17300,7 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -17361,7 +17366,7 @@
         <v>32</v>
       </c>
       <c r="Y198" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="199" spans="1:26">
@@ -17369,7 +17374,7 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -17443,7 +17448,7 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -17509,7 +17514,7 @@
         <v>16</v>
       </c>
       <c r="Y200" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:26">
@@ -17517,7 +17522,7 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -17594,7 +17599,7 @@
         <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -17668,7 +17673,7 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -17742,7 +17747,7 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -17816,7 +17821,7 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -17890,7 +17895,7 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -17967,7 +17972,7 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -18041,7 +18046,7 @@
         <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -18107,7 +18112,7 @@
         <v>15</v>
       </c>
       <c r="Y208" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="209" spans="1:25">
@@ -18115,7 +18120,7 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -18189,7 +18194,7 @@
         <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -18263,7 +18268,7 @@
         <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -18337,7 +18342,7 @@
         <v>26</v>
       </c>
       <c r="B212" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -18411,7 +18416,7 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -18485,7 +18490,7 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -18559,7 +18564,7 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -18625,7 +18630,7 @@
         <v>32</v>
       </c>
       <c r="Y215" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="216" spans="1:25">
@@ -18633,7 +18638,7 @@
         <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -18707,7 +18712,7 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -18781,7 +18786,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -18855,7 +18860,7 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -18929,7 +18934,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -19003,7 +19008,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -19077,7 +19082,7 @@
         <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -19151,7 +19156,7 @@
         <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -19225,7 +19230,7 @@
         <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -19299,7 +19304,7 @@
         <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -19365,7 +19370,7 @@
         <v>32</v>
       </c>
       <c r="Y225" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="226" spans="1:25">
@@ -19373,7 +19378,7 @@
         <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -19447,7 +19452,7 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -19521,7 +19526,7 @@
         <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -19595,7 +19600,7 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -19669,7 +19674,7 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -19743,7 +19748,7 @@
         <v>26</v>
       </c>
       <c r="B231" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -19817,7 +19822,7 @@
         <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -19891,7 +19896,7 @@
         <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -19965,7 +19970,7 @@
         <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -20039,7 +20044,7 @@
         <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -20113,7 +20118,7 @@
         <v>26</v>
       </c>
       <c r="B236" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -20187,7 +20192,7 @@
         <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -21031,13 +21036,13 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
+        <v>170</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
         <v>171</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -21045,13 +21050,13 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -21059,7 +21064,7 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -21073,7 +21078,7 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -21087,7 +21092,7 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -21101,7 +21106,7 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -21115,7 +21120,7 @@
         <v>26</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -21129,13 +21134,13 @@
         <v>26</v>
       </c>
       <c r="B300" t="s">
+        <v>185</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
         <v>186</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -21143,7 +21148,7 @@
         <v>26</v>
       </c>
       <c r="B301" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -21157,13 +21162,13 @@
         <v>26</v>
       </c>
       <c r="B302" t="s">
+        <v>189</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
         <v>190</v>
-      </c>
-      <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -21171,13 +21176,13 @@
         <v>26</v>
       </c>
       <c r="B303" t="s">
+        <v>191</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
         <v>192</v>
-      </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -21185,7 +21190,7 @@
         <v>26</v>
       </c>
       <c r="B304" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -21199,7 +21204,7 @@
         <v>26</v>
       </c>
       <c r="B305" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -21213,13 +21218,13 @@
         <v>26</v>
       </c>
       <c r="B306" t="s">
+        <v>194</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
         <v>195</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -21227,13 +21232,13 @@
         <v>26</v>
       </c>
       <c r="B307" t="s">
+        <v>196</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
         <v>197</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -21241,13 +21246,13 @@
         <v>26</v>
       </c>
       <c r="B308" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -21255,13 +21260,13 @@
         <v>26</v>
       </c>
       <c r="B309" t="s">
+        <v>200</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
         <v>201</v>
-      </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -21269,7 +21274,7 @@
         <v>26</v>
       </c>
       <c r="B310" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -21283,13 +21288,13 @@
         <v>26</v>
       </c>
       <c r="B311" t="s">
+        <v>202</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
         <v>203</v>
-      </c>
-      <c r="C311">
-        <v>1</v>
-      </c>
-      <c r="D311" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -21297,7 +21302,7 @@
         <v>26</v>
       </c>
       <c r="B312" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -21311,13 +21316,13 @@
         <v>26</v>
       </c>
       <c r="B313" t="s">
+        <v>210</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
         <v>211</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21325,7 +21330,7 @@
         <v>26</v>
       </c>
       <c r="B314" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -21339,7 +21344,7 @@
         <v>26</v>
       </c>
       <c r="B315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -21353,13 +21358,13 @@
         <v>26</v>
       </c>
       <c r="B316" t="s">
+        <v>215</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
         <v>216</v>
-      </c>
-      <c r="C316">
-        <v>1</v>
-      </c>
-      <c r="D316" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21367,7 +21372,7 @@
         <v>26</v>
       </c>
       <c r="B317" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -21381,7 +21386,7 @@
         <v>26</v>
       </c>
       <c r="B318" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -21395,7 +21400,7 @@
         <v>26</v>
       </c>
       <c r="B319" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -21409,7 +21414,7 @@
         <v>26</v>
       </c>
       <c r="B320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -21423,13 +21428,13 @@
         <v>26</v>
       </c>
       <c r="B321" t="s">
+        <v>225</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
         <v>226</v>
-      </c>
-      <c r="C321">
-        <v>1</v>
-      </c>
-      <c r="D321" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -21437,7 +21442,7 @@
         <v>26</v>
       </c>
       <c r="B322" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -21451,13 +21456,13 @@
         <v>26</v>
       </c>
       <c r="B323" t="s">
+        <v>228</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
         <v>229</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-      <c r="D323" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -21465,13 +21470,13 @@
         <v>26</v>
       </c>
       <c r="B324" t="s">
+        <v>231</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
         <v>232</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-      <c r="D324" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21479,7 +21484,7 @@
         <v>26</v>
       </c>
       <c r="B325" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -21493,13 +21498,13 @@
         <v>26</v>
       </c>
       <c r="B326" t="s">
+        <v>235</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
         <v>236</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -21507,13 +21512,13 @@
         <v>26</v>
       </c>
       <c r="B327" t="s">
+        <v>237</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
         <v>238</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -21521,13 +21526,13 @@
         <v>26</v>
       </c>
       <c r="B328" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -21535,13 +21540,13 @@
         <v>26</v>
       </c>
       <c r="B329" t="s">
+        <v>240</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
         <v>241</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-      <c r="D329" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -21549,7 +21554,7 @@
         <v>26</v>
       </c>
       <c r="B330" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -21563,13 +21568,13 @@
         <v>26</v>
       </c>
       <c r="B331" t="s">
+        <v>243</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
         <v>244</v>
-      </c>
-      <c r="C331">
-        <v>1</v>
-      </c>
-      <c r="D331" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -21577,7 +21582,7 @@
         <v>26</v>
       </c>
       <c r="B332" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -21591,13 +21596,13 @@
         <v>26</v>
       </c>
       <c r="B333" t="s">
+        <v>246</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
         <v>247</v>
-      </c>
-      <c r="C333">
-        <v>1</v>
-      </c>
-      <c r="D333" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21605,13 +21610,13 @@
         <v>26</v>
       </c>
       <c r="B334" t="s">
+        <v>249</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
         <v>250</v>
-      </c>
-      <c r="C334">
-        <v>1</v>
-      </c>
-      <c r="D334" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21619,13 +21624,13 @@
         <v>26</v>
       </c>
       <c r="B335" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21633,7 +21638,7 @@
         <v>26</v>
       </c>
       <c r="B336" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -21647,13 +21652,13 @@
         <v>26</v>
       </c>
       <c r="B337" t="s">
+        <v>256</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
         <v>257</v>
-      </c>
-      <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21661,13 +21666,13 @@
         <v>26</v>
       </c>
       <c r="B338" t="s">
+        <v>258</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
         <v>259</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21675,13 +21680,13 @@
         <v>26</v>
       </c>
       <c r="B339" t="s">
+        <v>260</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
         <v>261</v>
-      </c>
-      <c r="C339">
-        <v>1</v>
-      </c>
-      <c r="D339" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21689,13 +21694,13 @@
         <v>26</v>
       </c>
       <c r="B340" t="s">
+        <v>265</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
         <v>266</v>
-      </c>
-      <c r="C340">
-        <v>1</v>
-      </c>
-      <c r="D340" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21703,7 +21708,7 @@
         <v>26</v>
       </c>
       <c r="B341" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -21717,13 +21722,13 @@
         <v>26</v>
       </c>
       <c r="B342" t="s">
+        <v>270</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
         <v>271</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21731,13 +21736,13 @@
         <v>26</v>
       </c>
       <c r="B343" t="s">
+        <v>273</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
         <v>274</v>
-      </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21745,13 +21750,13 @@
         <v>26</v>
       </c>
       <c r="B344" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21759,7 +21764,7 @@
         <v>26</v>
       </c>
       <c r="B345" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -21773,7 +21778,7 @@
         <v>26</v>
       </c>
       <c r="B346" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -21787,13 +21792,13 @@
         <v>26</v>
       </c>
       <c r="B347" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21801,7 +21806,7 @@
         <v>26</v>
       </c>
       <c r="B348" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -21815,7 +21820,7 @@
         <v>26</v>
       </c>
       <c r="B349" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -21829,7 +21834,7 @@
         <v>26</v>
       </c>
       <c r="B350" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -21843,13 +21848,13 @@
         <v>26</v>
       </c>
       <c r="B351" t="s">
+        <v>285</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
         <v>286</v>
-      </c>
-      <c r="C351">
-        <v>1</v>
-      </c>
-      <c r="D351" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -21857,13 +21862,13 @@
         <v>26</v>
       </c>
       <c r="B352" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -21871,7 +21876,7 @@
         <v>26</v>
       </c>
       <c r="B353" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -21885,13 +21890,13 @@
         <v>26</v>
       </c>
       <c r="B354" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -21899,7 +21904,7 @@
         <v>26</v>
       </c>
       <c r="B355" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -21913,7 +21918,7 @@
         <v>26</v>
       </c>
       <c r="B356" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -21927,13 +21932,13 @@
         <v>26</v>
       </c>
       <c r="B357" t="s">
+        <v>292</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
         <v>293</v>
-      </c>
-      <c r="C357">
-        <v>1</v>
-      </c>
-      <c r="D357" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -21941,13 +21946,13 @@
         <v>26</v>
       </c>
       <c r="B358" t="s">
+        <v>294</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
         <v>295</v>
-      </c>
-      <c r="C358">
-        <v>1</v>
-      </c>
-      <c r="D358" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -21955,7 +21960,7 @@
         <v>26</v>
       </c>
       <c r="B359" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -21969,13 +21974,13 @@
         <v>26</v>
       </c>
       <c r="B360" t="s">
+        <v>298</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
         <v>299</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -21983,7 +21988,7 @@
         <v>26</v>
       </c>
       <c r="B361" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -21997,13 +22002,13 @@
         <v>26</v>
       </c>
       <c r="B362" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -22011,7 +22016,7 @@
         <v>26</v>
       </c>
       <c r="B363" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -22025,7 +22030,7 @@
         <v>26</v>
       </c>
       <c r="B364" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -22039,7 +22044,7 @@
         <v>26</v>
       </c>
       <c r="B365" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -22053,13 +22058,13 @@
         <v>26</v>
       </c>
       <c r="B366" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -22067,7 +22072,7 @@
         <v>26</v>
       </c>
       <c r="B367" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -22081,13 +22086,13 @@
         <v>26</v>
       </c>
       <c r="B368" t="s">
+        <v>309</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
         <v>310</v>
-      </c>
-      <c r="C368">
-        <v>1</v>
-      </c>
-      <c r="D368" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -22095,13 +22100,13 @@
         <v>26</v>
       </c>
       <c r="B369" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C369">
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -22109,13 +22114,13 @@
         <v>26</v>
       </c>
       <c r="B370" t="s">
+        <v>312</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
         <v>313</v>
-      </c>
-      <c r="C370">
-        <v>1</v>
-      </c>
-      <c r="D370" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -22123,13 +22128,13 @@
         <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -22137,13 +22142,13 @@
         <v>26</v>
       </c>
       <c r="B372" t="s">
+        <v>317</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
         <v>318</v>
-      </c>
-      <c r="C372">
-        <v>1</v>
-      </c>
-      <c r="D372" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -22151,13 +22156,13 @@
         <v>26</v>
       </c>
       <c r="B373" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C373">
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -22165,13 +22170,13 @@
         <v>26</v>
       </c>
       <c r="B374" t="s">
+        <v>320</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
         <v>321</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -22179,7 +22184,7 @@
         <v>26</v>
       </c>
       <c r="B375" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -22193,7 +22198,7 @@
         <v>26</v>
       </c>
       <c r="B376" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -22207,13 +22212,13 @@
         <v>26</v>
       </c>
       <c r="B377" t="s">
+        <v>324</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
         <v>325</v>
-      </c>
-      <c r="C377">
-        <v>1</v>
-      </c>
-      <c r="D377" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -22221,13 +22226,13 @@
         <v>26</v>
       </c>
       <c r="B378" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -22235,13 +22240,13 @@
         <v>26</v>
       </c>
       <c r="B379" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -22249,13 +22254,13 @@
         <v>26</v>
       </c>
       <c r="B380" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -22263,13 +22268,13 @@
         <v>26</v>
       </c>
       <c r="B381" t="s">
+        <v>332</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381" t="s">
         <v>333</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-      <c r="D381" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -22277,7 +22282,7 @@
         <v>26</v>
       </c>
       <c r="B382" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -22291,7 +22296,7 @@
         <v>26</v>
       </c>
       <c r="B383" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -22305,7 +22310,7 @@
         <v>26</v>
       </c>
       <c r="B384" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -22319,7 +22324,7 @@
         <v>26</v>
       </c>
       <c r="B385" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -22333,13 +22338,13 @@
         <v>26</v>
       </c>
       <c r="B386" t="s">
+        <v>339</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
         <v>340</v>
-      </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-      <c r="D386" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -22347,7 +22352,7 @@
         <v>26</v>
       </c>
       <c r="B387" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -22361,7 +22366,7 @@
         <v>26</v>
       </c>
       <c r="B388" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -22375,13 +22380,13 @@
         <v>26</v>
       </c>
       <c r="B389" t="s">
+        <v>343</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
         <v>344</v>
-      </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-      <c r="D389" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -22389,13 +22394,13 @@
         <v>26</v>
       </c>
       <c r="B390" t="s">
+        <v>346</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
         <v>347</v>
-      </c>
-      <c r="C390">
-        <v>1</v>
-      </c>
-      <c r="D390" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -22403,7 +22408,7 @@
         <v>26</v>
       </c>
       <c r="B391" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -22417,13 +22422,13 @@
         <v>26</v>
       </c>
       <c r="B392" t="s">
+        <v>350</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
         <v>351</v>
-      </c>
-      <c r="C392">
-        <v>1</v>
-      </c>
-      <c r="D392" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -22431,13 +22436,13 @@
         <v>26</v>
       </c>
       <c r="B393" t="s">
+        <v>352</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
         <v>353</v>
-      </c>
-      <c r="C393">
-        <v>1</v>
-      </c>
-      <c r="D393" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -22445,13 +22450,13 @@
         <v>26</v>
       </c>
       <c r="B394" t="s">
+        <v>357</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394" t="s">
         <v>358</v>
-      </c>
-      <c r="C394">
-        <v>1</v>
-      </c>
-      <c r="D394" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -22459,13 +22464,13 @@
         <v>26</v>
       </c>
       <c r="B395" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -22473,13 +22478,13 @@
         <v>26</v>
       </c>
       <c r="B396" t="s">
+        <v>361</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
         <v>362</v>
-      </c>
-      <c r="C396">
-        <v>1</v>
-      </c>
-      <c r="D396" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -22487,7 +22492,7 @@
         <v>26</v>
       </c>
       <c r="B397" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -22501,13 +22506,13 @@
         <v>26</v>
       </c>
       <c r="B398" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -22515,13 +22520,13 @@
         <v>26</v>
       </c>
       <c r="B399" t="s">
+        <v>366</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
         <v>367</v>
-      </c>
-      <c r="C399">
-        <v>1</v>
-      </c>
-      <c r="D399" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -22529,13 +22534,13 @@
         <v>26</v>
       </c>
       <c r="B400" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -22543,13 +22548,13 @@
         <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -22557,13 +22562,13 @@
         <v>26</v>
       </c>
       <c r="B402" t="s">
+        <v>371</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="s">
         <v>372</v>
-      </c>
-      <c r="C402">
-        <v>1</v>
-      </c>
-      <c r="D402" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -22571,7 +22576,7 @@
         <v>26</v>
       </c>
       <c r="B403" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -22585,13 +22590,13 @@
         <v>26</v>
       </c>
       <c r="B404" t="s">
+        <v>378</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
         <v>379</v>
-      </c>
-      <c r="C404">
-        <v>1</v>
-      </c>
-      <c r="D404" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -22599,13 +22604,13 @@
         <v>26</v>
       </c>
       <c r="B405" t="s">
+        <v>382</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
         <v>383</v>
-      </c>
-      <c r="C405">
-        <v>1</v>
-      </c>
-      <c r="D405" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -22613,13 +22618,13 @@
         <v>26</v>
       </c>
       <c r="B406" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -22627,13 +22632,13 @@
         <v>26</v>
       </c>
       <c r="B407" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -22641,13 +22646,13 @@
         <v>26</v>
       </c>
       <c r="B408" t="s">
+        <v>387</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="s">
         <v>388</v>
-      </c>
-      <c r="C408">
-        <v>1</v>
-      </c>
-      <c r="D408" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -22655,13 +22660,13 @@
         <v>26</v>
       </c>
       <c r="B409" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -22669,13 +22674,13 @@
         <v>26</v>
       </c>
       <c r="B410" t="s">
+        <v>391</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
         <v>392</v>
-      </c>
-      <c r="C410">
-        <v>1</v>
-      </c>
-      <c r="D410" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -22683,13 +22688,13 @@
         <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -22697,13 +22702,13 @@
         <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -22711,13 +22716,13 @@
         <v>26</v>
       </c>
       <c r="B413" t="s">
+        <v>396</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
         <v>397</v>
-      </c>
-      <c r="C413">
-        <v>1</v>
-      </c>
-      <c r="D413" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -22725,13 +22730,13 @@
         <v>26</v>
       </c>
       <c r="B414" t="s">
+        <v>398</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
         <v>399</v>
-      </c>
-      <c r="C414">
-        <v>1</v>
-      </c>
-      <c r="D414" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -22739,7 +22744,7 @@
         <v>26</v>
       </c>
       <c r="B415" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -22753,13 +22758,13 @@
         <v>26</v>
       </c>
       <c r="B416" t="s">
+        <v>402</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
         <v>403</v>
-      </c>
-      <c r="C416">
-        <v>1</v>
-      </c>
-      <c r="D416" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -22767,13 +22772,13 @@
         <v>26</v>
       </c>
       <c r="B417" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
       <c r="D417" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -22781,13 +22786,13 @@
         <v>26</v>
       </c>
       <c r="B418" t="s">
+        <v>405</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
         <v>406</v>
-      </c>
-      <c r="C418">
-        <v>1</v>
-      </c>
-      <c r="D418" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -22795,7 +22800,7 @@
         <v>26</v>
       </c>
       <c r="B419" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -22809,13 +22814,13 @@
         <v>26</v>
       </c>
       <c r="B420" t="s">
+        <v>409</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
         <v>410</v>
-      </c>
-      <c r="C420">
-        <v>1</v>
-      </c>
-      <c r="D420" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -22823,13 +22828,13 @@
         <v>26</v>
       </c>
       <c r="B421" t="s">
+        <v>412</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
         <v>413</v>
-      </c>
-      <c r="C421">
-        <v>1</v>
-      </c>
-      <c r="D421" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -22837,13 +22842,13 @@
         <v>26</v>
       </c>
       <c r="B422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -22851,7 +22856,7 @@
         <v>26</v>
       </c>
       <c r="B423" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -22865,13 +22870,13 @@
         <v>26</v>
       </c>
       <c r="B424" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -22879,7 +22884,7 @@
         <v>26</v>
       </c>
       <c r="B425" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -22893,13 +22898,13 @@
         <v>26</v>
       </c>
       <c r="B426" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -22907,13 +22912,13 @@
         <v>26</v>
       </c>
       <c r="B427" t="s">
+        <v>429</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" t="s">
         <v>430</v>
-      </c>
-      <c r="C427">
-        <v>1</v>
-      </c>
-      <c r="D427" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -22921,7 +22926,7 @@
         <v>26</v>
       </c>
       <c r="B428" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -22935,13 +22940,13 @@
         <v>26</v>
       </c>
       <c r="B429" t="s">
+        <v>434</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
         <v>435</v>
-      </c>
-      <c r="C429">
-        <v>1</v>
-      </c>
-      <c r="D429" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -22949,13 +22954,13 @@
         <v>26</v>
       </c>
       <c r="B430" t="s">
+        <v>437</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
         <v>438</v>
-      </c>
-      <c r="C430">
-        <v>1</v>
-      </c>
-      <c r="D430" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -22963,13 +22968,13 @@
         <v>26</v>
       </c>
       <c r="B431" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C431">
         <v>1</v>
       </c>
       <c r="D431" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -22977,13 +22982,13 @@
         <v>26</v>
       </c>
       <c r="B432" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -22991,13 +22996,13 @@
         <v>26</v>
       </c>
       <c r="B433" t="s">
+        <v>441</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
         <v>442</v>
-      </c>
-      <c r="C433">
-        <v>1</v>
-      </c>
-      <c r="D433" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -23005,7 +23010,7 @@
         <v>26</v>
       </c>
       <c r="B434" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -23019,13 +23024,13 @@
         <v>26</v>
       </c>
       <c r="B435" t="s">
+        <v>447</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
         <v>448</v>
-      </c>
-      <c r="C435">
-        <v>1</v>
-      </c>
-      <c r="D435" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -23033,13 +23038,13 @@
         <v>26</v>
       </c>
       <c r="B436" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C436">
         <v>1</v>
       </c>
       <c r="D436" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -23047,13 +23052,13 @@
         <v>26</v>
       </c>
       <c r="B437" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23061,13 +23066,13 @@
         <v>26</v>
       </c>
       <c r="B438" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -23075,7 +23080,7 @@
         <v>26</v>
       </c>
       <c r="B439" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -23089,7 +23094,7 @@
         <v>26</v>
       </c>
       <c r="B440" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -23103,7 +23108,7 @@
         <v>26</v>
       </c>
       <c r="B441" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -23117,13 +23122,13 @@
         <v>26</v>
       </c>
       <c r="B442" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
       <c r="D442" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -23131,13 +23136,13 @@
         <v>26</v>
       </c>
       <c r="B443" t="s">
+        <v>466</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
         <v>467</v>
-      </c>
-      <c r="C443">
-        <v>1</v>
-      </c>
-      <c r="D443" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -23145,13 +23150,13 @@
         <v>26</v>
       </c>
       <c r="B444" t="s">
+        <v>468</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
         <v>469</v>
-      </c>
-      <c r="C444">
-        <v>1</v>
-      </c>
-      <c r="D444" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -23159,7 +23164,7 @@
         <v>26</v>
       </c>
       <c r="B445" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -23173,13 +23178,13 @@
         <v>26</v>
       </c>
       <c r="B446" t="s">
+        <v>471</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
         <v>472</v>
-      </c>
-      <c r="C446">
-        <v>1</v>
-      </c>
-      <c r="D446" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -23187,13 +23192,13 @@
         <v>26</v>
       </c>
       <c r="B447" t="s">
+        <v>476</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
         <v>477</v>
-      </c>
-      <c r="C447">
-        <v>1</v>
-      </c>
-      <c r="D447" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -23201,13 +23206,13 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C448">
         <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -23215,7 +23220,7 @@
         <v>26</v>
       </c>
       <c r="B449" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -23229,13 +23234,13 @@
         <v>26</v>
       </c>
       <c r="B450" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -23243,7 +23248,7 @@
         <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -23257,13 +23262,13 @@
         <v>26</v>
       </c>
       <c r="B452" t="s">
+        <v>486</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
         <v>487</v>
-      </c>
-      <c r="C452">
-        <v>1</v>
-      </c>
-      <c r="D452" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -23271,13 +23276,13 @@
         <v>26</v>
       </c>
       <c r="B453" t="s">
+        <v>488</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
         <v>489</v>
-      </c>
-      <c r="C453">
-        <v>1</v>
-      </c>
-      <c r="D453" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -23285,7 +23290,7 @@
         <v>26</v>
       </c>
       <c r="B454" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -23299,7 +23304,7 @@
         <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -23313,13 +23318,13 @@
         <v>26</v>
       </c>
       <c r="B456" t="s">
+        <v>494</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
         <v>495</v>
-      </c>
-      <c r="C456">
-        <v>1</v>
-      </c>
-      <c r="D456" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -23327,13 +23332,13 @@
         <v>26</v>
       </c>
       <c r="B457" t="s">
+        <v>497</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
         <v>498</v>
-      </c>
-      <c r="C457">
-        <v>1</v>
-      </c>
-      <c r="D457" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -23341,7 +23346,7 @@
         <v>26</v>
       </c>
       <c r="B458" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -23355,13 +23360,13 @@
         <v>26</v>
       </c>
       <c r="B459" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -23369,7 +23374,7 @@
         <v>26</v>
       </c>
       <c r="B460" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -23383,7 +23388,7 @@
         <v>26</v>
       </c>
       <c r="B461" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -23397,13 +23402,13 @@
         <v>26</v>
       </c>
       <c r="B462" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -23411,7 +23416,7 @@
         <v>26</v>
       </c>
       <c r="B463" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -23425,7 +23430,7 @@
         <v>26</v>
       </c>
       <c r="B464" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -23439,13 +23444,13 @@
         <v>26</v>
       </c>
       <c r="B465" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -23453,13 +23458,13 @@
         <v>26</v>
       </c>
       <c r="B466" t="s">
+        <v>517</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
         <v>518</v>
-      </c>
-      <c r="C466">
-        <v>1</v>
-      </c>
-      <c r="D466" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -23467,7 +23472,7 @@
         <v>26</v>
       </c>
       <c r="B467" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -23481,13 +23486,13 @@
         <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C468">
         <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -23495,7 +23500,7 @@
         <v>26</v>
       </c>
       <c r="B469" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -23509,7 +23514,7 @@
         <v>26</v>
       </c>
       <c r="B470" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -23523,7 +23528,7 @@
         <v>26</v>
       </c>
       <c r="B471" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -23537,7 +23542,7 @@
         <v>26</v>
       </c>
       <c r="B472" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -23551,13 +23556,13 @@
         <v>26</v>
       </c>
       <c r="B473" t="s">
+        <v>538</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
         <v>539</v>
-      </c>
-      <c r="C473">
-        <v>1</v>
-      </c>
-      <c r="D473" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -23565,13 +23570,13 @@
         <v>26</v>
       </c>
       <c r="B474" t="s">
+        <v>540</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
         <v>541</v>
-      </c>
-      <c r="C474">
-        <v>1</v>
-      </c>
-      <c r="D474" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -23579,13 +23584,13 @@
         <v>26</v>
       </c>
       <c r="B475" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C475">
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -23593,13 +23598,13 @@
         <v>26</v>
       </c>
       <c r="B476" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -23607,13 +23612,13 @@
         <v>26</v>
       </c>
       <c r="B477" t="s">
+        <v>544</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
         <v>545</v>
-      </c>
-      <c r="C477">
-        <v>1</v>
-      </c>
-      <c r="D477" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -23621,13 +23626,13 @@
         <v>26</v>
       </c>
       <c r="B478" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -23635,7 +23640,7 @@
         <v>26</v>
       </c>
       <c r="B479" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -23649,13 +23654,13 @@
         <v>26</v>
       </c>
       <c r="B480" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C480">
         <v>1</v>
       </c>
       <c r="D480" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -23663,13 +23668,13 @@
         <v>26</v>
       </c>
       <c r="B481" t="s">
+        <v>552</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
         <v>553</v>
-      </c>
-      <c r="C481">
-        <v>1</v>
-      </c>
-      <c r="D481" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -23677,13 +23682,13 @@
         <v>26</v>
       </c>
       <c r="B482" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -23691,13 +23696,13 @@
         <v>26</v>
       </c>
       <c r="B483" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -23705,13 +23710,13 @@
         <v>26</v>
       </c>
       <c r="B484" t="s">
+        <v>560</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
         <v>561</v>
-      </c>
-      <c r="C484">
-        <v>1</v>
-      </c>
-      <c r="D484" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -23719,13 +23724,13 @@
         <v>26</v>
       </c>
       <c r="B485" t="s">
+        <v>562</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
         <v>563</v>
-      </c>
-      <c r="C485">
-        <v>1</v>
-      </c>
-      <c r="D485" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -23733,13 +23738,13 @@
         <v>26</v>
       </c>
       <c r="B486" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C486">
         <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -23747,13 +23752,13 @@
         <v>26</v>
       </c>
       <c r="B487" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C487">
         <v>1</v>
       </c>
       <c r="D487" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -23761,13 +23766,13 @@
         <v>26</v>
       </c>
       <c r="B488" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C488">
         <v>1</v>
       </c>
       <c r="D488" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -23775,13 +23780,13 @@
         <v>26</v>
       </c>
       <c r="B489" t="s">
+        <v>567</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
         <v>568</v>
-      </c>
-      <c r="C489">
-        <v>1</v>
-      </c>
-      <c r="D489" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -23789,13 +23794,13 @@
         <v>26</v>
       </c>
       <c r="B490" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
       <c r="D490" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -23803,13 +23808,13 @@
         <v>26</v>
       </c>
       <c r="B491" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C491">
         <v>1</v>
       </c>
       <c r="D491" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -23817,7 +23822,7 @@
         <v>26</v>
       </c>
       <c r="B492" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -23831,7 +23836,7 @@
         <v>26</v>
       </c>
       <c r="B493" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -23845,13 +23850,13 @@
         <v>26</v>
       </c>
       <c r="B494" t="s">
+        <v>575</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
         <v>576</v>
-      </c>
-      <c r="C494">
-        <v>1</v>
-      </c>
-      <c r="D494" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -23859,13 +23864,13 @@
         <v>26</v>
       </c>
       <c r="B495" t="s">
+        <v>578</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
         <v>579</v>
-      </c>
-      <c r="C495">
-        <v>1</v>
-      </c>
-      <c r="D495" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -23873,13 +23878,13 @@
         <v>26</v>
       </c>
       <c r="B496" t="s">
+        <v>580</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
         <v>581</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-      <c r="D496" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -23887,13 +23892,13 @@
         <v>26</v>
       </c>
       <c r="B497" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C497">
         <v>1</v>
       </c>
       <c r="D497" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -23901,13 +23906,13 @@
         <v>26</v>
       </c>
       <c r="B498" t="s">
+        <v>584</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
         <v>585</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -23915,13 +23920,13 @@
         <v>26</v>
       </c>
       <c r="B499" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C499">
         <v>1</v>
       </c>
       <c r="D499" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -23929,7 +23934,7 @@
         <v>26</v>
       </c>
       <c r="B500" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -23943,13 +23948,13 @@
         <v>26</v>
       </c>
       <c r="B501" t="s">
+        <v>593</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
         <v>594</v>
-      </c>
-      <c r="C501">
-        <v>1</v>
-      </c>
-      <c r="D501" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -23957,13 +23962,13 @@
         <v>26</v>
       </c>
       <c r="B502" t="s">
+        <v>595</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
         <v>596</v>
-      </c>
-      <c r="C502">
-        <v>1</v>
-      </c>
-      <c r="D502" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -23971,7 +23976,7 @@
         <v>26</v>
       </c>
       <c r="B503" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -23985,7 +23990,7 @@
         <v>26</v>
       </c>
       <c r="B504" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -23999,13 +24004,13 @@
         <v>26</v>
       </c>
       <c r="B505" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C505">
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -24013,13 +24018,13 @@
         <v>26</v>
       </c>
       <c r="B506" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C506">
         <v>1</v>
       </c>
       <c r="D506" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -24027,7 +24032,7 @@
         <v>26</v>
       </c>
       <c r="B507" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -24041,7 +24046,7 @@
         <v>26</v>
       </c>
       <c r="B508" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -24055,7 +24060,7 @@
         <v>26</v>
       </c>
       <c r="B509" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -24069,7 +24074,7 @@
         <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -24083,13 +24088,13 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C511">
         <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -24097,13 +24102,13 @@
         <v>26</v>
       </c>
       <c r="B512" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C512">
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -24111,7 +24116,7 @@
         <v>26</v>
       </c>
       <c r="B513" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -24125,7 +24130,7 @@
         <v>26</v>
       </c>
       <c r="B514" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -24139,7 +24144,7 @@
         <v>26</v>
       </c>
       <c r="B515" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -24153,13 +24158,13 @@
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C516">
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -24167,7 +24172,7 @@
         <v>26</v>
       </c>
       <c r="B517" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -24181,7 +24186,7 @@
         <v>26</v>
       </c>
       <c r="B518" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -24195,13 +24200,13 @@
         <v>26</v>
       </c>
       <c r="B519" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C519">
         <v>1</v>
       </c>
       <c r="D519" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -24209,13 +24214,13 @@
         <v>26</v>
       </c>
       <c r="B520" t="s">
+        <v>638</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" t="s">
         <v>639</v>
-      </c>
-      <c r="C520">
-        <v>1</v>
-      </c>
-      <c r="D520" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -24223,13 +24228,13 @@
         <v>26</v>
       </c>
       <c r="B521" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -24237,7 +24242,7 @@
         <v>26</v>
       </c>
       <c r="B522" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -24251,7 +24256,7 @@
         <v>26</v>
       </c>
       <c r="B523" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -24265,7 +24270,7 @@
         <v>26</v>
       </c>
       <c r="B524" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -24279,7 +24284,7 @@
         <v>26</v>
       </c>
       <c r="B525" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -24293,13 +24298,13 @@
         <v>26</v>
       </c>
       <c r="B526" t="s">
+        <v>648</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" t="s">
         <v>649</v>
-      </c>
-      <c r="C526">
-        <v>1</v>
-      </c>
-      <c r="D526" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -24307,7 +24312,7 @@
         <v>26</v>
       </c>
       <c r="B527" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -24321,7 +24326,7 @@
         <v>26</v>
       </c>
       <c r="B528" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -24335,13 +24340,13 @@
         <v>26</v>
       </c>
       <c r="B529" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C529">
         <v>1</v>
       </c>
       <c r="D529" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -24349,13 +24354,13 @@
         <v>26</v>
       </c>
       <c r="B530" t="s">
+        <v>653</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
         <v>654</v>
-      </c>
-      <c r="C530">
-        <v>1</v>
-      </c>
-      <c r="D530" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -24363,13 +24368,13 @@
         <v>26</v>
       </c>
       <c r="B531" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C531">
         <v>1</v>
       </c>
       <c r="D531" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -24377,7 +24382,7 @@
         <v>26</v>
       </c>
       <c r="B532" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -24391,7 +24396,7 @@
         <v>26</v>
       </c>
       <c r="B533" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -24405,13 +24410,13 @@
         <v>26</v>
       </c>
       <c r="B534" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -24419,13 +24424,13 @@
         <v>26</v>
       </c>
       <c r="B535" t="s">
+        <v>660</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
         <v>661</v>
-      </c>
-      <c r="C535">
-        <v>1</v>
-      </c>
-      <c r="D535" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -24433,13 +24438,13 @@
         <v>26</v>
       </c>
       <c r="B536" t="s">
+        <v>662</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
         <v>663</v>
-      </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
-      <c r="D536" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -24447,13 +24452,13 @@
         <v>26</v>
       </c>
       <c r="B537" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C537">
         <v>1</v>
       </c>
       <c r="D537" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -24461,7 +24466,7 @@
         <v>26</v>
       </c>
       <c r="B538" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -24475,13 +24480,13 @@
         <v>26</v>
       </c>
       <c r="B539" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C539">
         <v>1</v>
       </c>
       <c r="D539" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -24489,7 +24494,7 @@
         <v>26</v>
       </c>
       <c r="B540" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -24503,7 +24508,7 @@
         <v>26</v>
       </c>
       <c r="B541" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -24517,7 +24522,7 @@
         <v>26</v>
       </c>
       <c r="B542" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -24531,7 +24536,7 @@
         <v>26</v>
       </c>
       <c r="B543" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -24545,13 +24550,13 @@
         <v>26</v>
       </c>
       <c r="B544" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C544">
         <v>1</v>
       </c>
       <c r="D544" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -24559,13 +24564,13 @@
         <v>26</v>
       </c>
       <c r="B545" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C545">
         <v>1</v>
       </c>
       <c r="D545" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -24573,7 +24578,7 @@
         <v>26</v>
       </c>
       <c r="B546" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -24587,7 +24592,7 @@
         <v>26</v>
       </c>
       <c r="B547" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -24601,13 +24606,13 @@
         <v>26</v>
       </c>
       <c r="B548" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C548">
         <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -24615,13 +24620,13 @@
         <v>26</v>
       </c>
       <c r="B549" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C549">
         <v>1</v>
       </c>
       <c r="D549" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -24629,13 +24634,13 @@
         <v>26</v>
       </c>
       <c r="B550" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C550">
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -24643,13 +24648,13 @@
         <v>26</v>
       </c>
       <c r="B551" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C551">
         <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -24657,13 +24662,13 @@
         <v>26</v>
       </c>
       <c r="B552" t="s">
+        <v>691</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
         <v>692</v>
-      </c>
-      <c r="C552">
-        <v>1</v>
-      </c>
-      <c r="D552" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -24671,13 +24676,13 @@
         <v>26</v>
       </c>
       <c r="B553" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C553">
         <v>1</v>
       </c>
       <c r="D553" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -24685,13 +24690,13 @@
         <v>26</v>
       </c>
       <c r="B554" t="s">
+        <v>697</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554" t="s">
         <v>698</v>
-      </c>
-      <c r="C554">
-        <v>1</v>
-      </c>
-      <c r="D554" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -24699,13 +24704,13 @@
         <v>26</v>
       </c>
       <c r="B555" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C555">
         <v>1</v>
       </c>
       <c r="D555" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -24713,13 +24718,13 @@
         <v>26</v>
       </c>
       <c r="B556" t="s">
+        <v>703</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
         <v>704</v>
-      </c>
-      <c r="C556">
-        <v>1</v>
-      </c>
-      <c r="D556" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -24727,13 +24732,13 @@
         <v>26</v>
       </c>
       <c r="B557" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C557">
         <v>1</v>
       </c>
       <c r="D557" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -24741,7 +24746,7 @@
         <v>26</v>
       </c>
       <c r="B558" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C558">
         <v>1</v>
@@ -24755,7 +24760,7 @@
         <v>26</v>
       </c>
       <c r="B559" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -24769,13 +24774,13 @@
         <v>26</v>
       </c>
       <c r="B560" t="s">
+        <v>712</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" t="s">
         <v>713</v>
-      </c>
-      <c r="C560">
-        <v>1</v>
-      </c>
-      <c r="D560" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -24783,13 +24788,13 @@
         <v>26</v>
       </c>
       <c r="B561" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C561">
         <v>1</v>
       </c>
       <c r="D561" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -24797,7 +24802,7 @@
         <v>26</v>
       </c>
       <c r="B562" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -24811,7 +24816,7 @@
         <v>26</v>
       </c>
       <c r="B563" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C563">
         <v>1</v>
@@ -24825,7 +24830,7 @@
         <v>26</v>
       </c>
       <c r="B564" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -24839,13 +24844,13 @@
         <v>26</v>
       </c>
       <c r="B565" t="s">
+        <v>720</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565" t="s">
         <v>721</v>
-      </c>
-      <c r="C565">
-        <v>1</v>
-      </c>
-      <c r="D565" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -24853,7 +24858,7 @@
         <v>26</v>
       </c>
       <c r="B566" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -24867,13 +24872,13 @@
         <v>26</v>
       </c>
       <c r="B567" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C567">
         <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -24881,7 +24886,7 @@
         <v>26</v>
       </c>
       <c r="B568" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C568">
         <v>1</v>
@@ -24895,13 +24900,13 @@
         <v>26</v>
       </c>
       <c r="B569" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C569">
         <v>1</v>
       </c>
       <c r="D569" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -24909,13 +24914,13 @@
         <v>26</v>
       </c>
       <c r="B570" t="s">
+        <v>728</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570" t="s">
         <v>729</v>
-      </c>
-      <c r="C570">
-        <v>1</v>
-      </c>
-      <c r="D570" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -24923,7 +24928,7 @@
         <v>26</v>
       </c>
       <c r="B571" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -24937,7 +24942,7 @@
         <v>26</v>
       </c>
       <c r="B572" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C572">
         <v>1</v>
@@ -24951,13 +24956,13 @@
         <v>26</v>
       </c>
       <c r="B573" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C573">
         <v>1</v>
       </c>
       <c r="D573" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -24965,13 +24970,13 @@
         <v>26</v>
       </c>
       <c r="B574" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C574">
         <v>1</v>
       </c>
       <c r="D574" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -24979,13 +24984,13 @@
         <v>26</v>
       </c>
       <c r="B575" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C575">
         <v>1</v>
       </c>
       <c r="D575" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -24993,7 +24998,7 @@
         <v>26</v>
       </c>
       <c r="B576" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C576">
         <v>1</v>
@@ -25007,13 +25012,13 @@
         <v>26</v>
       </c>
       <c r="B577" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C577">
         <v>1</v>
       </c>
       <c r="D577" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -25021,7 +25026,7 @@
         <v>26</v>
       </c>
       <c r="B578" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -25035,13 +25040,13 @@
         <v>26</v>
       </c>
       <c r="B579" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C579">
         <v>1</v>
       </c>
       <c r="D579" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -25049,13 +25054,13 @@
         <v>26</v>
       </c>
       <c r="B580" t="s">
+        <v>742</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580" t="s">
         <v>743</v>
-      </c>
-      <c r="C580">
-        <v>1</v>
-      </c>
-      <c r="D580" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -25063,13 +25068,13 @@
         <v>26</v>
       </c>
       <c r="B581" t="s">
+        <v>746</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
         <v>747</v>
-      </c>
-      <c r="C581">
-        <v>1</v>
-      </c>
-      <c r="D581" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -25077,7 +25082,7 @@
         <v>26</v>
       </c>
       <c r="B582" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -25091,7 +25096,7 @@
         <v>26</v>
       </c>
       <c r="B583" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -25105,13 +25110,13 @@
         <v>26</v>
       </c>
       <c r="B584" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C584">
         <v>1</v>
       </c>
       <c r="D584" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Output/1988/Indiana/Indiana.xlsx
+++ b/Output/1988/Indiana/Indiana.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{7D802E4A-0B71-2747-BB9E-D813F99BBEC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$584</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4415" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4413" uniqueCount="759">
   <si>
     <t>State</t>
   </si>
@@ -533,1781 +533,1783 @@
     <t>COLUMBIA CITY</t>
   </si>
   <si>
+    <t>CONNERSVILLE</t>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+  </si>
+  <si>
+    <t>See SWEETSER, IN</t>
+  </si>
+  <si>
+    <t>CORDRY/SWEETWATER CONSERVANCY DISTRICT</t>
+  </si>
+  <si>
+    <t>CORYDON</t>
+  </si>
+  <si>
+    <t>CRAWFORD COUNTY</t>
+  </si>
+  <si>
+    <t>CRAWFORDSVILLE</t>
+  </si>
+  <si>
+    <t>CROMWELL</t>
+  </si>
+  <si>
+    <t>CROTHERSVILLE</t>
+  </si>
+  <si>
+    <t>CROWN POINT</t>
+  </si>
+  <si>
+    <t>CROWS NEST</t>
+  </si>
+  <si>
+    <t>CULVER</t>
+  </si>
+  <si>
+    <t>CUMBERLAND</t>
+  </si>
+  <si>
+    <t>CYNTHIANA</t>
+  </si>
+  <si>
+    <t>DALE</t>
+  </si>
+  <si>
+    <t>DALEVILLE</t>
+  </si>
+  <si>
+    <t>See MUNCIE, IN</t>
+  </si>
+  <si>
+    <t>DANVILLE</t>
+  </si>
+  <si>
+    <t>DARLINGTON</t>
+  </si>
+  <si>
+    <t>DARMSTADT</t>
+  </si>
+  <si>
+    <t>See EVANSVILLE, IN</t>
+  </si>
+  <si>
+    <t>Daviess County</t>
+  </si>
+  <si>
+    <t>See WASHINGTON, IN</t>
+  </si>
+  <si>
+    <t>DAYTON</t>
+  </si>
+  <si>
+    <t>DE KALB COUNTY</t>
+  </si>
+  <si>
+    <t>See also AUBURN, IN</t>
+  </si>
+  <si>
+    <t>DEARBORN COUNTY (unincorporated portions)</t>
+  </si>
+  <si>
+    <t>See DILLSBORO, IN</t>
+  </si>
+  <si>
+    <t>See also LAWRENCEBURG, IN</t>
+  </si>
+  <si>
+    <t>DECATUR</t>
+  </si>
+  <si>
+    <t>DECATUR COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENSBURG, IN</t>
+  </si>
+  <si>
+    <t>DELAWARE COUNTY</t>
+  </si>
+  <si>
+    <t>See also MUNCIE, IN</t>
+  </si>
+  <si>
+    <t>DELPHI</t>
+  </si>
+  <si>
+    <t>DEMOTTE</t>
+  </si>
+  <si>
+    <t>DILLSBORO</t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
+    <t>DUGGER</t>
+  </si>
+  <si>
+    <t>Dune Acres</t>
+  </si>
+  <si>
+    <t>DUNELAND BEACH</t>
+  </si>
+  <si>
+    <t>See MICHIGAN CITY, IN</t>
+  </si>
+  <si>
+    <t>DUNKIRK</t>
+  </si>
+  <si>
+    <t>DUNREITH</t>
+  </si>
+  <si>
+    <t>DYER</t>
+  </si>
+  <si>
+    <t>EAST CHICAGO</t>
+  </si>
+  <si>
+    <t>See HAMMOND, IN</t>
+  </si>
+  <si>
+    <t>EAST GERMANTOWN</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>EDGEWOOD</t>
+  </si>
+  <si>
+    <t>EDINBURGH</t>
+  </si>
+  <si>
+    <t>EDWARDSPORT</t>
+  </si>
+  <si>
+    <t>ELBERFELD</t>
+  </si>
+  <si>
+    <t>Elizabethtown</t>
+  </si>
+  <si>
+    <t>ELKHART</t>
+  </si>
+  <si>
+    <t>ELKHART COUNTY</t>
+  </si>
+  <si>
+    <t>See ELKHART, IN</t>
+  </si>
+  <si>
+    <t>ELLETTSVILLE</t>
+  </si>
+  <si>
+    <t>ELNORA</t>
+  </si>
+  <si>
+    <t>See ODON, IN</t>
+  </si>
+  <si>
+    <t>ELWOOD</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>See CRAWFORD COUNTY, IN</t>
+  </si>
+  <si>
+    <t>EVANSVILLE</t>
+  </si>
+  <si>
+    <t>FAIRMONT</t>
+  </si>
+  <si>
+    <t>FAIRVIEW</t>
+  </si>
+  <si>
+    <t>See CLINTON, IN</t>
+  </si>
+  <si>
+    <t>FARMERSBURG</t>
+  </si>
+  <si>
+    <t>See SHELBURN, IN</t>
+  </si>
+  <si>
+    <t>FARMLAND</t>
+  </si>
+  <si>
+    <t>FAYETTE COUNTY</t>
+  </si>
+  <si>
+    <t>See CONNERSVILLE, IN</t>
+  </si>
+  <si>
+    <t>FERDINAND</t>
+  </si>
+  <si>
+    <t>FISH LAKE</t>
+  </si>
+  <si>
+    <t>See LA PORTE, IN</t>
+  </si>
+  <si>
+    <t>FISHERS</t>
+  </si>
+  <si>
+    <t>FISHERSBURG</t>
+  </si>
+  <si>
+    <t>See LAPEL, IN</t>
+  </si>
+  <si>
+    <t>FLORA</t>
+  </si>
+  <si>
+    <t>FLOYD COUNTY</t>
+  </si>
+  <si>
+    <t>See GEORGETOWN, IN</t>
+  </si>
+  <si>
+    <t>See also NEW ALBANY, IN</t>
+  </si>
+  <si>
+    <t>FORT BENJAMIN HARRISON</t>
+  </si>
+  <si>
+    <t>FORT BRANCH</t>
+  </si>
+  <si>
+    <t>FORT WAYNE</t>
+  </si>
+  <si>
+    <t>FORTVILLE</t>
+  </si>
+  <si>
+    <t>FOUNTAIN CITY</t>
+  </si>
+  <si>
+    <t>See LYNN, IN</t>
+  </si>
+  <si>
+    <t>FOUNTAIN COUNTY</t>
+  </si>
+  <si>
+    <t>See ATTICA, IN</t>
+  </si>
+  <si>
+    <t>FOWLER</t>
+  </si>
+  <si>
+    <t>See also ATTICA, IN</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>FRANKFORT</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>FRANKLIN COUNTY</t>
+  </si>
+  <si>
+    <t>See BROOKVILLE, IN</t>
+  </si>
+  <si>
+    <t>FRANKTON</t>
+  </si>
+  <si>
+    <t>16 (Frankton &amp; portions of Madison County); Below 100 (portions of Madison County)</t>
+  </si>
+  <si>
+    <t>FREELANDVILLE</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>See ANGOLA, IN</t>
+  </si>
+  <si>
+    <t>FRENCH LICK</t>
+  </si>
+  <si>
+    <t>FULTON COUNTY</t>
+  </si>
+  <si>
+    <t>See ROCHESTER, IN</t>
+  </si>
+  <si>
+    <t>GALENA</t>
+  </si>
+  <si>
+    <t>GALVESTON</t>
+  </si>
+  <si>
+    <t>GARRETT</t>
+  </si>
+  <si>
+    <t>GARY</t>
+  </si>
+  <si>
+    <t>GAS CITY</t>
+  </si>
+  <si>
+    <t>GASTON</t>
+  </si>
+  <si>
+    <t>GEIST LAKE</t>
+  </si>
+  <si>
+    <t>GENEVA</t>
+  </si>
+  <si>
+    <t>GENTRYVILLE</t>
+  </si>
+  <si>
+    <t>GEORGETOWN</t>
+  </si>
+  <si>
+    <t>GIBSON COUNTY</t>
+  </si>
+  <si>
+    <t>See FORT BRANCH, IN</t>
+  </si>
+  <si>
+    <t>See also PRINCETON, IN</t>
+  </si>
+  <si>
+    <t>GOODLAND</t>
+  </si>
+  <si>
+    <t>GOSHEN</t>
+  </si>
+  <si>
+    <t>GOSPORT</t>
+  </si>
+  <si>
+    <t>GRABILL</t>
+  </si>
+  <si>
+    <t>GRANT COUNTY</t>
+  </si>
+  <si>
+    <t>See also MARION, IN</t>
+  </si>
+  <si>
+    <t>Grant County</t>
+  </si>
+  <si>
+    <t>See also MATTHEWS, IN</t>
+  </si>
+  <si>
+    <t>GREENCASTLE</t>
+  </si>
+  <si>
+    <t>GREENDALE</t>
+  </si>
+  <si>
+    <t>GREENE COUNTY</t>
+  </si>
+  <si>
+    <t>See LINTON, IN</t>
+  </si>
+  <si>
+    <t>GREENFIELD</t>
+  </si>
+  <si>
+    <t>GREENSBURG</t>
+  </si>
+  <si>
+    <t>GREENTOWN</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>GREENWOOD</t>
+  </si>
+  <si>
+    <t>GRIFFITH</t>
+  </si>
+  <si>
+    <t>GRISSOM AFB</t>
+  </si>
+  <si>
+    <t>HAGERSTOWN</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>See also Comcast Cablevlslon of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>See also NOBLESVILLE, IN</t>
+  </si>
+  <si>
+    <t>Hamilton County (portions)</t>
+  </si>
+  <si>
+    <t>See Comcast Cablevision of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>HAMILTON TWP.</t>
+  </si>
+  <si>
+    <t>HAMLET</t>
+  </si>
+  <si>
+    <t>HAMMOND</t>
+  </si>
+  <si>
+    <t>HANCOCK COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENFIELD, IN</t>
+  </si>
+  <si>
+    <t>See also INDIANAPOLIS (portions), IN</t>
+  </si>
+  <si>
+    <t>HANOVER</t>
+  </si>
+  <si>
+    <t>See MADISON, IN</t>
+  </si>
+  <si>
+    <t>HARLAN</t>
+  </si>
+  <si>
+    <t>HARMONY</t>
+  </si>
+  <si>
+    <t>HARRISON COUNTY</t>
+  </si>
+  <si>
+    <t>See CORYDON, IN</t>
+  </si>
+  <si>
+    <t>HARRISON TWP.</t>
+  </si>
+  <si>
+    <t>HARTFORD CITY</t>
+  </si>
+  <si>
+    <t>82 (portions of Blackford County, Hartford City &amp; Upland); Below 100 (portions of Blackford County, Eaton &amp; Fairmont)</t>
+  </si>
+  <si>
+    <t>HAUBSTADT</t>
+  </si>
+  <si>
+    <t>HEBRON</t>
+  </si>
+  <si>
+    <t>HENDRICKS COUNTY</t>
+  </si>
+  <si>
+    <t>HENRY COUNTY</t>
+  </si>
+  <si>
+    <t>See NEW CASTLE, IN</t>
+  </si>
+  <si>
+    <t>HENRY COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>HENRYVILLE</t>
+  </si>
+  <si>
+    <t>HIGHLAND</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>HOMECROFT</t>
+  </si>
+  <si>
+    <t>HOPE</t>
+  </si>
+  <si>
+    <t>See SHELBYVILLE, IN</t>
+  </si>
+  <si>
+    <t>HOWARD COUNTY</t>
+  </si>
+  <si>
+    <t>HUNTERDON</t>
+  </si>
+  <si>
+    <t>HUNTINGBURG</t>
+  </si>
+  <si>
+    <t>See JASPER, IN</t>
+  </si>
+  <si>
+    <t>HUNTINGTON</t>
+  </si>
+  <si>
+    <t>HUNTINGTON COUNTY</t>
+  </si>
+  <si>
+    <t>See HUNTINGTON, IN</t>
+  </si>
+  <si>
+    <t>HYMERA</t>
+  </si>
+  <si>
+    <t>INDIANAPOLIS (portions)</t>
+  </si>
+  <si>
+    <t>INGALLS</t>
+  </si>
+  <si>
+    <t>See FORTVILLE, IN</t>
+  </si>
+  <si>
+    <t>JACKSON COUNTY</t>
+  </si>
+  <si>
+    <t>See SEYMOUR, IN</t>
+  </si>
+  <si>
+    <t>JAMESTOWN</t>
+  </si>
+  <si>
+    <t>JASONVILLE</t>
+  </si>
+  <si>
+    <t>JASPER</t>
+  </si>
+  <si>
+    <t>JASPER COUNTY</t>
+  </si>
+  <si>
+    <t>See REMINGTON, IN</t>
+  </si>
+  <si>
+    <t>JEFFERSON TWP.</t>
+  </si>
+  <si>
+    <t>JEFFERSONVILLE</t>
+  </si>
+  <si>
+    <t>JENNINGS COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH VERNON, IN</t>
+  </si>
+  <si>
+    <t>JOHNSON COUNTY</t>
+  </si>
+  <si>
+    <t>JONESBORO</t>
+  </si>
+  <si>
+    <t>KENDALLVILLE</t>
+  </si>
+  <si>
+    <t>KENNARO</t>
+  </si>
+  <si>
+    <t>See MIDDLETOWN, IN</t>
+  </si>
+  <si>
+    <t>KENTLAND</t>
+  </si>
+  <si>
+    <t>KINGSBURY</t>
+  </si>
+  <si>
+    <t>KINGSFORD HEIGHTS</t>
+  </si>
+  <si>
+    <t>KIBKLIN</t>
+  </si>
+  <si>
+    <t>See SHERIDAN, IN</t>
+  </si>
+  <si>
+    <t>KNIGHTSTOWN</t>
+  </si>
+  <si>
+    <t>16 (KnightstoWn, Dunreith, Carthage, portions of Henry &amp; Rush Counties; Below 100 (Spiceland)</t>
+  </si>
+  <si>
+    <t>KNIGHTSVILLE</t>
+  </si>
+  <si>
+    <t>KNOX</t>
+  </si>
+  <si>
+    <t>80 (Knox &amp; portions of Starke County); Outside TV markets (Bass Lake, portions of Starke County &amp; Toto)</t>
+  </si>
+  <si>
+    <t>KNOX COUNTY</t>
+  </si>
+  <si>
+    <t>See VINCENNES, IN</t>
+  </si>
+  <si>
+    <t>KOKOMO</t>
+  </si>
+  <si>
+    <t>KOONTZ LAKE</t>
+  </si>
+  <si>
+    <t>KOSCIUSKO COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH WEBSTER, IN</t>
+  </si>
+  <si>
+    <t>See also SYRACUSE, IN</t>
+  </si>
+  <si>
+    <t>See also WARSAW, IN</t>
+  </si>
+  <si>
+    <t>KOUTS</t>
+  </si>
+  <si>
+    <t>La Crosse</t>
+  </si>
+  <si>
+    <t>See KOUTS, IN</t>
+  </si>
+  <si>
+    <t>LA FONTAINE</t>
+  </si>
+  <si>
+    <t>LA PORTE</t>
+  </si>
+  <si>
+    <t>LA PORTE COUNTY</t>
+  </si>
+  <si>
+    <t>See also MICHIGAN CITY, IN</t>
+  </si>
+  <si>
+    <t>LA PORTE COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>LAGRANGE</t>
+  </si>
+  <si>
+    <t>LAGRANGE COUNTY</t>
+  </si>
+  <si>
+    <t>See also LAGRANGE, IN</t>
+  </si>
+  <si>
+    <t>LAKE COUNTY (unincorporated portion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See MERRILLVILLE, IN</t>
+  </si>
+  <si>
+    <t>LAKE OF THE FOUR SEASONS</t>
+  </si>
+  <si>
+    <t>LAKE STATION</t>
+  </si>
+  <si>
+    <t>LAKEVILLE</t>
+  </si>
+  <si>
+    <t>See WALKERTON, IN</t>
+  </si>
+  <si>
+    <t>Lanesville</t>
+  </si>
+  <si>
+    <t>LAPAZ</t>
+  </si>
+  <si>
+    <t>See LAKEVILLE, IN</t>
+  </si>
+  <si>
+    <t>LAPEL</t>
+  </si>
+  <si>
+    <t>LAWRENCE</t>
+  </si>
+  <si>
+    <t>LAWRENCE COUNTY</t>
+  </si>
+  <si>
+    <t>See BEDFORD, IN</t>
+  </si>
+  <si>
+    <t>Lawrence County (portions)</t>
+  </si>
+  <si>
+    <t>Lawrence County (southern portion)</t>
+  </si>
+  <si>
+    <t>See MONROE COUNTY (portions), IN</t>
+  </si>
+  <si>
+    <t>LAWRENCEBURG</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>LEESBURG</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>LIBERTY TWP.</t>
+  </si>
+  <si>
+    <t>LIGONIER</t>
+  </si>
+  <si>
+    <t>80, 82</t>
+  </si>
+  <si>
+    <t>LINDEN</t>
+  </si>
+  <si>
+    <t>LINTON</t>
+  </si>
+  <si>
+    <t>Linton</t>
+  </si>
+  <si>
+    <t>Lizton</t>
+  </si>
+  <si>
+    <t>LOGANSPORT</t>
+  </si>
+  <si>
+    <t>LONG BEACH</t>
+  </si>
+  <si>
+    <t>LOOGOOTEE</t>
+  </si>
+  <si>
+    <t>LOST CREEK TWP. (northeast portion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See BRAZIL, IN</t>
+  </si>
+  <si>
+    <t>LOWELL</t>
+  </si>
+  <si>
+    <t>LYNN</t>
+  </si>
+  <si>
+    <t>LYNNVILLE</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>See WORTHINGTON, IN</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>MADISON COUNTY</t>
+  </si>
+  <si>
+    <t>See ALEXANDRIA, IN</t>
+  </si>
+  <si>
+    <t>See also ANDERSON, IN</t>
+  </si>
+  <si>
+    <t>See also ELWOOD, IN</t>
+  </si>
+  <si>
+    <t>MADISON COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See FRANKTON, IN</t>
+  </si>
+  <si>
+    <t>MARIAH HILL</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>82 (Gas City, portions of Grant County &amp; Marion); Below 100 (portions of Grant County &amp; Jonesboro)</t>
+  </si>
+  <si>
+    <t>MARKLE</t>
+  </si>
+  <si>
+    <t>MARSHALL COUNTY</t>
+  </si>
+  <si>
+    <t>See CULVER, IN</t>
+  </si>
+  <si>
+    <t>See also LAKEVILLE, IN</t>
+  </si>
+  <si>
+    <t>See also PLYMOUTH, IN</t>
+  </si>
+  <si>
+    <t>MARTINSVILLE</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>McCORDSVILLE</t>
+  </si>
+  <si>
+    <t>MENTONE</t>
+  </si>
+  <si>
+    <t>MERIDIAN HILLS</t>
+  </si>
+  <si>
+    <t>MERRILLVILLE</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MIAMI COUNTY</t>
+  </si>
+  <si>
+    <t>MICHIANA SHORES</t>
+  </si>
+  <si>
+    <t>MICHIGAN CITY</t>
+  </si>
+  <si>
+    <t>Michlgantown</t>
+  </si>
+  <si>
+    <t>MIDDLEBURY</t>
+  </si>
+  <si>
+    <t>MIDDLETOWN</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>MILFORD</t>
+  </si>
+  <si>
+    <t>See SYRACUSE, IN</t>
+  </si>
+  <si>
+    <t>MILLERSBURG</t>
+  </si>
+  <si>
+    <t>See TOPEKA, IN</t>
+  </si>
+  <si>
+    <t>MILTON</t>
+  </si>
+  <si>
+    <t>MISHAWAKA</t>
+  </si>
+  <si>
+    <t>See SOUTH BEND, IN</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>16 (Mitchell &amp; Orleans); Outside TV markets (Paoli)</t>
+  </si>
+  <si>
+    <t>MONON</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>See DECATUR, IN</t>
+  </si>
+  <si>
+    <t>See also HENRYVILLE, IN</t>
+  </si>
+  <si>
+    <t>MONROE CITY</t>
+  </si>
+  <si>
+    <t>Outside TV Markets</t>
+  </si>
+  <si>
+    <t>MONROE COUNTY</t>
+  </si>
+  <si>
+    <t>Monroe County (portions)</t>
+  </si>
+  <si>
+    <t>MONROE TWP.</t>
+  </si>
+  <si>
+    <t>MONROEVILLE</t>
+  </si>
+  <si>
+    <t>MONTEZUMA</t>
+  </si>
+  <si>
+    <t>MONTGOMERY COUNTY</t>
+  </si>
+  <si>
+    <t>See CRAWFORDSVILLE, IN</t>
+  </si>
+  <si>
+    <t>MONTGOMERY COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See NEW MARKET, IN</t>
+  </si>
+  <si>
+    <t>MONTICELLO</t>
+  </si>
+  <si>
+    <t>MONTPELIER</t>
+  </si>
+  <si>
+    <t>MOORES HILL</t>
+  </si>
+  <si>
+    <t>MOORESVILLE</t>
+  </si>
+  <si>
+    <t>MORGAN COUNTY</t>
+  </si>
+  <si>
+    <t>See also MARTINSVILLE, IN</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>See BATESVILLE, IN</t>
+  </si>
+  <si>
+    <t>MOUNT AUBURN</t>
+  </si>
+  <si>
+    <t>MOUNT PLEASANT TWP.</t>
+  </si>
+  <si>
+    <t>MOUNT SUMMIT</t>
+  </si>
+  <si>
+    <t>MOUNT VERNON</t>
+  </si>
+  <si>
+    <t>MULBERRY</t>
+  </si>
+  <si>
+    <t>MUNCIE</t>
+  </si>
+  <si>
+    <t>MUNSTEB</t>
+  </si>
+  <si>
+    <t>NAPPANEE</t>
+  </si>
+  <si>
+    <t>NEW ALBANY</t>
+  </si>
+  <si>
+    <t>NEW CARLISLE</t>
+  </si>
+  <si>
+    <t>NEW CASTLE</t>
+  </si>
+  <si>
+    <t>NEW CHICAGO</t>
+  </si>
+  <si>
+    <t>NEW HARMONY</t>
+  </si>
+  <si>
+    <t>NEW HAVEN</t>
+  </si>
+  <si>
+    <t>NEW MARKET</t>
+  </si>
+  <si>
+    <t>NEW MIDDLETON</t>
+  </si>
+  <si>
+    <t>NEW PALESTINE</t>
+  </si>
+  <si>
+    <t>NEW PARIS</t>
+  </si>
+  <si>
+    <t>NEW RICHMOND</t>
+  </si>
+  <si>
+    <t>See LINDEN, IN</t>
+  </si>
+  <si>
+    <t>NEW ROSS</t>
+  </si>
+  <si>
+    <t>NEW SALISBURY</t>
+  </si>
+  <si>
+    <t>NEW WHITELAND</t>
+  </si>
+  <si>
+    <t>NEWBURGH</t>
+  </si>
+  <si>
+    <t>NOBLE COUNTY</t>
+  </si>
+  <si>
+    <t>NOBLESVILLE</t>
+  </si>
+  <si>
+    <t>NORTH CROWS NEST</t>
+  </si>
+  <si>
+    <t>NORTH JUDSON</t>
+  </si>
+  <si>
+    <t>NORTH LIBERTY</t>
+  </si>
+  <si>
+    <t>NORTH MANCHESTER</t>
+  </si>
+  <si>
+    <t>NORTH SALEM</t>
+  </si>
+  <si>
+    <t>NORTH VERNON</t>
+  </si>
+  <si>
+    <t>Outside Tv markets</t>
+  </si>
+  <si>
+    <t>NORTH WEBSTER</t>
+  </si>
+  <si>
+    <t>OAKLAND CITY</t>
+  </si>
+  <si>
+    <t>OAKTOWN</t>
+  </si>
+  <si>
+    <t>OOOK</t>
+  </si>
+  <si>
+    <t>OGDEN DUNES</t>
+  </si>
+  <si>
+    <t>See PORTAGE, IN</t>
+  </si>
+  <si>
+    <t>OHIO COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>See RISING SUN, IN</t>
+  </si>
+  <si>
+    <t>OLDENBURG</t>
+  </si>
+  <si>
+    <t>OOLITIC</t>
+  </si>
+  <si>
+    <t>ORLEANS</t>
+  </si>
+  <si>
+    <t>See MITCHELL, IN</t>
+  </si>
+  <si>
+    <t>OSCEOLA</t>
+  </si>
+  <si>
+    <t>OSGOOD</t>
+  </si>
+  <si>
+    <t>OSSIAN</t>
+  </si>
+  <si>
+    <t>OWENSVILLE</t>
+  </si>
+  <si>
+    <t>OXFORD</t>
+  </si>
+  <si>
+    <t>PAOLI</t>
+  </si>
+  <si>
+    <t>PARKE COUNTY</t>
+  </si>
+  <si>
+    <t>See MONTEZUMA, IN</t>
+  </si>
+  <si>
+    <t>PARKE COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>PARKER CITY</t>
+  </si>
+  <si>
+    <t>PATOKA</t>
+  </si>
+  <si>
+    <t>PEKIN</t>
+  </si>
+  <si>
+    <t>Pennville</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PETERSBURG</t>
+  </si>
+  <si>
+    <t>See also LOOGOOTEE, IN</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>See NEW PALESTINE, IN</t>
+  </si>
+  <si>
+    <t>PIERCETON</t>
+  </si>
+  <si>
+    <t>PIERGETDN</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>PITTSBORO</t>
+  </si>
+  <si>
+    <t>See HENDRICKS COUNTY, IN</t>
+  </si>
+  <si>
+    <t>PLAINFIELD</t>
+  </si>
+  <si>
+    <t>PLAINVILLE</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>PORTAGE</t>
+  </si>
+  <si>
+    <t>PORTER</t>
+  </si>
+  <si>
+    <t>PORTER COUNTY</t>
+  </si>
+  <si>
+    <t>PORTER TWP.</t>
+  </si>
+  <si>
+    <t>See BRISTOL, IN</t>
+  </si>
+  <si>
+    <t>PORTLAND</t>
+  </si>
+  <si>
+    <t>POSEY COUNTY</t>
+  </si>
+  <si>
+    <t>See NEW HARMONY, IN</t>
+  </si>
+  <si>
+    <t>POSEYVILLE</t>
+  </si>
+  <si>
+    <t>See also NEW HARMONY, IN</t>
+  </si>
+  <si>
+    <t>POTTAWATTOMIE PARK</t>
+  </si>
+  <si>
+    <t>PRINCETON</t>
+  </si>
+  <si>
+    <t>PUTNAM COUNTY</t>
+  </si>
+  <si>
+    <t>See GREENCASTLE, IN</t>
+  </si>
+  <si>
+    <t>RANDOLPH COUNTY</t>
+  </si>
+  <si>
+    <t>RAVENSWOOD</t>
+  </si>
+  <si>
+    <t>REDKEY</t>
+  </si>
+  <si>
+    <t>REMINGTON</t>
+  </si>
+  <si>
+    <t>RENSSELAER</t>
+  </si>
+  <si>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>RIDGEVILLE</t>
+  </si>
+  <si>
+    <t>See WINCHESTER, IN</t>
+  </si>
+  <si>
+    <t>RILEY</t>
+  </si>
+  <si>
+    <t>See TERRE HAUTE, IN</t>
+  </si>
+  <si>
+    <t>RISING SUN</t>
+  </si>
+  <si>
+    <t>RIVER RIDGE</t>
+  </si>
+  <si>
+    <t>ROACHDALE</t>
+  </si>
+  <si>
+    <t>ROANOKE</t>
+  </si>
+  <si>
+    <t>ROCHESTER</t>
+  </si>
+  <si>
+    <t>ROCKPORT</t>
+  </si>
+  <si>
+    <t>ROCKVILLE</t>
+  </si>
+  <si>
+    <t>ROME CITY</t>
+  </si>
+  <si>
+    <t>ROMNEY</t>
+  </si>
+  <si>
+    <t>ROSEDALE</t>
+  </si>
+  <si>
+    <t>ROSELAND</t>
+  </si>
+  <si>
+    <t>ROSSVILLE</t>
+  </si>
+  <si>
+    <t>ROYAL CENTER</t>
+  </si>
+  <si>
+    <t>RUSH COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>RUSHVILLE</t>
+  </si>
+  <si>
+    <t>RUSSIAVILLE</t>
+  </si>
+  <si>
+    <t>ST. JOE</t>
+  </si>
+  <si>
+    <t>ST. JOHN</t>
+  </si>
+  <si>
+    <t>ST. JOSEPH COUNTY</t>
+  </si>
+  <si>
+    <t>ST. PAUL</t>
+  </si>
+  <si>
+    <t>SALEM</t>
+  </si>
+  <si>
+    <t>SALEM TWP.</t>
+  </si>
+  <si>
+    <t>SANTA CLAUS</t>
+  </si>
+  <si>
+    <t>SCHERERVILLE</t>
+  </si>
+  <si>
+    <t>SCOTTSBURG</t>
+  </si>
+  <si>
+    <t>38 (Austin &amp; Scottsburg); Outside TV markets (Crothersville)</t>
+  </si>
+  <si>
+    <t>SEELYVILLE</t>
+  </si>
+  <si>
+    <t>SELLERSBURG</t>
+  </si>
+  <si>
+    <t>SELMA</t>
+  </si>
+  <si>
+    <t>SEYMOUR</t>
+  </si>
+  <si>
+    <t>16 (Jackson); Outside TV markets (portions of JacksonCounty)</t>
+  </si>
+  <si>
+    <t>SHARPSVILLE</t>
+  </si>
+  <si>
+    <t>SHELBURN</t>
+  </si>
+  <si>
+    <t>SHELBY COUNTY</t>
+  </si>
+  <si>
+    <t>SHELBYVILLE</t>
+  </si>
+  <si>
+    <t>16 (Shelbyville); Outside TV markets (Hope)</t>
+  </si>
+  <si>
+    <t>SHERIDAN</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>SHOALS</t>
+  </si>
+  <si>
+    <t>Silver Lake</t>
+  </si>
+  <si>
+    <t>SKINNER LAKE</t>
+  </si>
+  <si>
+    <t>See ALBION, IN</t>
+  </si>
+  <si>
+    <t>Smlthsvilie</t>
+  </si>
+  <si>
+    <t>SOUTH BEND</t>
+  </si>
+  <si>
+    <t>SOUTH WHITLEY</t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>SPEEDWAY</t>
+  </si>
+  <si>
+    <t>SPENCER</t>
+  </si>
+  <si>
+    <t>SPENCER COUNTY</t>
+  </si>
+  <si>
+    <t>SPENCERVILLE</t>
+  </si>
+  <si>
+    <t>SPENSER COUNTY</t>
+  </si>
+  <si>
+    <t>See ROCKPORT, IN</t>
+  </si>
+  <si>
+    <t>SPICELAND</t>
+  </si>
+  <si>
+    <t>SPRING GROVE</t>
+  </si>
+  <si>
+    <t>SPRING LAKE</t>
+  </si>
+  <si>
+    <t>SPRINGPORT</t>
+  </si>
+  <si>
+    <t>See MOUNT SUMMIT, IN</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>STARKE COUNTY</t>
+  </si>
+  <si>
+    <t>STAUNTON</t>
+  </si>
+  <si>
+    <t>STEUBEN COUNTY</t>
+  </si>
+  <si>
+    <t>SULLIVAN</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>See also BLOOMFIELD, IN</t>
+  </si>
+  <si>
+    <t>SULLIVAN COUNTY</t>
+  </si>
+  <si>
+    <t>See SULLIVAN, IN</t>
+  </si>
+  <si>
+    <t>SUMMITVILLE</t>
+  </si>
+  <si>
+    <t>SWEETSER</t>
+  </si>
+  <si>
+    <t>82 (Sweetser); Outside TV markets (Converse)</t>
+  </si>
+  <si>
+    <t>Swiss City</t>
+  </si>
+  <si>
+    <t>SYRACUSE</t>
+  </si>
+  <si>
+    <t>TAYLORSVILLE</t>
+  </si>
+  <si>
+    <t>TELL CITY</t>
+  </si>
+  <si>
+    <t>TERHUNE</t>
+  </si>
+  <si>
+    <t>TERRE HAUTE</t>
+  </si>
+  <si>
+    <t>TIPPECANOE COUNTY</t>
+  </si>
+  <si>
+    <t>TIPTON</t>
+  </si>
+  <si>
+    <t>TIPTON COUNTY</t>
+  </si>
+  <si>
+    <t>TOPEKA</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>TRAIL CREEK</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UNION CITY</t>
+  </si>
+  <si>
+    <t>Unionvllle</t>
+  </si>
+  <si>
+    <t>UPLAND</t>
+  </si>
+  <si>
+    <t>UTICA</t>
+  </si>
+  <si>
+    <t>VALPARAISO</t>
+  </si>
+  <si>
+    <t>VANDERBURGH COUNTY</t>
+  </si>
+  <si>
+    <t>VANDERBURGH COUNTY (western portion)</t>
+  </si>
+  <si>
+    <t>VEEDERSBURG</t>
+  </si>
+  <si>
+    <t>VERMILLION COUNTY</t>
+  </si>
+  <si>
+    <t>VERNON</t>
+  </si>
+  <si>
+    <t>VERSAILLES</t>
+  </si>
+  <si>
+    <t>See also OSGOOD, IN</t>
+  </si>
+  <si>
+    <t>VEVAY</t>
+  </si>
+  <si>
+    <t>VIGO COUNTY (portions)</t>
+  </si>
+  <si>
+    <t>VINCENNES</t>
+  </si>
+  <si>
+    <t>WABASH</t>
+  </si>
+  <si>
+    <t>WABASH COUNTY</t>
+  </si>
+  <si>
+    <t>See NORTH MANCHESTER, IN</t>
+  </si>
+  <si>
+    <t>WADESVILLE</t>
+  </si>
+  <si>
+    <t>WAKARUSA</t>
+  </si>
+  <si>
+    <t>WALKERTON</t>
+  </si>
+  <si>
+    <t>WALTON</t>
+  </si>
+  <si>
+    <t>Wanatah</t>
+  </si>
+  <si>
+    <t>See WESTVILLE, IN</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>WARREN COUNTY</t>
+  </si>
+  <si>
+    <t>WARREN PARK</t>
+  </si>
+  <si>
+    <t>WARRICK COUNTY</t>
+  </si>
+  <si>
+    <t>WARSAW</t>
+  </si>
+  <si>
+    <t>80, 82 (portions of Kosciusko County, Warsaw, Winoa Lake); 82 (portions of Koaciusko County, Pierceton); Outside TV markets (portions of Kosciusko County)</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WASHINGTON COUNTY</t>
+  </si>
+  <si>
+    <t>See SALEM, IN</t>
+  </si>
+  <si>
+    <t>WASHINGTON TWP.</t>
+  </si>
+  <si>
+    <t>WATERLOO</t>
+  </si>
+  <si>
+    <t>WAYNE COUNTY</t>
+  </si>
+  <si>
+    <t>WAYNETOWN</t>
+  </si>
+  <si>
+    <t>WELLS</t>
+  </si>
+  <si>
+    <t>WELLS COUNTY</t>
+  </si>
+  <si>
+    <t>WEST BADEN SPRINGS</t>
+  </si>
+  <si>
+    <t>See FRENCH LICK, IN</t>
+  </si>
+  <si>
+    <t>WEST LAFAYETTE</t>
+  </si>
+  <si>
+    <t>WEST TERRE HAUTE</t>
+  </si>
+  <si>
+    <t>WESTFIELD</t>
+  </si>
+  <si>
+    <t>WESTPORT</t>
+  </si>
+  <si>
+    <t>WESTVILLE</t>
+  </si>
+  <si>
+    <t>WHEATLAND</t>
+  </si>
+  <si>
+    <t>WHITE COUNTY</t>
+  </si>
+  <si>
+    <t>See MONTICELLO, IN</t>
+  </si>
+  <si>
+    <t>WHITELAND</t>
+  </si>
+  <si>
+    <t>WHITESTOWN</t>
+  </si>
+  <si>
+    <t>WHITING</t>
+  </si>
+  <si>
+    <t>WHITLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILFRED </t>
+  </si>
+  <si>
+    <t>WILKINSON</t>
+  </si>
+  <si>
+    <t>WILLIAMS CREEK</t>
+  </si>
+  <si>
+    <t>WILLIAMSPORT</t>
+  </si>
+  <si>
+    <t>WINAMAC</t>
+  </si>
+  <si>
+    <t>WINCHESTER</t>
+  </si>
+  <si>
+    <t>WINDFALL</t>
+  </si>
+  <si>
+    <t>WINGATE</t>
+  </si>
+  <si>
+    <t>WINONA LAKE</t>
+  </si>
+  <si>
+    <t>See WARSAW, IN</t>
+  </si>
+  <si>
+    <t>WINSLOW</t>
+  </si>
+  <si>
+    <t>WOLCOTT</t>
+  </si>
+  <si>
+    <t>WOLCOTTVILLE</t>
+  </si>
+  <si>
+    <t>See ROME CITY, IN</t>
+  </si>
+  <si>
+    <t>WOODBURN</t>
+  </si>
+  <si>
+    <t>WORTHINGTON</t>
+  </si>
+  <si>
+    <t>WYNNEDALE</t>
+  </si>
+  <si>
+    <t>YORKTOWN</t>
+  </si>
+  <si>
+    <t>ZIONSVILLE</t>
+  </si>
+  <si>
+    <t>See MARION, IN</t>
+  </si>
+  <si>
+    <t>See THREE OAKS TWP. MI</t>
+  </si>
+  <si>
+    <t>See CONSTANTINE, MI</t>
+  </si>
+  <si>
+    <t>See MONROE CITY, IN</t>
+  </si>
+  <si>
+    <t>See SOUTH WHITLEY, IN</t>
+  </si>
+  <si>
+    <t>COLUMBUS</t>
+  </si>
+  <si>
     <t>16 (portions of Bartholomew County, Columbus &amp; Taylorsville); Outside TV markets (portions of Bartholomew County)</t>
-  </si>
-  <si>
-    <t>CONNERSVILLE</t>
-  </si>
-  <si>
-    <t>CONVERSE</t>
-  </si>
-  <si>
-    <t>See SWEETSER, IN</t>
-  </si>
-  <si>
-    <t>CORDRY/SWEETWATER CONSERVANCY DISTRICT</t>
-  </si>
-  <si>
-    <t>CORYDON</t>
-  </si>
-  <si>
-    <t>CRAWFORD COUNTY</t>
-  </si>
-  <si>
-    <t>38 (portions); Outside W markets (portions)</t>
-  </si>
-  <si>
-    <t>CRAWFORDSVILLE</t>
-  </si>
-  <si>
-    <t>CROMWELL</t>
-  </si>
-  <si>
-    <t>CROTHERSVILLE</t>
-  </si>
-  <si>
-    <t>CROWN POINT</t>
-  </si>
-  <si>
-    <t>CROWS NEST</t>
-  </si>
-  <si>
-    <t>CULVER</t>
-  </si>
-  <si>
-    <t>CUMBERLAND</t>
-  </si>
-  <si>
-    <t>CYNTHIANA</t>
-  </si>
-  <si>
-    <t>DALE</t>
-  </si>
-  <si>
-    <t>DALEVILLE</t>
-  </si>
-  <si>
-    <t>See MUNCIE, IN</t>
-  </si>
-  <si>
-    <t>DANVILLE</t>
-  </si>
-  <si>
-    <t>DARLINGTON</t>
-  </si>
-  <si>
-    <t>DARMSTADT</t>
-  </si>
-  <si>
-    <t>See EVANSVILLE, IN</t>
-  </si>
-  <si>
-    <t>Daviess County</t>
-  </si>
-  <si>
-    <t>See WASHINGTON, IN</t>
-  </si>
-  <si>
-    <t>DAYTON</t>
-  </si>
-  <si>
-    <t>DE KALB COUNTY</t>
-  </si>
-  <si>
-    <t>See also AUBURN, IN</t>
-  </si>
-  <si>
-    <t>DEARBORN COUNTY (unincorporated portions)</t>
-  </si>
-  <si>
-    <t>See DILLSBORO, IN</t>
-  </si>
-  <si>
-    <t>See also LAWRENCEBURG, IN</t>
-  </si>
-  <si>
-    <t>DECATUR</t>
-  </si>
-  <si>
-    <t>DECATUR COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENSBURG, IN</t>
-  </si>
-  <si>
-    <t>DELAWARE COUNTY</t>
-  </si>
-  <si>
-    <t>See also MUNCIE, IN</t>
-  </si>
-  <si>
-    <t>DELPHI</t>
-  </si>
-  <si>
-    <t>DEMOTTE</t>
-  </si>
-  <si>
-    <t>DILLSBORO</t>
-  </si>
-  <si>
-    <t>DUBLIN</t>
-  </si>
-  <si>
-    <t>DUGGER</t>
-  </si>
-  <si>
-    <t>Dune Acres</t>
-  </si>
-  <si>
-    <t>DUNELAND BEACH</t>
-  </si>
-  <si>
-    <t>See MICHIGAN CITY, IN</t>
-  </si>
-  <si>
-    <t>DUNKIRK</t>
-  </si>
-  <si>
-    <t>DUNREITH</t>
-  </si>
-  <si>
-    <t>DYER</t>
-  </si>
-  <si>
-    <t>EAST CHICAGO</t>
-  </si>
-  <si>
-    <t>See HAMMOND, IN</t>
-  </si>
-  <si>
-    <t>EAST GERMANTOWN</t>
-  </si>
-  <si>
-    <t>EATON</t>
-  </si>
-  <si>
-    <t>EDGEWOOD</t>
-  </si>
-  <si>
-    <t>EDINBURGH</t>
-  </si>
-  <si>
-    <t>EDWARDSPORT</t>
-  </si>
-  <si>
-    <t>ELBERFELD</t>
-  </si>
-  <si>
-    <t>Elizabethtown</t>
-  </si>
-  <si>
-    <t>ELKHART</t>
-  </si>
-  <si>
-    <t>ELKHART COUNTY</t>
-  </si>
-  <si>
-    <t>See ELKHART, IN</t>
-  </si>
-  <si>
-    <t>ELLETTSVILLE</t>
-  </si>
-  <si>
-    <t>ELNORA</t>
-  </si>
-  <si>
-    <t>See ODON, IN</t>
-  </si>
-  <si>
-    <t>ELWOOD</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>See CRAWFORD COUNTY, IN</t>
-  </si>
-  <si>
-    <t>EVANSVILLE</t>
-  </si>
-  <si>
-    <t>FAIRMONT</t>
-  </si>
-  <si>
-    <t>FAIRVIEW</t>
-  </si>
-  <si>
-    <t>See CLINTON, IN</t>
-  </si>
-  <si>
-    <t>FARMERSBURG</t>
-  </si>
-  <si>
-    <t>See SHELBURN, IN</t>
-  </si>
-  <si>
-    <t>FARMLAND</t>
-  </si>
-  <si>
-    <t>FAYETTE COUNTY</t>
-  </si>
-  <si>
-    <t>See CONNERSVILLE, IN</t>
-  </si>
-  <si>
-    <t>FERDINAND</t>
-  </si>
-  <si>
-    <t>FISH LAKE</t>
-  </si>
-  <si>
-    <t>See LA PORTE, IN</t>
-  </si>
-  <si>
-    <t>FISHERS</t>
-  </si>
-  <si>
-    <t>FISHERSBURG</t>
-  </si>
-  <si>
-    <t>See LAPEL, IN</t>
-  </si>
-  <si>
-    <t>FLORA</t>
-  </si>
-  <si>
-    <t>FLOYD COUNTY</t>
-  </si>
-  <si>
-    <t>See GEORGETOWN, IN</t>
-  </si>
-  <si>
-    <t>See also NEW ALBANY, IN</t>
-  </si>
-  <si>
-    <t>FORT BENJAMIN HARRISON</t>
-  </si>
-  <si>
-    <t>FORT BRANCH</t>
-  </si>
-  <si>
-    <t>FORT WAYNE</t>
-  </si>
-  <si>
-    <t>FORTVILLE</t>
-  </si>
-  <si>
-    <t>FOUNTAIN CITY</t>
-  </si>
-  <si>
-    <t>See LYNN, IN</t>
-  </si>
-  <si>
-    <t>FOUNTAIN COUNTY</t>
-  </si>
-  <si>
-    <t>See ATTICA, IN</t>
-  </si>
-  <si>
-    <t>FOWLER</t>
-  </si>
-  <si>
-    <t>See also ATTICA, IN</t>
-  </si>
-  <si>
-    <t>FRANCISCO</t>
-  </si>
-  <si>
-    <t>FRANKFORT</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>FRANKLIN COUNTY</t>
-  </si>
-  <si>
-    <t>See BROOKVILLE, IN</t>
-  </si>
-  <si>
-    <t>FRANKTON</t>
-  </si>
-  <si>
-    <t>16 (Frankton &amp; portions of Madison County); Below 100 (portions of Madison County)</t>
-  </si>
-  <si>
-    <t>FREELANDVILLE</t>
-  </si>
-  <si>
-    <t>Fremont</t>
-  </si>
-  <si>
-    <t>See ANGOLA, IN</t>
-  </si>
-  <si>
-    <t>FRENCH LICK</t>
-  </si>
-  <si>
-    <t>FULTON COUNTY</t>
-  </si>
-  <si>
-    <t>See ROCHESTER, IN</t>
-  </si>
-  <si>
-    <t>GALENA</t>
-  </si>
-  <si>
-    <t>GALVESTON</t>
-  </si>
-  <si>
-    <t>GARRETT</t>
-  </si>
-  <si>
-    <t>GARY</t>
-  </si>
-  <si>
-    <t>GAS CITY</t>
-  </si>
-  <si>
-    <t>GASTON</t>
-  </si>
-  <si>
-    <t>GEIST LAKE</t>
-  </si>
-  <si>
-    <t>GENEVA</t>
-  </si>
-  <si>
-    <t>GENTRYVILLE</t>
-  </si>
-  <si>
-    <t>GEORGETOWN</t>
-  </si>
-  <si>
-    <t>GIBSON COUNTY</t>
-  </si>
-  <si>
-    <t>See FORT BRANCH, IN</t>
-  </si>
-  <si>
-    <t>See also PRINCETON, IN</t>
-  </si>
-  <si>
-    <t>GOODLAND</t>
-  </si>
-  <si>
-    <t>GOSHEN</t>
-  </si>
-  <si>
-    <t>GOSPORT</t>
-  </si>
-  <si>
-    <t>GRABILL</t>
-  </si>
-  <si>
-    <t>GRANT COUNTY</t>
-  </si>
-  <si>
-    <t>See also MARION, IN</t>
-  </si>
-  <si>
-    <t>Grant County</t>
-  </si>
-  <si>
-    <t>See also MATTHEWS, IN</t>
-  </si>
-  <si>
-    <t>GREENCASTLE</t>
-  </si>
-  <si>
-    <t>GREENDALE</t>
-  </si>
-  <si>
-    <t>GREENE COUNTY</t>
-  </si>
-  <si>
-    <t>See LINTON, IN</t>
-  </si>
-  <si>
-    <t>GREENFIELD</t>
-  </si>
-  <si>
-    <t>GREENSBURG</t>
-  </si>
-  <si>
-    <t>GREENTOWN</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>GREENWOOD</t>
-  </si>
-  <si>
-    <t>GRIFFITH</t>
-  </si>
-  <si>
-    <t>GRISSOM AFB</t>
-  </si>
-  <si>
-    <t>HAGERSTOWN</t>
-  </si>
-  <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>See also Comcast Cablevlslon of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>See also NOBLESVILLE, IN</t>
-  </si>
-  <si>
-    <t>Hamilton County (portions)</t>
-  </si>
-  <si>
-    <t>See Comcast Cablevision of Indianapolis Inc., INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>HAMILTON TWP.</t>
-  </si>
-  <si>
-    <t>HAMLET</t>
-  </si>
-  <si>
-    <t>HAMMOND</t>
-  </si>
-  <si>
-    <t>HANCOCK COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENFIELD, IN</t>
-  </si>
-  <si>
-    <t>See also INDIANAPOLIS (portions), IN</t>
-  </si>
-  <si>
-    <t>HANOVER</t>
-  </si>
-  <si>
-    <t>See MADISON, IN</t>
-  </si>
-  <si>
-    <t>HARLAN</t>
-  </si>
-  <si>
-    <t>HARMONY</t>
-  </si>
-  <si>
-    <t>HARRISON COUNTY</t>
-  </si>
-  <si>
-    <t>See CORYDON, IN</t>
-  </si>
-  <si>
-    <t>HARRISON TWP.</t>
-  </si>
-  <si>
-    <t>HARTFORD CITY</t>
-  </si>
-  <si>
-    <t>82 (portions of Blackford County, Hartford City &amp; Upland); Below 100 (portions of Blackford County, Eaton &amp; Fairmont)</t>
-  </si>
-  <si>
-    <t>HAUBSTADT</t>
-  </si>
-  <si>
-    <t>HEBRON</t>
-  </si>
-  <si>
-    <t>HENDRICKS COUNTY</t>
-  </si>
-  <si>
-    <t>HENRY COUNTY</t>
-  </si>
-  <si>
-    <t>See NEW CASTLE, IN</t>
-  </si>
-  <si>
-    <t>HENRY COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>HENRYVILLE</t>
-  </si>
-  <si>
-    <t>HIGHLAND</t>
-  </si>
-  <si>
-    <t>HOBART</t>
-  </si>
-  <si>
-    <t>HOMECROFT</t>
-  </si>
-  <si>
-    <t>HOPE</t>
-  </si>
-  <si>
-    <t>See SHELBYVILLE, IN</t>
-  </si>
-  <si>
-    <t>HOWARD COUNTY</t>
-  </si>
-  <si>
-    <t>HUNTERDON</t>
-  </si>
-  <si>
-    <t>HUNTINGBURG</t>
-  </si>
-  <si>
-    <t>See JASPER, IN</t>
-  </si>
-  <si>
-    <t>HUNTINGTON</t>
-  </si>
-  <si>
-    <t>HUNTINGTON COUNTY</t>
-  </si>
-  <si>
-    <t>See HUNTINGTON, IN</t>
-  </si>
-  <si>
-    <t>HYMERA</t>
-  </si>
-  <si>
-    <t>INDIANAPOLIS (portions)</t>
-  </si>
-  <si>
-    <t>INGALLS</t>
-  </si>
-  <si>
-    <t>See FORTVILLE, IN</t>
-  </si>
-  <si>
-    <t>JACKSON COUNTY</t>
-  </si>
-  <si>
-    <t>See SEYMOUR, IN</t>
-  </si>
-  <si>
-    <t>JAMESTOWN</t>
-  </si>
-  <si>
-    <t>JASONVILLE</t>
-  </si>
-  <si>
-    <t>JASPER</t>
-  </si>
-  <si>
-    <t>JASPER COUNTY</t>
-  </si>
-  <si>
-    <t>See REMINGTON, IN</t>
-  </si>
-  <si>
-    <t>JEFFERSON TWP.</t>
-  </si>
-  <si>
-    <t>JEFFERSONVILLE</t>
-  </si>
-  <si>
-    <t>JENNINGS COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH VERNON, IN</t>
-  </si>
-  <si>
-    <t>JOHNSON COUNTY</t>
-  </si>
-  <si>
-    <t>JONESBORO</t>
-  </si>
-  <si>
-    <t>KENDALLVILLE</t>
-  </si>
-  <si>
-    <t>KENNARO</t>
-  </si>
-  <si>
-    <t>See MIDDLETOWN, IN</t>
-  </si>
-  <si>
-    <t>KENTLAND</t>
-  </si>
-  <si>
-    <t>KINGSBURY</t>
-  </si>
-  <si>
-    <t>KINGSFORD HEIGHTS</t>
-  </si>
-  <si>
-    <t>KIBKLIN</t>
-  </si>
-  <si>
-    <t>See SHERIDAN, IN</t>
-  </si>
-  <si>
-    <t>KNIGHTSTOWN</t>
-  </si>
-  <si>
-    <t>16 (KnightstoWn, Dunreith, Carthage, portions of Henry &amp; Rush Counties; Below 100 (Spiceland)</t>
-  </si>
-  <si>
-    <t>KNIGHTSVILLE</t>
-  </si>
-  <si>
-    <t>KNOX</t>
-  </si>
-  <si>
-    <t>80 (Knox &amp; portions of Starke County); Outside TV markets (Bass Lake, portions of Starke County &amp; Toto)</t>
-  </si>
-  <si>
-    <t>KNOX COUNTY</t>
-  </si>
-  <si>
-    <t>See VINCENNES, IN</t>
-  </si>
-  <si>
-    <t>KOKOMO</t>
-  </si>
-  <si>
-    <t>KOONTZ LAKE</t>
-  </si>
-  <si>
-    <t>KOSCIUSKO COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH WEBSTER, IN</t>
-  </si>
-  <si>
-    <t>See also SYRACUSE, IN</t>
-  </si>
-  <si>
-    <t>See also WARSAW, IN</t>
-  </si>
-  <si>
-    <t>KOUTS</t>
-  </si>
-  <si>
-    <t>La Crosse</t>
-  </si>
-  <si>
-    <t>See KOUTS, IN</t>
-  </si>
-  <si>
-    <t>LA FONTAINE</t>
-  </si>
-  <si>
-    <t>LA PORTE</t>
-  </si>
-  <si>
-    <t>LA PORTE COUNTY</t>
-  </si>
-  <si>
-    <t>See also MICHIGAN CITY, IN</t>
-  </si>
-  <si>
-    <t>LA PORTE COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>LAGRANGE</t>
-  </si>
-  <si>
-    <t>LAGRANGE COUNTY</t>
-  </si>
-  <si>
-    <t>See also LAGRANGE, IN</t>
-  </si>
-  <si>
-    <t>LAKE COUNTY (unincorporated portion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See MERRILLVILLE, IN</t>
-  </si>
-  <si>
-    <t>LAKE OF THE FOUR SEASONS</t>
-  </si>
-  <si>
-    <t>LAKE STATION</t>
-  </si>
-  <si>
-    <t>LAKEVILLE</t>
-  </si>
-  <si>
-    <t>See WALKERTON, IN</t>
-  </si>
-  <si>
-    <t>Lanesville</t>
-  </si>
-  <si>
-    <t>LAPAZ</t>
-  </si>
-  <si>
-    <t>See LAKEVILLE, IN</t>
-  </si>
-  <si>
-    <t>LAPEL</t>
-  </si>
-  <si>
-    <t>LAWRENCE</t>
-  </si>
-  <si>
-    <t>LAWRENCE COUNTY</t>
-  </si>
-  <si>
-    <t>See BEDFORD, IN</t>
-  </si>
-  <si>
-    <t>Lawrence County (portions)</t>
-  </si>
-  <si>
-    <t>Lawrence County (southern portion)</t>
-  </si>
-  <si>
-    <t>See MONROE COUNTY (portions), IN</t>
-  </si>
-  <si>
-    <t>LAWRENCEBURG</t>
-  </si>
-  <si>
-    <t>LEBANON</t>
-  </si>
-  <si>
-    <t>LEESBURG</t>
-  </si>
-  <si>
-    <t>LEO</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>LIBERTY TWP.</t>
-  </si>
-  <si>
-    <t>LIGONIER</t>
-  </si>
-  <si>
-    <t>80, 82</t>
-  </si>
-  <si>
-    <t>LINDEN</t>
-  </si>
-  <si>
-    <t>LINTON</t>
-  </si>
-  <si>
-    <t>Linton</t>
-  </si>
-  <si>
-    <t>Lizton</t>
-  </si>
-  <si>
-    <t>LOGANSPORT</t>
-  </si>
-  <si>
-    <t>LONG BEACH</t>
-  </si>
-  <si>
-    <t>LOOGOOTEE</t>
-  </si>
-  <si>
-    <t>LOST CREEK TWP. (northeast portion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See BRAZIL, IN</t>
-  </si>
-  <si>
-    <t>LOWELL</t>
-  </si>
-  <si>
-    <t>LYNN</t>
-  </si>
-  <si>
-    <t>LYNNVILLE</t>
-  </si>
-  <si>
-    <t>Lyons</t>
-  </si>
-  <si>
-    <t>See WORTHINGTON, IN</t>
-  </si>
-  <si>
-    <t>MADISON</t>
-  </si>
-  <si>
-    <t>MADISON COUNTY</t>
-  </si>
-  <si>
-    <t>See ALEXANDRIA, IN</t>
-  </si>
-  <si>
-    <t>See also ANDERSON, IN</t>
-  </si>
-  <si>
-    <t>See also ELWOOD, IN</t>
-  </si>
-  <si>
-    <t>MADISON COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See FRANKTON, IN</t>
-  </si>
-  <si>
-    <t>MARIAH HILL</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
-    <t>82 (Gas City, portions of Grant County &amp; Marion); Below 100 (portions of Grant County &amp; Jonesboro)</t>
-  </si>
-  <si>
-    <t>MARKLE</t>
-  </si>
-  <si>
-    <t>MARSHALL COUNTY</t>
-  </si>
-  <si>
-    <t>See CULVER, IN</t>
-  </si>
-  <si>
-    <t>See also LAKEVILLE, IN</t>
-  </si>
-  <si>
-    <t>See also PLYMOUTH, IN</t>
-  </si>
-  <si>
-    <t>MARTINSVILLE</t>
-  </si>
-  <si>
-    <t>Matthews</t>
-  </si>
-  <si>
-    <t>McCORDSVILLE</t>
-  </si>
-  <si>
-    <t>MENTONE</t>
-  </si>
-  <si>
-    <t>MERIDIAN HILLS</t>
-  </si>
-  <si>
-    <t>MERRILLVILLE</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>MIAMI COUNTY</t>
-  </si>
-  <si>
-    <t>MICHIANA SHORES</t>
-  </si>
-  <si>
-    <t>MICHIGAN CITY</t>
-  </si>
-  <si>
-    <t>Michlgantown</t>
-  </si>
-  <si>
-    <t>MIDDLEBURY</t>
-  </si>
-  <si>
-    <t>MIDDLETOWN</t>
-  </si>
-  <si>
-    <t>16 (Shirley, Wilkinson); Below 100 (Kennard, Middle-town)</t>
-  </si>
-  <si>
-    <t>MILAN</t>
-  </si>
-  <si>
-    <t>MILFORD</t>
-  </si>
-  <si>
-    <t>See SYRACUSE, IN</t>
-  </si>
-  <si>
-    <t>MILLERSBURG</t>
-  </si>
-  <si>
-    <t>See TOPEKA, IN</t>
-  </si>
-  <si>
-    <t>MILTON</t>
-  </si>
-  <si>
-    <t>MISHAWAKA</t>
-  </si>
-  <si>
-    <t>See SOUTH BEND, IN</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>16 (Mitchell &amp; Orleans); Outside TV markets (Paoli)</t>
-  </si>
-  <si>
-    <t>MONON</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>See DECATUR, IN</t>
-  </si>
-  <si>
-    <t>See also HENRYVILLE, IN</t>
-  </si>
-  <si>
-    <t>MONROE CITY</t>
-  </si>
-  <si>
-    <t>Outside TV Markets</t>
-  </si>
-  <si>
-    <t>MONROE COUNTY</t>
-  </si>
-  <si>
-    <t>Monroe County (portions)</t>
-  </si>
-  <si>
-    <t>MONROE TWP.</t>
-  </si>
-  <si>
-    <t>MONROEVILLE</t>
-  </si>
-  <si>
-    <t>MONTEZUMA</t>
-  </si>
-  <si>
-    <t>MONTGOMERY COUNTY</t>
-  </si>
-  <si>
-    <t>See CRAWFORDSVILLE, IN</t>
-  </si>
-  <si>
-    <t>MONTGOMERY COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See NEW MARKET, IN</t>
-  </si>
-  <si>
-    <t>MONTICELLO</t>
-  </si>
-  <si>
-    <t>MONTPELIER</t>
-  </si>
-  <si>
-    <t>MOORES HILL</t>
-  </si>
-  <si>
-    <t>MOORESVILLE</t>
-  </si>
-  <si>
-    <t>MORGAN COUNTY</t>
-  </si>
-  <si>
-    <t>See also MARTINSVILLE, IN</t>
-  </si>
-  <si>
-    <t>MOROCCO</t>
-  </si>
-  <si>
-    <t>MORRIS</t>
-  </si>
-  <si>
-    <t>See BATESVILLE, IN</t>
-  </si>
-  <si>
-    <t>MOUNT AUBURN</t>
-  </si>
-  <si>
-    <t>MOUNT PLEASANT TWP.</t>
-  </si>
-  <si>
-    <t>MOUNT SUMMIT</t>
-  </si>
-  <si>
-    <t>MOUNT VERNON</t>
-  </si>
-  <si>
-    <t>MULBERRY</t>
-  </si>
-  <si>
-    <t>MUNCIE</t>
-  </si>
-  <si>
-    <t>MUNSTEB</t>
-  </si>
-  <si>
-    <t>NAPPANEE</t>
-  </si>
-  <si>
-    <t>NEW ALBANY</t>
-  </si>
-  <si>
-    <t>NEW CARLISLE</t>
-  </si>
-  <si>
-    <t>NEW CASTLE</t>
-  </si>
-  <si>
-    <t>NEW CHICAGO</t>
-  </si>
-  <si>
-    <t>NEW HARMONY</t>
-  </si>
-  <si>
-    <t>NEW HAVEN</t>
-  </si>
-  <si>
-    <t>NEW MARKET</t>
-  </si>
-  <si>
-    <t>NEW MIDDLETON</t>
-  </si>
-  <si>
-    <t>NEW PALESTINE</t>
-  </si>
-  <si>
-    <t>NEW PARIS</t>
-  </si>
-  <si>
-    <t>NEW RICHMOND</t>
-  </si>
-  <si>
-    <t>See LINDEN, IN</t>
-  </si>
-  <si>
-    <t>NEW ROSS</t>
-  </si>
-  <si>
-    <t>NEW SALISBURY</t>
-  </si>
-  <si>
-    <t>NEW WHITELAND</t>
-  </si>
-  <si>
-    <t>NEWBURGH</t>
-  </si>
-  <si>
-    <t>NOBLE COUNTY</t>
-  </si>
-  <si>
-    <t>NOBLESVILLE</t>
-  </si>
-  <si>
-    <t>NORTH CROWS NEST</t>
-  </si>
-  <si>
-    <t>NORTH JUDSON</t>
-  </si>
-  <si>
-    <t>NORTH LIBERTY</t>
-  </si>
-  <si>
-    <t>NORTH MANCHESTER</t>
-  </si>
-  <si>
-    <t>NORTH SALEM</t>
-  </si>
-  <si>
-    <t>NORTH VERNON</t>
-  </si>
-  <si>
-    <t>Outside Tv markets</t>
-  </si>
-  <si>
-    <t>NORTH WEBSTER</t>
-  </si>
-  <si>
-    <t>80, 82 (Cromwell, portions of Kosciusko County, Leesburg &amp; North Webster); 82 (portions of Ko-scuisko County &amp; Pierceton)</t>
-  </si>
-  <si>
-    <t>OAKLAND CITY</t>
-  </si>
-  <si>
-    <t>OAKTOWN</t>
-  </si>
-  <si>
-    <t>OOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 (portions); Outside TV markets (portions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (Shirley, Wilkinson); Below 100 (Kennard, Middletown)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 82 (Cromwell, portions of Kosciusko County, Leesburg &amp; North Webster); 82 (portions of Koscuisko County &amp; Pierceton)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16 (Elnora, Odon); Outside TV markets (Plainville)</t>
-  </si>
-  <si>
-    <t>OGDEN DUNES</t>
-  </si>
-  <si>
-    <t>See PORTAGE, IN</t>
-  </si>
-  <si>
-    <t>OHIO COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>See RISING SUN, IN</t>
-  </si>
-  <si>
-    <t>OLDENBURG</t>
-  </si>
-  <si>
-    <t>OOLITIC</t>
-  </si>
-  <si>
-    <t>ORLEANS</t>
-  </si>
-  <si>
-    <t>See MITCHELL, IN</t>
-  </si>
-  <si>
-    <t>OSCEOLA</t>
-  </si>
-  <si>
-    <t>OSGOOD</t>
-  </si>
-  <si>
-    <t>OSSIAN</t>
-  </si>
-  <si>
-    <t>OWENSVILLE</t>
-  </si>
-  <si>
-    <t>OXFORD</t>
-  </si>
-  <si>
-    <t>PAOLI</t>
-  </si>
-  <si>
-    <t>PARKE COUNTY</t>
-  </si>
-  <si>
-    <t>See MONTEZUMA, IN</t>
-  </si>
-  <si>
-    <t>PARKE COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>PARKER CITY</t>
-  </si>
-  <si>
-    <t>PATOKA</t>
-  </si>
-  <si>
-    <t>PEKIN</t>
-  </si>
-  <si>
-    <t>Pennville</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>PETERSBURG</t>
-  </si>
-  <si>
-    <t>See also LOOGOOTEE, IN</t>
-  </si>
-  <si>
-    <t>PHILADELPHIA</t>
-  </si>
-  <si>
-    <t>See NEW PALESTINE, IN</t>
-  </si>
-  <si>
-    <t>PIERCETON</t>
-  </si>
-  <si>
-    <t>PIERGETDN</t>
-  </si>
-  <si>
-    <t>Pines</t>
-  </si>
-  <si>
-    <t>PITTSBORO</t>
-  </si>
-  <si>
-    <t>See HENDRICKS COUNTY, IN</t>
-  </si>
-  <si>
-    <t>PLAINFIELD</t>
-  </si>
-  <si>
-    <t>PLAINVILLE</t>
-  </si>
-  <si>
-    <t>PLYMOUTH</t>
-  </si>
-  <si>
-    <t>PORTAGE</t>
-  </si>
-  <si>
-    <t>PORTER</t>
-  </si>
-  <si>
-    <t>PORTER COUNTY</t>
-  </si>
-  <si>
-    <t>PORTER TWP.</t>
-  </si>
-  <si>
-    <t>See BRISTOL, IN</t>
-  </si>
-  <si>
-    <t>PORTLAND</t>
-  </si>
-  <si>
-    <t>POSEY COUNTY</t>
-  </si>
-  <si>
-    <t>See NEW HARMONY, IN</t>
-  </si>
-  <si>
-    <t>POSEYVILLE</t>
-  </si>
-  <si>
-    <t>See also NEW HARMONY, IN</t>
-  </si>
-  <si>
-    <t>POTTAWATTOMIE PARK</t>
-  </si>
-  <si>
-    <t>PRINCETON</t>
-  </si>
-  <si>
-    <t>PUTNAM COUNTY</t>
-  </si>
-  <si>
-    <t>See GREENCASTLE, IN</t>
-  </si>
-  <si>
-    <t>RANDOLPH COUNTY</t>
-  </si>
-  <si>
-    <t>RAVENSWOOD</t>
-  </si>
-  <si>
-    <t>REDKEY</t>
-  </si>
-  <si>
-    <t>REMINGTON</t>
-  </si>
-  <si>
-    <t>RENSSELAER</t>
-  </si>
-  <si>
-    <t>REYNOLDS</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>RIDGEVILLE</t>
-  </si>
-  <si>
-    <t>See WINCHESTER, IN</t>
-  </si>
-  <si>
-    <t>RILEY</t>
-  </si>
-  <si>
-    <t>See TERRE HAUTE, IN</t>
-  </si>
-  <si>
-    <t>RISING SUN</t>
-  </si>
-  <si>
-    <t>RIVER RIDGE</t>
-  </si>
-  <si>
-    <t>ROACHDALE</t>
-  </si>
-  <si>
-    <t>ROANOKE</t>
-  </si>
-  <si>
-    <t>ROCHESTER</t>
-  </si>
-  <si>
-    <t>ROCKPORT</t>
-  </si>
-  <si>
-    <t>ROCKVILLE</t>
-  </si>
-  <si>
-    <t>ROME CITY</t>
-  </si>
-  <si>
-    <t>ROMNEY</t>
-  </si>
-  <si>
-    <t>ROSEDALE</t>
-  </si>
-  <si>
-    <t>ROSELAND</t>
-  </si>
-  <si>
-    <t>ROSSVILLE</t>
-  </si>
-  <si>
-    <t>ROYAL CENTER</t>
-  </si>
-  <si>
-    <t>RUSH COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>RUSHVILLE</t>
-  </si>
-  <si>
-    <t>RUSSIAVILLE</t>
-  </si>
-  <si>
-    <t>ST. JOE</t>
-  </si>
-  <si>
-    <t>ST. JOHN</t>
-  </si>
-  <si>
-    <t>ST. JOSEPH COUNTY</t>
-  </si>
-  <si>
-    <t>ST. PAUL</t>
-  </si>
-  <si>
-    <t>SALEM</t>
-  </si>
-  <si>
-    <t>SALEM TWP.</t>
-  </si>
-  <si>
-    <t>SANTA CLAUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>86 (Crlsney, Dale, Gentryville &amp; portions of Spencer County); Below 100 (Mariah Hill, Santa Claus &amp; portions of Spencer County)</t>
-  </si>
-  <si>
-    <t>SCHERERVILLE</t>
-  </si>
-  <si>
-    <t>SCOTTSBURG</t>
-  </si>
-  <si>
-    <t>38 (Austin &amp; Scottsburg); Outside TV markets (Crothersville)</t>
-  </si>
-  <si>
-    <t>SEELYVILLE</t>
-  </si>
-  <si>
-    <t>SELLERSBURG</t>
-  </si>
-  <si>
-    <t>SELMA</t>
-  </si>
-  <si>
-    <t>SEYMOUR</t>
-  </si>
-  <si>
-    <t>16 (Jackson); Outside TV markets (portions of JacksonCounty)</t>
-  </si>
-  <si>
-    <t>SHARPSVILLE</t>
-  </si>
-  <si>
-    <t>SHELBURN</t>
-  </si>
-  <si>
-    <t>SHELBY COUNTY</t>
-  </si>
-  <si>
-    <t>SHELBYVILLE</t>
-  </si>
-  <si>
-    <t>16 (Shelbyville); Outside TV markets (Hope)</t>
-  </si>
-  <si>
-    <t>SHERIDAN</t>
-  </si>
-  <si>
-    <t>SHIRLEY</t>
-  </si>
-  <si>
-    <t>SHOALS</t>
-  </si>
-  <si>
-    <t>Silver Lake</t>
-  </si>
-  <si>
-    <t>SKINNER LAKE</t>
-  </si>
-  <si>
-    <t>See ALBION, IN</t>
-  </si>
-  <si>
-    <t>Smlthsvilie</t>
-  </si>
-  <si>
-    <t>SOUTH BEND</t>
-  </si>
-  <si>
-    <t>SOUTH WHITLEY</t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>SPEEDWAY</t>
-  </si>
-  <si>
-    <t>SPENCER</t>
-  </si>
-  <si>
-    <t>SPENCER COUNTY</t>
-  </si>
-  <si>
-    <t>SPENCERVILLE</t>
-  </si>
-  <si>
-    <t>SPENSER COUNTY</t>
-  </si>
-  <si>
-    <t>See ROCKPORT, IN</t>
-  </si>
-  <si>
-    <t>SPICELAND</t>
-  </si>
-  <si>
-    <t>SPRING GROVE</t>
-  </si>
-  <si>
-    <t>SPRING LAKE</t>
-  </si>
-  <si>
-    <t>SPRINGPORT</t>
-  </si>
-  <si>
-    <t>See MOUNT SUMMIT, IN</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>STARKE COUNTY</t>
-  </si>
-  <si>
-    <t>STAUNTON</t>
-  </si>
-  <si>
-    <t>STEUBEN COUNTY</t>
-  </si>
-  <si>
-    <t>SULLIVAN</t>
-  </si>
-  <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
-    <t>See also BLOOMFIELD, IN</t>
-  </si>
-  <si>
-    <t>SULLIVAN COUNTY</t>
-  </si>
-  <si>
-    <t>See SULLIVAN, IN</t>
-  </si>
-  <si>
-    <t>SUMMITVILLE</t>
-  </si>
-  <si>
-    <t>SWEETSER</t>
-  </si>
-  <si>
-    <t>82 (Sweetser); Outside TV markets (Converse)</t>
-  </si>
-  <si>
-    <t>Swiss City</t>
-  </si>
-  <si>
-    <t>SYRACUSE</t>
-  </si>
-  <si>
-    <t>TAYLORSVILLE</t>
-  </si>
-  <si>
-    <t>TELL CITY</t>
-  </si>
-  <si>
-    <t>TERHUNE</t>
-  </si>
-  <si>
-    <t>TERRE HAUTE</t>
-  </si>
-  <si>
-    <t>TIPPECANOE COUNTY</t>
-  </si>
-  <si>
-    <t>TIPTON</t>
-  </si>
-  <si>
-    <t>TIPTON COUNTY</t>
-  </si>
-  <si>
-    <t>TOPEKA</t>
-  </si>
-  <si>
-    <t>TOTO</t>
-  </si>
-  <si>
-    <t>TRAIL CREEK</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>UNION CITY</t>
-  </si>
-  <si>
-    <t>Unionvllle</t>
-  </si>
-  <si>
-    <t>UPLAND</t>
-  </si>
-  <si>
-    <t>UTICA</t>
-  </si>
-  <si>
-    <t>VALPARAISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 (Porter, portions of Porter County); Below 100 (Chesterton, portions of Porter County &amp; Valparaiso)</t>
-  </si>
-  <si>
-    <t>VANDERBURGH COUNTY</t>
-  </si>
-  <si>
-    <t>VANDERBURGH COUNTY (western portion)</t>
-  </si>
-  <si>
-    <t>VEEDERSBURG</t>
-  </si>
-  <si>
-    <t>VERMILLION COUNTY</t>
-  </si>
-  <si>
-    <t>VERNON</t>
-  </si>
-  <si>
-    <t>VERSAILLES</t>
-  </si>
-  <si>
-    <t>See also OSGOOD, IN</t>
-  </si>
-  <si>
-    <t>VEVAY</t>
-  </si>
-  <si>
-    <t>VIGO COUNTY (portions)</t>
-  </si>
-  <si>
-    <t>VINCENNES</t>
-  </si>
-  <si>
-    <t>WABASH</t>
-  </si>
-  <si>
-    <t>WABASH COUNTY</t>
-  </si>
-  <si>
-    <t>See NORTH MANCHESTER, IN</t>
-  </si>
-  <si>
-    <t>WADESVILLE</t>
-  </si>
-  <si>
-    <t>WAKARUSA</t>
-  </si>
-  <si>
-    <t>WALKERTON</t>
-  </si>
-  <si>
-    <t>WALTON</t>
-  </si>
-  <si>
-    <t>Wanatah</t>
-  </si>
-  <si>
-    <t>See WESTVILLE, IN</t>
-  </si>
-  <si>
-    <t>WARREN</t>
-  </si>
-  <si>
-    <t>WARREN COUNTY</t>
-  </si>
-  <si>
-    <t>WARREN PARK</t>
-  </si>
-  <si>
-    <t>WARRICK COUNTY</t>
-  </si>
-  <si>
-    <t>WARSAW</t>
-  </si>
-  <si>
-    <t>80, 82 (portions of Kosciusko County, Warsaw, Winoa Lake); 82 (portions of Koaciusko County, Pierceton); Outside TV markets (portions of Kosciusko County)</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>WASHINGTON COUNTY</t>
-  </si>
-  <si>
-    <t>See SALEM, IN</t>
-  </si>
-  <si>
-    <t>WASHINGTON TWP.</t>
-  </si>
-  <si>
-    <t>WATERLOO</t>
-  </si>
-  <si>
-    <t>WAYNE COUNTY</t>
-  </si>
-  <si>
-    <t>WAYNETOWN</t>
-  </si>
-  <si>
-    <t>WELLS</t>
-  </si>
-  <si>
-    <t>WELLS COUNTY</t>
-  </si>
-  <si>
-    <t>WEST BADEN SPRINGS</t>
-  </si>
-  <si>
-    <t>See FRENCH LICK, IN</t>
-  </si>
-  <si>
-    <t>WEST LAFAYETTE</t>
-  </si>
-  <si>
-    <t>WEST TERRE HAUTE</t>
-  </si>
-  <si>
-    <t>WESTFIELD</t>
-  </si>
-  <si>
-    <t>WESTPORT</t>
-  </si>
-  <si>
-    <t>WESTVILLE</t>
-  </si>
-  <si>
-    <t>WHEATLAND</t>
-  </si>
-  <si>
-    <t>WHITE COUNTY</t>
-  </si>
-  <si>
-    <t>See MONTICELLO, IN</t>
-  </si>
-  <si>
-    <t>WHITELAND</t>
-  </si>
-  <si>
-    <t>WHITESTOWN</t>
-  </si>
-  <si>
-    <t>WHITING</t>
-  </si>
-  <si>
-    <t>WHITLEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILFRED </t>
-  </si>
-  <si>
-    <t>WILKINSON</t>
-  </si>
-  <si>
-    <t>WILLIAMS CREEK</t>
-  </si>
-  <si>
-    <t>WILLIAMSPORT</t>
-  </si>
-  <si>
-    <t>WINAMAC</t>
-  </si>
-  <si>
-    <t>WINCHESTER</t>
-  </si>
-  <si>
-    <t>WINDFALL</t>
-  </si>
-  <si>
-    <t>WINGATE</t>
-  </si>
-  <si>
-    <t>WINONA LAKE</t>
-  </si>
-  <si>
-    <t>See WARSAW, IN</t>
-  </si>
-  <si>
-    <t>WINSLOW</t>
-  </si>
-  <si>
-    <t>WOLCOTT</t>
-  </si>
-  <si>
-    <t>WOLCOTTVILLE</t>
-  </si>
-  <si>
-    <t>See ROME CITY, IN</t>
-  </si>
-  <si>
-    <t>WOODBURN</t>
-  </si>
-  <si>
-    <t>WORTHINGTON</t>
-  </si>
-  <si>
-    <t>WYNNEDALE</t>
-  </si>
-  <si>
-    <t>YORKTOWN</t>
-  </si>
-  <si>
-    <t>ZIONSVILLE</t>
-  </si>
-  <si>
-    <t>See MARION, IN</t>
-  </si>
-  <si>
-    <t>See THREE OAKS TWP. MI</t>
-  </si>
-  <si>
-    <t>See CONSTANTINE, MI</t>
-  </si>
-  <si>
-    <t>See MONROE CITY, IN</t>
-  </si>
-  <si>
-    <t>See SOUTH WHITLEY, IN</t>
-  </si>
-  <si>
-    <t>COLUMBUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2677,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3692CF-C0C6-F543-9E87-F7183E89A42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D39A1A-B1CD-4B45-B0FB-A535FB7CE967}">
   <dimension ref="A1:Z584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5203,7 +5205,7 @@
         <v>523</v>
       </c>
       <c r="V34" s="1">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="W34">
         <v>35</v>
@@ -5442,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5508,7 +5510,7 @@
         <v>7</v>
       </c>
       <c r="Y38" t="s">
-        <v>168</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -5516,7 +5518,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5590,7 +5592,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5614,7 +5616,7 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L40" t="s">
         <v>30</v>
@@ -5664,7 +5666,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5720,8 +5722,8 @@
       <c r="U41" s="1">
         <v>1150</v>
       </c>
-      <c r="V41" s="1">
-        <v>2000</v>
+      <c r="V41">
+        <v>350</v>
       </c>
       <c r="W41">
         <v>35</v>
@@ -5738,7 +5740,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5804,7 +5806,7 @@
         <v>15</v>
       </c>
       <c r="Y42" t="s">
-        <v>175</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5812,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5886,7 +5888,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5960,7 +5962,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6034,7 +6036,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6108,7 +6110,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6182,7 +6184,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6256,7 +6258,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6330,7 +6332,7 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6404,7 +6406,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6478,7 +6480,7 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6552,7 +6554,7 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6626,7 +6628,7 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6700,7 +6702,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6774,7 +6776,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6848,7 +6850,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6925,7 +6927,7 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6999,7 +7001,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7023,7 +7025,7 @@
         <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>759</v>
+        <v>31</v>
       </c>
       <c r="L59">
         <v>380</v>
@@ -7073,7 +7075,7 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7147,7 +7149,7 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7221,7 +7223,7 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7295,7 +7297,7 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7369,7 +7371,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7443,7 +7445,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7517,7 +7519,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7591,7 +7593,7 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7665,7 +7667,7 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7739,7 +7741,7 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7805,7 +7807,7 @@
         <v>13</v>
       </c>
       <c r="Y69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7813,7 +7815,7 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7887,7 +7889,7 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7961,7 +7963,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8035,7 +8037,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8106,7 +8108,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8180,7 +8182,7 @@
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8254,7 +8256,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8328,7 +8330,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8402,7 +8404,7 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8476,7 +8478,7 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8624,7 +8626,7 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>13</v>
       </c>
       <c r="Y81" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -8698,7 +8700,7 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -8846,7 +8848,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -8920,7 +8922,7 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8994,7 +8996,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -9068,7 +9070,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -9142,7 +9144,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -9216,7 +9218,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -9290,7 +9292,7 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -9364,7 +9366,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -9438,7 +9440,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -9512,7 +9514,7 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -9586,7 +9588,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -9660,7 +9662,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -9734,7 +9736,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -9800,7 +9802,7 @@
         <v>15</v>
       </c>
       <c r="Y96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -9808,7 +9810,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -9874,7 +9876,7 @@
         <v>30</v>
       </c>
       <c r="Y97" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -9882,7 +9884,7 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -9956,7 +9958,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -9980,7 +9982,7 @@
         <v>30</v>
       </c>
       <c r="K99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L99" t="s">
         <v>30</v>
@@ -10030,7 +10032,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -10104,7 +10106,7 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -10128,7 +10130,7 @@
         <v>30</v>
       </c>
       <c r="K101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L101" t="s">
         <v>30</v>
@@ -10178,7 +10180,7 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -10252,7 +10254,7 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -10326,7 +10328,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -10400,7 +10402,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -10474,7 +10476,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -10548,7 +10550,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -10622,7 +10624,7 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -10699,7 +10701,7 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -10773,7 +10775,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -10847,7 +10849,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -10921,7 +10923,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -10987,7 +10989,7 @@
         <v>18</v>
       </c>
       <c r="Y112" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -10995,7 +10997,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -11143,7 +11145,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -11220,7 +11222,7 @@
         <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -11368,7 +11370,7 @@
         <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -11442,7 +11444,7 @@
         <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -11516,7 +11518,7 @@
         <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -11590,7 +11592,7 @@
         <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -11656,7 +11658,7 @@
         <v>32</v>
       </c>
       <c r="Y121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:26">
@@ -11664,7 +11666,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -11687,8 +11689,8 @@
       <c r="J122" t="s">
         <v>30</v>
       </c>
-      <c r="K122" t="s">
-        <v>30</v>
+      <c r="K122">
+        <v>217</v>
       </c>
       <c r="L122" t="s">
         <v>30</v>
@@ -11738,7 +11740,7 @@
         <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -11812,7 +11814,7 @@
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -11889,7 +11891,7 @@
         <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -11963,7 +11965,7 @@
         <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -12037,7 +12039,7 @@
         <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -12111,7 +12113,7 @@
         <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -12188,7 +12190,7 @@
         <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -12262,7 +12264,7 @@
         <v>26</v>
       </c>
       <c r="B130" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -12328,7 +12330,7 @@
         <v>10</v>
       </c>
       <c r="Y130" t="s">
-        <v>464</v>
+        <v>754</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -12336,7 +12338,7 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -12410,7 +12412,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -12476,7 +12478,7 @@
         <v>31</v>
       </c>
       <c r="Y132" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -12484,7 +12486,7 @@
         <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -12558,7 +12560,7 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -12624,7 +12626,7 @@
         <v>18</v>
       </c>
       <c r="Y134" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -12632,7 +12634,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -12709,7 +12711,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -12733,7 +12735,7 @@
         <v>30</v>
       </c>
       <c r="K136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L136" t="s">
         <v>30</v>
@@ -12783,7 +12785,7 @@
         <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -12857,7 +12859,7 @@
         <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -12931,7 +12933,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -13005,7 +13007,7 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -13079,7 +13081,7 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -13153,7 +13155,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -13227,7 +13229,7 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -13301,7 +13303,7 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -13375,7 +13377,7 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -13449,7 +13451,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -13523,7 +13525,7 @@
         <v>26</v>
       </c>
       <c r="B147" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -13597,7 +13599,7 @@
         <v>26</v>
       </c>
       <c r="B148" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -13671,7 +13673,7 @@
         <v>26</v>
       </c>
       <c r="B149" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -13745,7 +13747,7 @@
         <v>26</v>
       </c>
       <c r="B150" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -13819,7 +13821,7 @@
         <v>26</v>
       </c>
       <c r="B151" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -13893,7 +13895,7 @@
         <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -13967,7 +13969,7 @@
         <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -14041,7 +14043,7 @@
         <v>26</v>
       </c>
       <c r="B154" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -14115,7 +14117,7 @@
         <v>26</v>
       </c>
       <c r="B155" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -14189,7 +14191,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -14263,7 +14265,7 @@
         <v>26</v>
       </c>
       <c r="B157" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -14329,7 +14331,7 @@
         <v>3</v>
       </c>
       <c r="Y157" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -14337,7 +14339,7 @@
         <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -14403,7 +14405,7 @@
         <v>27</v>
       </c>
       <c r="Y158" t="s">
-        <v>533</v>
+        <v>755</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -14411,7 +14413,7 @@
         <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -14485,7 +14487,7 @@
         <v>26</v>
       </c>
       <c r="B160" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -14551,7 +14553,7 @@
         <v>18</v>
       </c>
       <c r="Y160" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -14559,7 +14561,7 @@
         <v>26</v>
       </c>
       <c r="B161" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -14625,7 +14627,7 @@
         <v>17</v>
       </c>
       <c r="Y161" t="s">
-        <v>537</v>
+        <v>756</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -14633,7 +14635,7 @@
         <v>26</v>
       </c>
       <c r="B162" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -14707,7 +14709,7 @@
         <v>26</v>
       </c>
       <c r="B163" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -14781,7 +14783,7 @@
         <v>26</v>
       </c>
       <c r="B164" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -14855,7 +14857,7 @@
         <v>26</v>
       </c>
       <c r="B165" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14929,7 +14931,7 @@
         <v>26</v>
       </c>
       <c r="B166" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -15003,7 +15005,7 @@
         <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -15080,7 +15082,7 @@
         <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -15154,7 +15156,7 @@
         <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -15228,7 +15230,7 @@
         <v>26</v>
       </c>
       <c r="B170" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -15302,7 +15304,7 @@
         <v>26</v>
       </c>
       <c r="B171" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -15376,7 +15378,7 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -15450,7 +15452,7 @@
         <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -15524,7 +15526,7 @@
         <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -15598,7 +15600,7 @@
         <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -15672,7 +15674,7 @@
         <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -15746,7 +15748,7 @@
         <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -15820,7 +15822,7 @@
         <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -15894,7 +15896,7 @@
         <v>26</v>
       </c>
       <c r="B179" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -15968,7 +15970,7 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -16042,7 +16044,7 @@
         <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -16116,7 +16118,7 @@
         <v>26</v>
       </c>
       <c r="B182" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -16190,7 +16192,7 @@
         <v>26</v>
       </c>
       <c r="B183" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -16264,7 +16266,7 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -16338,7 +16340,7 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -16412,7 +16414,7 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -16478,7 +16480,7 @@
         <v>31</v>
       </c>
       <c r="Y186" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -16486,7 +16488,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -16560,7 +16562,7 @@
         <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -16634,7 +16636,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -16708,7 +16710,7 @@
         <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -16782,7 +16784,7 @@
         <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -16856,7 +16858,7 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -16930,7 +16932,7 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -17004,7 +17006,7 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -17070,7 +17072,7 @@
         <v>31</v>
       </c>
       <c r="Y194" t="s">
-        <v>620</v>
+        <v>757</v>
       </c>
     </row>
     <row r="195" spans="1:26">
@@ -17078,7 +17080,7 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -17107,8 +17109,8 @@
       <c r="L195">
         <v>218</v>
       </c>
-      <c r="M195" t="s">
-        <v>30</v>
+      <c r="M195">
+        <v>488</v>
       </c>
       <c r="N195" t="s">
         <v>30</v>
@@ -17144,7 +17146,7 @@
         <v>10</v>
       </c>
       <c r="Y195" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="1:26">
@@ -17152,7 +17154,7 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -17218,7 +17220,7 @@
         <v>6</v>
       </c>
       <c r="Y196" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="197" spans="1:26">
@@ -17226,7 +17228,7 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -17300,7 +17302,7 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -17366,7 +17368,7 @@
         <v>32</v>
       </c>
       <c r="Y198" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="199" spans="1:26">
@@ -17374,7 +17376,7 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -17448,7 +17450,7 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -17514,7 +17516,7 @@
         <v>16</v>
       </c>
       <c r="Y200" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:26">
@@ -17522,7 +17524,7 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -17599,7 +17601,7 @@
         <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -17673,7 +17675,7 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -17747,7 +17749,7 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -17821,7 +17823,7 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -17895,7 +17897,7 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -17972,7 +17974,7 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -18046,7 +18048,7 @@
         <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -18112,7 +18114,7 @@
         <v>15</v>
       </c>
       <c r="Y208" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="209" spans="1:25">
@@ -18120,7 +18122,7 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -18194,7 +18196,7 @@
         <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -18268,7 +18270,7 @@
         <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -18342,7 +18344,7 @@
         <v>26</v>
       </c>
       <c r="B212" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -18416,7 +18418,7 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -18490,7 +18492,7 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -18564,7 +18566,7 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -18630,7 +18632,7 @@
         <v>32</v>
       </c>
       <c r="Y215" t="s">
-        <v>685</v>
+        <v>758</v>
       </c>
     </row>
     <row r="216" spans="1:25">
@@ -18638,7 +18640,7 @@
         <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -18712,7 +18714,7 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -18786,7 +18788,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -18860,7 +18862,7 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -18934,7 +18936,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -19008,7 +19010,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -19082,7 +19084,7 @@
         <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -19156,7 +19158,7 @@
         <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -19230,7 +19232,7 @@
         <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -19304,7 +19306,7 @@
         <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -19370,7 +19372,7 @@
         <v>32</v>
       </c>
       <c r="Y225" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="226" spans="1:25">
@@ -19378,7 +19380,7 @@
         <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -19452,7 +19454,7 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -19526,7 +19528,7 @@
         <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -19600,7 +19602,7 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -19674,7 +19676,7 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -19748,7 +19750,7 @@
         <v>26</v>
       </c>
       <c r="B231" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -19822,7 +19824,7 @@
         <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -19896,7 +19898,7 @@
         <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -19970,7 +19972,7 @@
         <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -20044,7 +20046,7 @@
         <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -20118,7 +20120,7 @@
         <v>26</v>
       </c>
       <c r="B236" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -20192,7 +20194,7 @@
         <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -21036,13 +21038,13 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
+        <v>169</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
         <v>170</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -21050,13 +21052,13 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -21064,7 +21066,7 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -21078,7 +21080,7 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -21092,7 +21094,7 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -21106,7 +21108,7 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -21120,7 +21122,7 @@
         <v>26</v>
       </c>
       <c r="B299" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -21134,13 +21136,13 @@
         <v>26</v>
       </c>
       <c r="B300" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -21148,7 +21150,7 @@
         <v>26</v>
       </c>
       <c r="B301" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -21162,13 +21164,13 @@
         <v>26</v>
       </c>
       <c r="B302" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -21176,13 +21178,13 @@
         <v>26</v>
       </c>
       <c r="B303" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -21190,7 +21192,7 @@
         <v>26</v>
       </c>
       <c r="B304" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -21204,7 +21206,7 @@
         <v>26</v>
       </c>
       <c r="B305" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -21218,13 +21220,13 @@
         <v>26</v>
       </c>
       <c r="B306" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -21232,13 +21234,13 @@
         <v>26</v>
       </c>
       <c r="B307" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -21246,13 +21248,13 @@
         <v>26</v>
       </c>
       <c r="B308" t="s">
+        <v>194</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
         <v>196</v>
-      </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -21260,13 +21262,13 @@
         <v>26</v>
       </c>
       <c r="B309" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -21274,7 +21276,7 @@
         <v>26</v>
       </c>
       <c r="B310" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -21288,13 +21290,13 @@
         <v>26</v>
       </c>
       <c r="B311" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -21302,7 +21304,7 @@
         <v>26</v>
       </c>
       <c r="B312" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -21316,13 +21318,13 @@
         <v>26</v>
       </c>
       <c r="B313" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -21330,7 +21332,7 @@
         <v>26</v>
       </c>
       <c r="B314" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -21344,7 +21346,7 @@
         <v>26</v>
       </c>
       <c r="B315" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -21358,13 +21360,13 @@
         <v>26</v>
       </c>
       <c r="B316" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -21372,7 +21374,7 @@
         <v>26</v>
       </c>
       <c r="B317" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -21386,7 +21388,7 @@
         <v>26</v>
       </c>
       <c r="B318" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -21400,7 +21402,7 @@
         <v>26</v>
       </c>
       <c r="B319" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -21414,7 +21416,7 @@
         <v>26</v>
       </c>
       <c r="B320" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -21428,13 +21430,13 @@
         <v>26</v>
       </c>
       <c r="B321" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -21442,7 +21444,7 @@
         <v>26</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -21456,13 +21458,13 @@
         <v>26</v>
       </c>
       <c r="B323" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -21470,13 +21472,13 @@
         <v>26</v>
       </c>
       <c r="B324" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -21484,7 +21486,7 @@
         <v>26</v>
       </c>
       <c r="B325" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -21498,13 +21500,13 @@
         <v>26</v>
       </c>
       <c r="B326" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -21512,13 +21514,13 @@
         <v>26</v>
       </c>
       <c r="B327" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -21526,13 +21528,13 @@
         <v>26</v>
       </c>
       <c r="B328" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -21540,13 +21542,13 @@
         <v>26</v>
       </c>
       <c r="B329" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -21554,7 +21556,7 @@
         <v>26</v>
       </c>
       <c r="B330" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -21568,13 +21570,13 @@
         <v>26</v>
       </c>
       <c r="B331" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -21582,7 +21584,7 @@
         <v>26</v>
       </c>
       <c r="B332" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -21596,13 +21598,13 @@
         <v>26</v>
       </c>
       <c r="B333" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -21610,13 +21612,13 @@
         <v>26</v>
       </c>
       <c r="B334" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -21624,13 +21626,13 @@
         <v>26</v>
       </c>
       <c r="B335" t="s">
+        <v>247</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
         <v>249</v>
-      </c>
-      <c r="C335">
-        <v>1</v>
-      </c>
-      <c r="D335" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -21638,7 +21640,7 @@
         <v>26</v>
       </c>
       <c r="B336" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -21652,13 +21654,13 @@
         <v>26</v>
       </c>
       <c r="B337" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C337">
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -21666,13 +21668,13 @@
         <v>26</v>
       </c>
       <c r="B338" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -21680,13 +21682,13 @@
         <v>26</v>
       </c>
       <c r="B339" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -21694,13 +21696,13 @@
         <v>26</v>
       </c>
       <c r="B340" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -21708,7 +21710,7 @@
         <v>26</v>
       </c>
       <c r="B341" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -21722,13 +21724,13 @@
         <v>26</v>
       </c>
       <c r="B342" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C342">
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -21736,13 +21738,13 @@
         <v>26</v>
       </c>
       <c r="B343" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -21750,13 +21752,13 @@
         <v>26</v>
       </c>
       <c r="B344" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -21764,7 +21766,7 @@
         <v>26</v>
       </c>
       <c r="B345" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -21778,7 +21780,7 @@
         <v>26</v>
       </c>
       <c r="B346" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -21792,13 +21794,13 @@
         <v>26</v>
       </c>
       <c r="B347" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -21806,7 +21808,7 @@
         <v>26</v>
       </c>
       <c r="B348" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -21820,7 +21822,7 @@
         <v>26</v>
       </c>
       <c r="B349" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -21834,7 +21836,7 @@
         <v>26</v>
       </c>
       <c r="B350" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -21848,13 +21850,13 @@
         <v>26</v>
       </c>
       <c r="B351" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -21862,13 +21864,13 @@
         <v>26</v>
       </c>
       <c r="B352" t="s">
+        <v>283</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
         <v>285</v>
-      </c>
-      <c r="C352">
-        <v>1</v>
-      </c>
-      <c r="D352" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -21876,7 +21878,7 @@
         <v>26</v>
       </c>
       <c r="B353" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -21890,13 +21892,13 @@
         <v>26</v>
       </c>
       <c r="B354" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
       <c r="D354" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -21904,7 +21906,7 @@
         <v>26</v>
       </c>
       <c r="B355" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -21918,7 +21920,7 @@
         <v>26</v>
       </c>
       <c r="B356" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -21932,13 +21934,13 @@
         <v>26</v>
       </c>
       <c r="B357" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C357">
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -21946,13 +21948,13 @@
         <v>26</v>
       </c>
       <c r="B358" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -21960,7 +21962,7 @@
         <v>26</v>
       </c>
       <c r="B359" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -21974,13 +21976,13 @@
         <v>26</v>
       </c>
       <c r="B360" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -21988,7 +21990,7 @@
         <v>26</v>
       </c>
       <c r="B361" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -22002,13 +22004,13 @@
         <v>26</v>
       </c>
       <c r="B362" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C362">
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -22016,7 +22018,7 @@
         <v>26</v>
       </c>
       <c r="B363" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -22030,7 +22032,7 @@
         <v>26</v>
       </c>
       <c r="B364" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -22044,7 +22046,7 @@
         <v>26</v>
       </c>
       <c r="B365" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -22058,13 +22060,13 @@
         <v>26</v>
       </c>
       <c r="B366" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C366">
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -22072,7 +22074,7 @@
         <v>26</v>
       </c>
       <c r="B367" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -22086,13 +22088,13 @@
         <v>26</v>
       </c>
       <c r="B368" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -22100,13 +22102,13 @@
         <v>26</v>
       </c>
       <c r="B369" t="s">
+        <v>307</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
         <v>309</v>
-      </c>
-      <c r="C369">
-        <v>1</v>
-      </c>
-      <c r="D369" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -22114,13 +22116,13 @@
         <v>26</v>
       </c>
       <c r="B370" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="D370" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -22128,13 +22130,13 @@
         <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -22142,13 +22144,13 @@
         <v>26</v>
       </c>
       <c r="B372" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C372">
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -22156,13 +22158,13 @@
         <v>26</v>
       </c>
       <c r="B373" t="s">
+        <v>315</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
         <v>317</v>
-      </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -22170,13 +22172,13 @@
         <v>26</v>
       </c>
       <c r="B374" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -22184,7 +22186,7 @@
         <v>26</v>
       </c>
       <c r="B375" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -22198,7 +22200,7 @@
         <v>26</v>
       </c>
       <c r="B376" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -22212,13 +22214,13 @@
         <v>26</v>
       </c>
       <c r="B377" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -22226,13 +22228,13 @@
         <v>26</v>
       </c>
       <c r="B378" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -22240,13 +22242,13 @@
         <v>26</v>
       </c>
       <c r="B379" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -22254,13 +22256,13 @@
         <v>26</v>
       </c>
       <c r="B380" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C380">
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -22268,13 +22270,13 @@
         <v>26</v>
       </c>
       <c r="B381" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -22282,7 +22284,7 @@
         <v>26</v>
       </c>
       <c r="B382" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -22296,7 +22298,7 @@
         <v>26</v>
       </c>
       <c r="B383" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -22310,7 +22312,7 @@
         <v>26</v>
       </c>
       <c r="B384" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -22324,7 +22326,7 @@
         <v>26</v>
       </c>
       <c r="B385" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -22338,13 +22340,13 @@
         <v>26</v>
       </c>
       <c r="B386" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -22352,7 +22354,7 @@
         <v>26</v>
       </c>
       <c r="B387" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -22366,7 +22368,7 @@
         <v>26</v>
       </c>
       <c r="B388" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -22380,13 +22382,13 @@
         <v>26</v>
       </c>
       <c r="B389" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -22394,13 +22396,13 @@
         <v>26</v>
       </c>
       <c r="B390" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -22408,7 +22410,7 @@
         <v>26</v>
       </c>
       <c r="B391" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -22422,13 +22424,13 @@
         <v>26</v>
       </c>
       <c r="B392" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -22436,13 +22438,13 @@
         <v>26</v>
       </c>
       <c r="B393" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -22450,13 +22452,13 @@
         <v>26</v>
       </c>
       <c r="B394" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -22464,13 +22466,13 @@
         <v>26</v>
       </c>
       <c r="B395" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -22478,13 +22480,13 @@
         <v>26</v>
       </c>
       <c r="B396" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C396">
         <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -22492,7 +22494,7 @@
         <v>26</v>
       </c>
       <c r="B397" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -22506,13 +22508,13 @@
         <v>26</v>
       </c>
       <c r="B398" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -22520,13 +22522,13 @@
         <v>26</v>
       </c>
       <c r="B399" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -22534,13 +22536,13 @@
         <v>26</v>
       </c>
       <c r="B400" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -22548,13 +22550,13 @@
         <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -22562,13 +22564,13 @@
         <v>26</v>
       </c>
       <c r="B402" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -22576,7 +22578,7 @@
         <v>26</v>
       </c>
       <c r="B403" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -22590,13 +22592,13 @@
         <v>26</v>
       </c>
       <c r="B404" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -22604,13 +22606,13 @@
         <v>26</v>
       </c>
       <c r="B405" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -22618,13 +22620,13 @@
         <v>26</v>
       </c>
       <c r="B406" t="s">
+        <v>380</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
         <v>382</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-      <c r="D406" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -22632,13 +22634,13 @@
         <v>26</v>
       </c>
       <c r="B407" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -22646,13 +22648,13 @@
         <v>26</v>
       </c>
       <c r="B408" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -22660,13 +22662,13 @@
         <v>26</v>
       </c>
       <c r="B409" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C409">
         <v>1</v>
       </c>
       <c r="D409" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -22674,13 +22676,13 @@
         <v>26</v>
       </c>
       <c r="B410" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C410">
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -22688,13 +22690,13 @@
         <v>26</v>
       </c>
       <c r="B411" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -22702,13 +22704,13 @@
         <v>26</v>
       </c>
       <c r="B412" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -22716,13 +22718,13 @@
         <v>26</v>
       </c>
       <c r="B413" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C413">
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -22730,13 +22732,13 @@
         <v>26</v>
       </c>
       <c r="B414" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -22744,7 +22746,7 @@
         <v>26</v>
       </c>
       <c r="B415" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -22758,13 +22760,13 @@
         <v>26</v>
       </c>
       <c r="B416" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C416">
         <v>1</v>
       </c>
       <c r="D416" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -22772,13 +22774,13 @@
         <v>26</v>
       </c>
       <c r="B417" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
       <c r="D417" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -22786,13 +22788,13 @@
         <v>26</v>
       </c>
       <c r="B418" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -22800,7 +22802,7 @@
         <v>26</v>
       </c>
       <c r="B419" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -22814,13 +22816,13 @@
         <v>26</v>
       </c>
       <c r="B420" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -22828,13 +22830,13 @@
         <v>26</v>
       </c>
       <c r="B421" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C421">
         <v>1</v>
       </c>
       <c r="D421" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -22842,13 +22844,13 @@
         <v>26</v>
       </c>
       <c r="B422" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -22856,7 +22858,7 @@
         <v>26</v>
       </c>
       <c r="B423" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -22870,13 +22872,13 @@
         <v>26</v>
       </c>
       <c r="B424" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -22884,7 +22886,7 @@
         <v>26</v>
       </c>
       <c r="B425" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -22898,13 +22900,13 @@
         <v>26</v>
       </c>
       <c r="B426" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -22912,13 +22914,13 @@
         <v>26</v>
       </c>
       <c r="B427" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C427">
         <v>1</v>
       </c>
       <c r="D427" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -22926,7 +22928,7 @@
         <v>26</v>
       </c>
       <c r="B428" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -22940,13 +22942,13 @@
         <v>26</v>
       </c>
       <c r="B429" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C429">
         <v>1</v>
       </c>
       <c r="D429" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -22954,13 +22956,13 @@
         <v>26</v>
       </c>
       <c r="B430" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C430">
         <v>1</v>
       </c>
       <c r="D430" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -22968,13 +22970,13 @@
         <v>26</v>
       </c>
       <c r="B431" t="s">
+        <v>435</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
         <v>437</v>
-      </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-      <c r="D431" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -22982,13 +22984,13 @@
         <v>26</v>
       </c>
       <c r="B432" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C432">
         <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -22996,13 +22998,13 @@
         <v>26</v>
       </c>
       <c r="B433" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -23010,7 +23012,7 @@
         <v>26</v>
       </c>
       <c r="B434" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -23024,13 +23026,13 @@
         <v>26</v>
       </c>
       <c r="B435" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
       <c r="D435" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -23038,13 +23040,13 @@
         <v>26</v>
       </c>
       <c r="B436" t="s">
+        <v>445</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
         <v>447</v>
-      </c>
-      <c r="C436">
-        <v>1</v>
-      </c>
-      <c r="D436" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -23052,13 +23054,13 @@
         <v>26</v>
       </c>
       <c r="B437" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23066,13 +23068,13 @@
         <v>26</v>
       </c>
       <c r="B438" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -23080,7 +23082,7 @@
         <v>26</v>
       </c>
       <c r="B439" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -23094,7 +23096,7 @@
         <v>26</v>
       </c>
       <c r="B440" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -23108,7 +23110,7 @@
         <v>26</v>
       </c>
       <c r="B441" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -23122,13 +23124,13 @@
         <v>26</v>
       </c>
       <c r="B442" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
       <c r="D442" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -23136,13 +23138,13 @@
         <v>26</v>
       </c>
       <c r="B443" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C443">
         <v>1</v>
       </c>
       <c r="D443" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -23150,13 +23152,13 @@
         <v>26</v>
       </c>
       <c r="B444" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C444">
         <v>1</v>
       </c>
       <c r="D444" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -23164,7 +23166,7 @@
         <v>26</v>
       </c>
       <c r="B445" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -23178,13 +23180,13 @@
         <v>26</v>
       </c>
       <c r="B446" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -23192,13 +23194,13 @@
         <v>26</v>
       </c>
       <c r="B447" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C447">
         <v>1</v>
       </c>
       <c r="D447" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -23206,13 +23208,13 @@
         <v>26</v>
       </c>
       <c r="B448" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C448">
         <v>1</v>
       </c>
       <c r="D448" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -23220,7 +23222,7 @@
         <v>26</v>
       </c>
       <c r="B449" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -23234,13 +23236,13 @@
         <v>26</v>
       </c>
       <c r="B450" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C450">
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -23248,7 +23250,7 @@
         <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -23262,13 +23264,13 @@
         <v>26</v>
       </c>
       <c r="B452" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C452">
         <v>1</v>
       </c>
       <c r="D452" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -23276,13 +23278,13 @@
         <v>26</v>
       </c>
       <c r="B453" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C453">
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -23290,7 +23292,7 @@
         <v>26</v>
       </c>
       <c r="B454" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -23304,7 +23306,7 @@
         <v>26</v>
       </c>
       <c r="B455" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -23318,13 +23320,13 @@
         <v>26</v>
       </c>
       <c r="B456" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C456">
         <v>1</v>
       </c>
       <c r="D456" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -23332,13 +23334,13 @@
         <v>26</v>
       </c>
       <c r="B457" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
       <c r="D457" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -23346,7 +23348,7 @@
         <v>26</v>
       </c>
       <c r="B458" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -23360,13 +23362,13 @@
         <v>26</v>
       </c>
       <c r="B459" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C459">
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -23374,7 +23376,7 @@
         <v>26</v>
       </c>
       <c r="B460" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -23388,7 +23390,7 @@
         <v>26</v>
       </c>
       <c r="B461" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -23402,13 +23404,13 @@
         <v>26</v>
       </c>
       <c r="B462" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -23416,7 +23418,7 @@
         <v>26</v>
       </c>
       <c r="B463" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -23430,7 +23432,7 @@
         <v>26</v>
       </c>
       <c r="B464" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -23444,13 +23446,13 @@
         <v>26</v>
       </c>
       <c r="B465" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C465">
         <v>1</v>
       </c>
       <c r="D465" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -23458,13 +23460,13 @@
         <v>26</v>
       </c>
       <c r="B466" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C466">
         <v>1</v>
       </c>
       <c r="D466" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -23472,7 +23474,7 @@
         <v>26</v>
       </c>
       <c r="B467" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -23486,13 +23488,13 @@
         <v>26</v>
       </c>
       <c r="B468" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C468">
         <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -23500,7 +23502,7 @@
         <v>26</v>
       </c>
       <c r="B469" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -23514,7 +23516,7 @@
         <v>26</v>
       </c>
       <c r="B470" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -23528,7 +23530,7 @@
         <v>26</v>
       </c>
       <c r="B471" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -23542,7 +23544,7 @@
         <v>26</v>
       </c>
       <c r="B472" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -23556,13 +23558,13 @@
         <v>26</v>
       </c>
       <c r="B473" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C473">
         <v>1</v>
       </c>
       <c r="D473" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -23570,13 +23572,13 @@
         <v>26</v>
       </c>
       <c r="B474" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C474">
         <v>1</v>
       </c>
       <c r="D474" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -23584,13 +23586,13 @@
         <v>26</v>
       </c>
       <c r="B475" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C475">
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -23598,13 +23600,13 @@
         <v>26</v>
       </c>
       <c r="B476" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C476">
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -23612,13 +23614,13 @@
         <v>26</v>
       </c>
       <c r="B477" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C477">
         <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -23626,13 +23628,13 @@
         <v>26</v>
       </c>
       <c r="B478" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C478">
         <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -23640,7 +23642,7 @@
         <v>26</v>
       </c>
       <c r="B479" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -23654,13 +23656,13 @@
         <v>26</v>
       </c>
       <c r="B480" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C480">
         <v>1</v>
       </c>
       <c r="D480" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -23668,13 +23670,13 @@
         <v>26</v>
       </c>
       <c r="B481" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
       <c r="D481" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -23682,13 +23684,13 @@
         <v>26</v>
       </c>
       <c r="B482" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -23696,13 +23698,13 @@
         <v>26</v>
       </c>
       <c r="B483" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -23710,13 +23712,13 @@
         <v>26</v>
       </c>
       <c r="B484" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C484">
         <v>1</v>
       </c>
       <c r="D484" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -23724,13 +23726,13 @@
         <v>26</v>
       </c>
       <c r="B485" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C485">
         <v>1</v>
       </c>
       <c r="D485" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -23738,13 +23740,13 @@
         <v>26</v>
       </c>
       <c r="B486" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C486">
         <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -23752,13 +23754,13 @@
         <v>26</v>
       </c>
       <c r="B487" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C487">
         <v>1</v>
       </c>
       <c r="D487" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -23766,13 +23768,13 @@
         <v>26</v>
       </c>
       <c r="B488" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C488">
         <v>1</v>
       </c>
       <c r="D488" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -23780,13 +23782,13 @@
         <v>26</v>
       </c>
       <c r="B489" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C489">
         <v>1</v>
       </c>
       <c r="D489" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -23794,13 +23796,13 @@
         <v>26</v>
       </c>
       <c r="B490" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C490">
         <v>1</v>
       </c>
       <c r="D490" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -23808,13 +23810,13 @@
         <v>26</v>
       </c>
       <c r="B491" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C491">
         <v>1</v>
       </c>
       <c r="D491" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -23822,7 +23824,7 @@
         <v>26</v>
       </c>
       <c r="B492" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -23836,7 +23838,7 @@
         <v>26</v>
       </c>
       <c r="B493" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -23850,13 +23852,13 @@
         <v>26</v>
       </c>
       <c r="B494" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -23864,13 +23866,13 @@
         <v>26</v>
       </c>
       <c r="B495" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C495">
         <v>1</v>
       </c>
       <c r="D495" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -23878,13 +23880,13 @@
         <v>26</v>
       </c>
       <c r="B496" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
       <c r="D496" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -23892,13 +23894,13 @@
         <v>26</v>
       </c>
       <c r="B497" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C497">
         <v>1</v>
       </c>
       <c r="D497" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -23906,13 +23908,13 @@
         <v>26</v>
       </c>
       <c r="B498" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C498">
         <v>1</v>
       </c>
       <c r="D498" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -23920,13 +23922,13 @@
         <v>26</v>
       </c>
       <c r="B499" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C499">
         <v>1</v>
       </c>
       <c r="D499" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -23934,7 +23936,7 @@
         <v>26</v>
       </c>
       <c r="B500" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -23948,13 +23950,13 @@
         <v>26</v>
       </c>
       <c r="B501" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C501">
         <v>1</v>
       </c>
       <c r="D501" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -23962,13 +23964,13 @@
         <v>26</v>
       </c>
       <c r="B502" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C502">
         <v>1</v>
       </c>
       <c r="D502" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -23976,7 +23978,7 @@
         <v>26</v>
       </c>
       <c r="B503" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -23990,7 +23992,7 @@
         <v>26</v>
       </c>
       <c r="B504" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -24004,13 +24006,13 @@
         <v>26</v>
       </c>
       <c r="B505" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C505">
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -24018,13 +24020,13 @@
         <v>26</v>
       </c>
       <c r="B506" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C506">
         <v>1</v>
       </c>
       <c r="D506" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -24032,7 +24034,7 @@
         <v>26</v>
       </c>
       <c r="B507" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -24046,7 +24048,7 @@
         <v>26</v>
       </c>
       <c r="B508" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -24060,7 +24062,7 @@
         <v>26</v>
       </c>
       <c r="B509" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -24074,7 +24076,7 @@
         <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -24088,13 +24090,13 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C511">
         <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -24102,13 +24104,13 @@
         <v>26</v>
       </c>
       <c r="B512" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C512">
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -24116,7 +24118,7 @@
         <v>26</v>
       </c>
       <c r="B513" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -24130,7 +24132,7 @@
         <v>26</v>
       </c>
       <c r="B514" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -24144,7 +24146,7 @@
         <v>26</v>
       </c>
       <c r="B515" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -24158,13 +24160,13 @@
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C516">
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -24172,7 +24174,7 @@
         <v>26</v>
       </c>
       <c r="B517" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -24186,7 +24188,7 @@
         <v>26</v>
       </c>
       <c r="B518" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -24200,13 +24202,13 @@
         <v>26</v>
       </c>
       <c r="B519" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C519">
         <v>1</v>
       </c>
       <c r="D519" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -24214,13 +24216,13 @@
         <v>26</v>
       </c>
       <c r="B520" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -24228,13 +24230,13 @@
         <v>26</v>
       </c>
       <c r="B521" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -24242,7 +24244,7 @@
         <v>26</v>
       </c>
       <c r="B522" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -24256,7 +24258,7 @@
         <v>26</v>
       </c>
       <c r="B523" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -24270,7 +24272,7 @@
         <v>26</v>
       </c>
       <c r="B524" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -24284,7 +24286,7 @@
         <v>26</v>
       </c>
       <c r="B525" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -24298,13 +24300,13 @@
         <v>26</v>
       </c>
       <c r="B526" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C526">
         <v>1</v>
       </c>
       <c r="D526" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -24312,7 +24314,7 @@
         <v>26</v>
       </c>
       <c r="B527" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -24326,7 +24328,7 @@
         <v>26</v>
       </c>
       <c r="B528" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -24340,13 +24342,13 @@
         <v>26</v>
       </c>
       <c r="B529" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C529">
         <v>1</v>
       </c>
       <c r="D529" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -24354,13 +24356,13 @@
         <v>26</v>
       </c>
       <c r="B530" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C530">
         <v>1</v>
       </c>
       <c r="D530" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -24368,13 +24370,13 @@
         <v>26</v>
       </c>
       <c r="B531" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C531">
         <v>1</v>
       </c>
       <c r="D531" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -24382,7 +24384,7 @@
         <v>26</v>
       </c>
       <c r="B532" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -24396,7 +24398,7 @@
         <v>26</v>
       </c>
       <c r="B533" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -24410,13 +24412,13 @@
         <v>26</v>
       </c>
       <c r="B534" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -24424,13 +24426,13 @@
         <v>26</v>
       </c>
       <c r="B535" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C535">
         <v>1</v>
       </c>
       <c r="D535" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -24438,13 +24440,13 @@
         <v>26</v>
       </c>
       <c r="B536" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C536">
         <v>1</v>
       </c>
       <c r="D536" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -24452,13 +24454,13 @@
         <v>26</v>
       </c>
       <c r="B537" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C537">
         <v>1</v>
       </c>
       <c r="D537" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -24466,7 +24468,7 @@
         <v>26</v>
       </c>
       <c r="B538" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -24480,13 +24482,13 @@
         <v>26</v>
       </c>
       <c r="B539" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C539">
         <v>1</v>
       </c>
       <c r="D539" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -24494,7 +24496,7 @@
         <v>26</v>
       </c>
       <c r="B540" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -24508,7 +24510,7 @@
         <v>26</v>
       </c>
       <c r="B541" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -24522,7 +24524,7 @@
         <v>26</v>
       </c>
       <c r="B542" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -24536,7 +24538,7 @@
         <v>26</v>
       </c>
       <c r="B543" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -24550,13 +24552,13 @@
         <v>26</v>
       </c>
       <c r="B544" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C544">
         <v>1</v>
       </c>
       <c r="D544" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -24564,13 +24566,13 @@
         <v>26</v>
       </c>
       <c r="B545" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C545">
         <v>1</v>
       </c>
       <c r="D545" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -24578,7 +24580,7 @@
         <v>26</v>
       </c>
       <c r="B546" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -24592,7 +24594,7 @@
         <v>26</v>
       </c>
       <c r="B547" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -24606,13 +24608,13 @@
         <v>26</v>
       </c>
       <c r="B548" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C548">
         <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -24620,13 +24622,13 @@
         <v>26</v>
       </c>
       <c r="B549" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C549">
         <v>1</v>
       </c>
       <c r="D549" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -24634,13 +24636,13 @@
         <v>26</v>
       </c>
       <c r="B550" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C550">
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -24648,13 +24650,13 @@
         <v>26</v>
       </c>
       <c r="B551" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C551">
         <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -24662,13 +24664,13 @@
         <v>26</v>
       </c>
       <c r="B552" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C552">
         <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -24676,13 +24678,13 @@
         <v>26</v>
       </c>
       <c r="B553" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C553">
         <v>1</v>
       </c>
       <c r="D553" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -24690,13 +24692,13 @@
         <v>26</v>
       </c>
       <c r="B554" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C554">
         <v>1</v>
       </c>
       <c r="D554" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -24704,13 +24706,13 @@
         <v>26</v>
       </c>
       <c r="B555" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C555">
         <v>1</v>
       </c>
       <c r="D555" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -24718,13 +24720,13 @@
         <v>26</v>
       </c>
       <c r="B556" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C556">
         <v>1</v>
       </c>
       <c r="D556" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -24732,13 +24734,13 @@
         <v>26</v>
       </c>
       <c r="B557" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C557">
         <v>1</v>
       </c>
       <c r="D557" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -24746,7 +24748,7 @@
         <v>26</v>
       </c>
       <c r="B558" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C558">
         <v>1</v>
@@ -24760,7 +24762,7 @@
         <v>26</v>
       </c>
       <c r="B559" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -24774,13 +24776,13 @@
         <v>26</v>
       </c>
       <c r="B560" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C560">
         <v>1</v>
       </c>
       <c r="D560" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -24788,13 +24790,13 @@
         <v>26</v>
       </c>
       <c r="B561" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C561">
         <v>1</v>
       </c>
       <c r="D561" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -24802,7 +24804,7 @@
         <v>26</v>
       </c>
       <c r="B562" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -24816,7 +24818,7 @@
         <v>26</v>
       </c>
       <c r="B563" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C563">
         <v>1</v>
@@ -24830,7 +24832,7 @@
         <v>26</v>
       </c>
       <c r="B564" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -24844,13 +24846,13 @@
         <v>26</v>
       </c>
       <c r="B565" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C565">
         <v>1</v>
       </c>
       <c r="D565" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -24858,7 +24860,7 @@
         <v>26</v>
       </c>
       <c r="B566" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -24872,13 +24874,13 @@
         <v>26</v>
       </c>
       <c r="B567" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C567">
         <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -24886,7 +24888,7 @@
         <v>26</v>
       </c>
       <c r="B568" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C568">
         <v>1</v>
@@ -24900,13 +24902,13 @@
         <v>26</v>
       </c>
       <c r="B569" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C569">
         <v>1</v>
       </c>
       <c r="D569" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -24914,13 +24916,13 @@
         <v>26</v>
       </c>
       <c r="B570" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C570">
         <v>1</v>
       </c>
       <c r="D570" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -24928,7 +24930,7 @@
         <v>26</v>
       </c>
       <c r="B571" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -24942,7 +24944,7 @@
         <v>26</v>
       </c>
       <c r="B572" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C572">
         <v>1</v>
@@ -24956,13 +24958,13 @@
         <v>26</v>
       </c>
       <c r="B573" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C573">
         <v>1</v>
       </c>
       <c r="D573" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -24970,13 +24972,13 @@
         <v>26</v>
       </c>
       <c r="B574" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C574">
         <v>1</v>
       </c>
       <c r="D574" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -24984,13 +24986,13 @@
         <v>26</v>
       </c>
       <c r="B575" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C575">
         <v>1</v>
       </c>
       <c r="D575" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -24998,7 +25000,7 @@
         <v>26</v>
       </c>
       <c r="B576" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C576">
         <v>1</v>
@@ -25012,13 +25014,13 @@
         <v>26</v>
       </c>
       <c r="B577" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C577">
         <v>1</v>
       </c>
       <c r="D577" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -25026,7 +25028,7 @@
         <v>26</v>
       </c>
       <c r="B578" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -25040,13 +25042,13 @@
         <v>26</v>
       </c>
       <c r="B579" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C579">
         <v>1</v>
       </c>
       <c r="D579" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -25054,13 +25056,13 @@
         <v>26</v>
       </c>
       <c r="B580" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C580">
         <v>1</v>
       </c>
       <c r="D580" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -25068,13 +25070,13 @@
         <v>26</v>
       </c>
       <c r="B581" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C581">
         <v>1</v>
       </c>
       <c r="D581" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -25082,7 +25084,7 @@
         <v>26</v>
       </c>
       <c r="B582" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -25096,7 +25098,7 @@
         <v>26</v>
       </c>
       <c r="B583" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -25110,13 +25112,13 @@
         <v>26</v>
       </c>
       <c r="B584" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C584">
         <v>1</v>
       </c>
       <c r="D584" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
